--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\Base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD14548-A721-4FA5-BCA4-1EB2E3642613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808484D9-6934-4E95-8303-A91B0437FE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -433,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -471,12 +471,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,12 +843,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D7617A-7B77-41F9-8A62-D7C82E0D67C6}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="600" topLeftCell="A13" activePane="bottomLeft"/>
       <selection sqref="A1:N1048576"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="7" t="str">
-        <f t="shared" ref="N3:N23" si="0">"C:\VentaSoft\Imágenes de artículos\"&amp;A3&amp;".png"</f>
+        <f t="shared" ref="N3:N24" si="0">"C:\VentaSoft\Imágenes de artículos\"&amp;A3&amp;".png"</f>
         <v>C:\VentaSoft\Imágenes de artículos\2222.png</v>
       </c>
     </row>
@@ -1887,6 +1901,15 @@
       <c r="N23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>C:\VentaSoft\Imágenes de artículos\7798100200583.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>7791600087012</v>
+      </c>
+      <c r="N24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\VentaSoft\Imágenes de artículos\7791600087012.png</v>
       </c>
     </row>
   </sheetData>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808484D9-6934-4E95-8303-A91B0437FE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0CB96-C0FD-4651-88BC-598A69628566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="1" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Título">Artículos!$1:$1</definedName>
+    <definedName name="Artículos">#REF!</definedName>
+    <definedName name="Maestro">#REF!</definedName>
+    <definedName name="Título">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t>Codigo</t>
   </si>
@@ -388,13 +390,91 @@
   </si>
   <si>
     <t>Cafés</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\1111.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\2222.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\3333.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\77990112.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\3086123206873.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790036973036.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790070336385.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790150006153.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790150430392.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790520010445.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790520016461.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790520995360.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790639003574.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791070000382.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791600087128.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791664000156.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791664000453.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791684000934.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7793913000139.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7795018002902.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798100200491.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798100200583.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791600087012.png</t>
+  </si>
+  <si>
+    <t>Eau de toilette</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Perfumes/Colonias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,38 +482,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -441,97 +499,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Hoja1" xfId="1" xr:uid="{BD67F860-0A4B-4CD7-9A99-DAC22F17C922}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,18 +819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D7617A-7B77-41F9-8A62-D7C82E0D67C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A13" activePane="bottomLeft"/>
-      <selection sqref="A1:N1048576"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
@@ -861,1062 +834,1071 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.28515625" customWidth="1"/>
+    <col min="14" max="14" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1111</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>1000</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7" t="str">
-        <f>"C:\VentaSoft\Imágenes de artículos\"&amp;A2&amp;".png"</f>
-        <v>C:\VentaSoft\Imágenes de artículos\1111.png</v>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>2222</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>1000</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="b">
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="str">
-        <f t="shared" ref="N3:N24" si="0">"C:\VentaSoft\Imágenes de artículos\"&amp;A3&amp;".png"</f>
-        <v>C:\VentaSoft\Imágenes de artículos\2222.png</v>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>3333</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>1000</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="b">
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\3333.png</v>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>77990112</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>200</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>12</v>
       </c>
-      <c r="L5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\77990112.png</v>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>3086123206873</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\3086123206873.png</v>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>7790036973036</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>210</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
         <v>12</v>
       </c>
-      <c r="L7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790036973036.png</v>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>7790070336385</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>500</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
         <v>12</v>
       </c>
-      <c r="L8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790070336385.png</v>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>7790150006153</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>500</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
         <v>12</v>
       </c>
-      <c r="L9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="b">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790150006153.png</v>
+      <c r="N9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>7790150430392</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10">
         <v>12</v>
       </c>
-      <c r="L10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="b">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790150430392.png</v>
+      <c r="N10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>7790520010445</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="L11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="b">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790520010445.png</v>
+      <c r="N11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>7790520016461</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>360</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="L12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="b">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790520016461.png</v>
+      <c r="N12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>7790520995360</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>24</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
         <v>24</v>
       </c>
-      <c r="L13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790520995360.png</v>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>7790639003574</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>1.5</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="12">
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
         <v>6</v>
       </c>
-      <c r="L14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="b">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7790639003574.png</v>
+      <c r="N14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>7791070000382</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>12</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="L15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7791070000382.png</v>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>7791600087128</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>150</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="L16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="b">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7791600087128.png</v>
+      <c r="N16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>7791664000156</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>500</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="L17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7791664000156.png</v>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>7791664000453</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>500</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
         <v>6</v>
       </c>
-      <c r="L18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7791664000453.png</v>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>7791684000934</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>500</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
         <v>12</v>
       </c>
-      <c r="L19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7791684000934.png</v>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>7793913000139</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="12">
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="L20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7793913000139.png</v>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>7795018002902</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>800</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="12">
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21">
         <v>12</v>
       </c>
-      <c r="L21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7795018002902.png</v>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>7798100200491</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="2">
-        <v>20</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="12">
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22">
         <v>10</v>
       </c>
-      <c r="L22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7798100200491.png</v>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>7798100200583</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="11">
-        <v>20</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="12">
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
         <v>10</v>
       </c>
-      <c r="L23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7798100200583.png</v>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>7791600087012</v>
       </c>
-      <c r="N24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\VentaSoft\Imágenes de artículos\7791600087012.png</v>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AW23">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0CB96-C0FD-4651-88BC-598A69628566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90810759-54E8-46C0-9AA2-066C45085875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90810759-54E8-46C0-9AA2-066C45085875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E5743-DD90-413F-855C-48D8E17920D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E5743-DD90-413F-855C-48D8E17920D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B4BA4-EE63-4326-91B8-38B382324CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B4BA4-EE63-4326-91B8-38B382324CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E53D41D-3E94-46C3-9069-E8E0A37DC12D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
         <v>140</v>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E53D41D-3E94-46C3-9069-E8E0A37DC12D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A0878-4416-4E0A-8824-8F15ADFC2220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="150">
   <si>
     <t>Codigo</t>
   </si>
@@ -468,13 +468,31 @@
   </si>
   <si>
     <t>Perfumes/Colonias</t>
+  </si>
+  <si>
+    <t>ImagenExactaDelArticulo</t>
+  </si>
+  <si>
+    <t>Talco</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>Veritas</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791520009743.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,16 +500,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -499,16 +533,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Artículos" xfId="1" xr:uid="{D35943D8-FE05-46B7-B26C-DF14F8A4977E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -820,9 +892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -840,9 +914,10 @@
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,8 +960,11 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1111</v>
       </c>
@@ -929,8 +1007,11 @@
       <c r="N2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2222</v>
       </c>
@@ -973,8 +1054,11 @@
       <c r="N3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3333</v>
       </c>
@@ -1017,8 +1101,11 @@
       <c r="N4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>77990112</v>
       </c>
@@ -1061,8 +1148,11 @@
       <c r="N5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3086123206873</v>
       </c>
@@ -1105,8 +1195,11 @@
       <c r="N6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7790036973036</v>
       </c>
@@ -1149,8 +1242,11 @@
       <c r="N7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7790070336385</v>
       </c>
@@ -1193,8 +1289,11 @@
       <c r="N8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7790150006153</v>
       </c>
@@ -1237,8 +1336,11 @@
       <c r="N9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7790150430392</v>
       </c>
@@ -1281,8 +1383,11 @@
       <c r="N10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7790520010445</v>
       </c>
@@ -1325,8 +1430,11 @@
       <c r="N11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7790520016461</v>
       </c>
@@ -1369,8 +1477,11 @@
       <c r="N12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7790520995360</v>
       </c>
@@ -1413,8 +1524,11 @@
       <c r="N13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7790639003574</v>
       </c>
@@ -1457,8 +1571,11 @@
       <c r="N14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7791070000382</v>
       </c>
@@ -1501,8 +1618,11 @@
       <c r="N15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7791600087128</v>
       </c>
@@ -1545,8 +1665,11 @@
       <c r="N16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7791664000156</v>
       </c>
@@ -1589,8 +1712,11 @@
       <c r="N17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7791664000453</v>
       </c>
@@ -1633,8 +1759,11 @@
       <c r="N18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>7791684000934</v>
       </c>
@@ -1677,8 +1806,11 @@
       <c r="N19" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7793913000139</v>
       </c>
@@ -1721,8 +1853,11 @@
       <c r="N20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7795018002902</v>
       </c>
@@ -1765,8 +1900,11 @@
       <c r="N21" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7798100200491</v>
       </c>
@@ -1809,8 +1947,11 @@
       <c r="N22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7798100200583</v>
       </c>
@@ -1853,8 +1994,11 @@
       <c r="N23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7791600087012</v>
       </c>
@@ -1896,6 +2040,53 @@
       </c>
       <c r="N24" t="s">
         <v>140</v>
+      </c>
+      <c r="O24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>7791520009743</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25">
+        <v>180</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A0878-4416-4E0A-8824-8F15ADFC2220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29AA348-984E-4967-929C-D01D61A7A68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>118</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>119</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>120</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>121</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>123</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>124</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
         <v>129</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
         <v>133</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>134</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
         <v>135</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
         <v>136</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
         <v>137</v>
@@ -1948,7 +1948,7 @@
         <v>138</v>
       </c>
       <c r="O22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
         <v>149</v>
       </c>
       <c r="O25" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29AA348-984E-4967-929C-D01D61A7A68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948BFF30-8E73-4267-B33D-4DF0C8D815C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -1619,7 +1619,7 @@
         <v>131</v>
       </c>
       <c r="O15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948BFF30-8E73-4267-B33D-4DF0C8D815C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18844C7-99CE-43AB-A43F-3953FCD0E029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18844C7-99CE-43AB-A43F-3953FCD0E029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12FF01E-82E3-4856-9DCF-5C7F2B9BCEC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12FF01E-82E3-4856-9DCF-5C7F2B9BCEC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4812551-6798-4AA8-8CCD-33B3CD023881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
   <si>
     <t>Codigo</t>
   </si>
@@ -89,9 +89,6 @@
     <t>para hombre</t>
   </si>
   <si>
-    <t>blanco</t>
-  </si>
-  <si>
     <t>ml.</t>
   </si>
   <si>
@@ -482,10 +479,82 @@
     <t>Veritas</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791520009743.png</t>
+  </si>
+  <si>
+    <t>Mayonesa</t>
+  </si>
+  <si>
+    <t>libre de gluten</t>
+  </si>
+  <si>
+    <t>clásica</t>
+  </si>
+  <si>
+    <t>Hellmann's</t>
+  </si>
+  <si>
+    <t>Pouch</t>
+  </si>
+  <si>
+    <t>Aderezos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7794000006065.png</t>
+  </si>
+  <si>
+    <t>Azúcar</t>
+  </si>
+  <si>
+    <t>común tipo "A"</t>
+  </si>
+  <si>
+    <t>Ledesma</t>
+  </si>
+  <si>
+    <t>kg.</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7792540260138.png</t>
+  </si>
+  <si>
+    <t>suave</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790639003895.png</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791600174767.png</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791600192372.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791600192488.png</t>
+  </si>
+  <si>
+    <t>Huevos</t>
+  </si>
+  <si>
+    <t>frescos medianos</t>
+  </si>
+  <si>
+    <t>de granja</t>
+  </si>
+  <si>
+    <t>Cismondi</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\2001300000798.png</t>
   </si>
 </sst>
 </file>
@@ -892,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -961,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -969,31 +1038,31 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2">
         <v>1000</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1005,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O2" s="3" t="b">
         <v>1</v>
@@ -1016,31 +1085,31 @@
         <v>2222</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1000</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1052,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O3" s="3" t="b">
         <v>1</v>
@@ -1063,31 +1132,31 @@
         <v>3333</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
       </c>
       <c r="F4">
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1099,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O4" s="3" t="b">
         <v>1</v>
@@ -1110,31 +1179,31 @@
         <v>77990112</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
       </c>
       <c r="F5">
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1146,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O5" s="3" t="b">
         <v>1</v>
@@ -1157,31 +1226,31 @@
         <v>3086123206873</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
       </c>
       <c r="K6">
         <v>50</v>
@@ -1193,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -1204,31 +1273,31 @@
         <v>7790036973036</v>
       </c>
       <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
       </c>
       <c r="F7">
         <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -1240,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1251,31 +1320,31 @@
         <v>7790070336385</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
       </c>
       <c r="F8">
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -1287,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1298,31 +1367,31 @@
         <v>7790150006153</v>
       </c>
       <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
         <v>113</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
       </c>
       <c r="F9">
         <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -1334,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1345,31 +1414,31 @@
         <v>7790150430392</v>
       </c>
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
         <v>12</v>
@@ -1381,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1392,31 +1461,31 @@
         <v>7790520010445</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>12</v>
@@ -1428,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1442,28 +1511,28 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1475,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1486,31 +1555,31 @@
         <v>7790520995360</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
       </c>
       <c r="F13">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13">
         <v>24</v>
@@ -1522,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1533,31 +1602,31 @@
         <v>7790639003574</v>
       </c>
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
         <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>103</v>
       </c>
       <c r="F14">
         <v>1.5</v>
       </c>
       <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
         <v>106</v>
       </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" t="s">
-        <v>107</v>
-      </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -1569,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1580,31 +1649,31 @@
         <v>7791070000382</v>
       </c>
       <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1616,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>0</v>
@@ -1633,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1642,16 +1711,16 @@
         <v>150</v>
       </c>
       <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16">
         <v>12</v>
@@ -1663,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1674,31 +1743,31 @@
         <v>7791664000156</v>
       </c>
       <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>89</v>
       </c>
       <c r="F17">
         <v>500</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -1710,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1721,31 +1790,31 @@
         <v>7791664000453</v>
       </c>
       <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>97</v>
       </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <v>500</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -1757,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1768,31 +1837,31 @@
         <v>7791684000934</v>
       </c>
       <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
         <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
       </c>
       <c r="F19">
         <v>500</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -1804,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -1815,31 +1884,31 @@
         <v>7793913000139</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -1851,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -1862,31 +1931,31 @@
         <v>7795018002902</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
       </c>
       <c r="F21">
         <v>800</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21">
         <v>12</v>
@@ -1898,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -1909,31 +1978,31 @@
         <v>7798100200491</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -1945,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -1956,31 +2025,31 @@
         <v>7798100200583</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
         <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -1992,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2003,13 +2072,13 @@
         <v>7791600087012</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -2018,16 +2087,16 @@
         <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2039,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2050,43 +2119,375 @@
         <v>7791520009743</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
         <v>146</v>
-      </c>
-      <c r="E25" t="s">
-        <v>147</v>
       </c>
       <c r="F25">
         <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>7794000006065</v>
+      </c>
+      <c r="B26" t="s">
         <v>148</v>
       </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>154</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>7792540260138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>159</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7790639003895</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28">
+        <v>1.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7791600174767</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>149</v>
-      </c>
-      <c r="O25" s="3" t="b">
-        <v>1</v>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>7791600192372</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>7791600192488</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2001300000798</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>172</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4812551-6798-4AA8-8CCD-33B3CD023881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52C15E-B78B-4FAB-B8B4-DD33EF6E729F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="181">
   <si>
     <t>Codigo</t>
   </si>
@@ -555,6 +555,30 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\2001300000798.png</t>
+  </si>
+  <si>
+    <t>Detergente</t>
+  </si>
+  <si>
+    <t>desengrasante</t>
+  </si>
+  <si>
+    <t>bioactive lima</t>
+  </si>
+  <si>
+    <t>Cif</t>
+  </si>
+  <si>
+    <t>Detergentes</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791290794115.png</t>
+  </si>
+  <si>
+    <t>Campanita</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791070000078.png</t>
   </si>
 </sst>
 </file>
@@ -961,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1035,46 +1059,46 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1111</v>
+        <v>7791290794115</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="O2" s="3" t="b">
         <v>1</v>
@@ -1082,7 +1106,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1091,10 +1115,10 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -1121,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" s="3" t="b">
         <v>1</v>
@@ -1129,19 +1153,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -1153,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1168,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="3" t="b">
         <v>1</v>
@@ -1176,46 +1200,46 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O5" s="3" t="b">
         <v>1</v>
@@ -1223,46 +1247,46 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -1270,46 +1294,46 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1317,31 +1341,31 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1356,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1364,19 +1388,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -1388,7 +1412,7 @@
         <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1403,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1411,22 +1435,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -1435,7 +1459,7 @@
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1450,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1458,34 +1482,34 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K11">
         <v>12</v>
@@ -1497,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1505,37 +1529,37 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1544,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1552,37 +1576,37 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1591,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1599,37 +1623,37 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1638,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1646,131 +1670,131 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1779,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1787,16 +1811,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
@@ -1826,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1834,16 +1858,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
@@ -1864,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1873,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -1881,31 +1905,31 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -1920,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -1928,31 +1952,31 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F21">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -1967,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -1975,46 +1999,46 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2022,19 +2046,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -2061,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2069,46 +2093,46 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
         <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2116,31 +2140,31 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -2155,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2163,37 +2187,37 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F26">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2202,45 +2226,45 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2249,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -2257,37 +2281,37 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="F28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2296,39 +2320,39 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F29">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -2343,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2351,7 +2375,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2360,13 +2384,13 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -2390,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2398,7 +2422,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2413,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -2437,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2445,49 +2469,143 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <v>7791600192488</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>250</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>166</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>2001300000798</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>167</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>168</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>169</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>170</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>6</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>49</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>171</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>167</v>
       </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>172</v>
       </c>
-      <c r="O32" t="b">
-        <v>0</v>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>180</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52C15E-B78B-4FAB-B8B4-DD33EF6E729F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615946F-581E-4534-A111-5B82D9DB616D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="186">
   <si>
     <t>Codigo</t>
   </si>
@@ -579,6 +579,21 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791070000078.png</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>para empanadas</t>
+  </si>
+  <si>
+    <t>"freir"</t>
+  </si>
+  <si>
+    <t>Di Pascualle</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798118140024.png</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1106,46 +1121,46 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1111</v>
+        <v>7798118140024</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="O3" s="3" t="b">
         <v>1</v>
@@ -1153,7 +1168,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1162,10 +1177,10 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -1192,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O4" s="3" t="b">
         <v>1</v>
@@ -1200,19 +1215,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -1224,7 +1239,7 @@
         <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1239,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O5" s="3" t="b">
         <v>1</v>
@@ -1247,46 +1262,46 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -1294,46 +1309,46 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1341,46 +1356,46 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1388,31 +1403,31 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1427,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1435,19 +1450,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -1459,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1474,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1482,22 +1497,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -1506,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1521,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1529,34 +1544,34 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K12">
         <v>12</v>
@@ -1568,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1576,37 +1591,37 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F13">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1615,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1623,37 +1638,37 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1662,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1670,37 +1685,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F15">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1709,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1717,131 +1732,131 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1850,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1858,16 +1873,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
@@ -1897,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -1905,16 +1920,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
@@ -1935,7 +1950,7 @@
         <v>19</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1944,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -1952,31 +1967,31 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -1991,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -1999,31 +2014,31 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F22">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -2038,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2046,46 +2061,46 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2093,19 +2108,19 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F24">
         <v>20</v>
@@ -2132,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2140,46 +2155,46 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F25">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
         <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2187,31 +2202,31 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -2226,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2234,37 +2249,37 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F27">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2273,45 +2288,45 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2320,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -2328,37 +2343,37 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="F29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2367,39 +2382,39 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F30">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2414,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2422,7 +2437,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2431,13 +2446,13 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -2461,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2469,7 +2484,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2484,7 +2499,7 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2508,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2516,38 +2531,38 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F33">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33">
         <v>6</v>
       </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
@@ -2555,56 +2570,103 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
       </c>
       <c r="H34" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>172</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
         <v>39</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>44</v>
       </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34">
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35">
         <v>10</v>
       </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>180</v>
       </c>
-      <c r="O34" t="b">
+      <c r="O35" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615946F-581E-4534-A111-5B82D9DB616D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A04C28F-E33B-4931-A2A9-44B70F4B3161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
   <si>
     <t>Codigo</t>
   </si>
@@ -594,6 +594,15 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7798118140024.png</t>
+  </si>
+  <si>
+    <t>ultrapasteurizada</t>
+  </si>
+  <si>
+    <t>Manfrey</t>
+  </si>
+  <si>
+    <t>pelado</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1168,66 +1177,45 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1111</v>
+        <v>7791058000595</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -1254,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O5" s="3" t="b">
         <v>1</v>
@@ -1262,19 +1250,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -1286,7 +1274,7 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1301,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -1309,46 +1297,46 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1356,46 +1344,46 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1403,46 +1391,46 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F9">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1450,31 +1438,31 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1489,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1497,19 +1485,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -1521,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1536,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1544,22 +1532,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -1568,7 +1556,7 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1583,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1591,34 +1579,34 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -1630,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1638,37 +1626,37 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1677,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1685,37 +1673,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1724,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1732,37 +1720,37 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1771,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1779,131 +1767,131 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1912,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -1920,16 +1908,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
@@ -1959,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -1967,16 +1955,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
@@ -1997,7 +1985,7 @@
         <v>19</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2006,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -2014,31 +2002,31 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -2053,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2061,31 +2049,31 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F23">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2100,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2108,46 +2096,46 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2155,19 +2143,19 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F25">
         <v>20</v>
@@ -2194,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2202,46 +2190,46 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F26">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2249,31 +2237,31 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2288,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2296,37 +2284,37 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F28">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2335,45 +2323,45 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
         <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2382,45 +2370,45 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="F30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2429,39 +2417,39 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F31">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2476,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2484,7 +2472,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2493,13 +2481,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2523,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2531,7 +2519,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -2546,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="F33">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2570,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2578,38 +2566,38 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F34">
+        <v>250</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34">
         <v>6</v>
       </c>
-      <c r="G34" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
@@ -2617,56 +2605,103 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
         <v>49</v>
       </c>
       <c r="H35" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>172</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
         <v>39</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>44</v>
       </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35">
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36">
         <v>10</v>
       </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>180</v>
       </c>
-      <c r="O35" t="b">
+      <c r="O36" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A04C28F-E33B-4931-A2A9-44B70F4B3161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA805F5-4DA4-48B3-ABBB-6E3B28A16126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="192">
   <si>
     <t>Codigo</t>
   </si>
@@ -603,6 +603,15 @@
   </si>
   <si>
     <t>pelado</t>
+  </si>
+  <si>
+    <t>Sachet</t>
+  </si>
+  <si>
+    <t>Leches</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791058000595.png</t>
   </si>
 </sst>
 </file>
@@ -1191,14 +1200,35 @@
       <c r="E4" t="s">
         <v>187</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>191</v>
       </c>
       <c r="O4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA805F5-4DA4-48B3-ABBB-6E3B28A16126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4A2BF-668C-4065-91EB-CC37854E5FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="198">
   <si>
     <t>Codigo</t>
   </si>
@@ -612,6 +612,24 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791058000595.png</t>
+  </si>
+  <si>
+    <t>Tubos</t>
+  </si>
+  <si>
+    <t>para armar</t>
+  </si>
+  <si>
+    <t>cigarrillos</t>
+  </si>
+  <si>
+    <t>Stamps</t>
+  </si>
+  <si>
+    <t>Tabaco</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798205440198.png</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1233,46 +1251,46 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1111</v>
+        <v>7798205440198</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O5" s="3" t="b">
         <v>1</v>
@@ -1280,19 +1298,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -1319,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -1327,19 +1345,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -1351,7 +1369,7 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1366,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1374,46 +1392,46 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1421,46 +1439,46 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1468,46 +1486,46 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1515,31 +1533,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F11">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1554,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1562,19 +1580,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F12">
         <v>500</v>
@@ -1586,7 +1604,7 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1601,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1609,22 +1627,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -1633,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1648,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1656,34 +1674,34 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -1695,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1703,37 +1721,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F15">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1742,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1750,37 +1768,37 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1789,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1797,37 +1815,37 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F17">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1836,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1844,131 +1862,131 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1977,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -1985,16 +2003,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
@@ -2024,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -2032,16 +2050,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
@@ -2062,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2071,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2079,31 +2097,31 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2118,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2126,31 +2144,31 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -2165,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2173,46 +2191,46 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2220,19 +2238,19 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -2259,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2267,46 +2285,46 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F27">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
         <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2314,31 +2332,31 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -2353,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2361,37 +2379,37 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F29">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G29" t="s">
         <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2400,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2408,37 +2426,37 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2447,45 +2465,45 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="F31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2494,39 +2512,39 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F32">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2541,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2549,7 +2567,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -2558,13 +2576,13 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2588,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2596,7 +2614,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2611,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="F34">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2635,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2643,38 +2661,38 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F35">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35">
         <v>6</v>
       </c>
-      <c r="G35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" t="s">
-        <v>171</v>
-      </c>
-      <c r="I35" t="s">
-        <v>167</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
@@ -2682,56 +2700,103 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
         <v>49</v>
       </c>
       <c r="H36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>172</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
         <v>39</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>44</v>
       </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36">
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37">
         <v>10</v>
       </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>180</v>
       </c>
-      <c r="O36" t="b">
+      <c r="O37" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4A2BF-668C-4065-91EB-CC37854E5FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63359D5A-D84C-4777-90BB-52439AE23149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="204">
   <si>
     <t>Codigo</t>
   </si>
@@ -630,6 +630,24 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7798205440198.png</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Saborizada</t>
+  </si>
+  <si>
+    <t>pera</t>
+  </si>
+  <si>
+    <t>Levite</t>
+  </si>
+  <si>
+    <t>Aguas saborizadas</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7799155000579.png</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1298,46 +1316,46 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1111</v>
+        <v>7799155000579</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -1345,19 +1363,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -1384,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1392,19 +1410,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -1416,7 +1434,7 @@
         <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1431,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1439,46 +1457,46 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1486,46 +1504,46 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1533,46 +1551,46 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1580,31 +1598,31 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1619,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1627,19 +1645,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -1651,7 +1669,7 @@
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1666,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1674,22 +1692,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -1698,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1713,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1721,34 +1739,34 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K15">
         <v>12</v>
@@ -1760,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1768,37 +1786,37 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1807,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1815,37 +1833,37 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1854,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1862,37 +1880,37 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F18">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1901,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1909,131 +1927,131 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O19" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2042,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -2050,16 +2068,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
@@ -2089,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2097,16 +2115,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>88</v>
@@ -2127,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2136,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2144,31 +2162,31 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -2183,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2191,31 +2209,31 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F25">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -2230,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2238,46 +2256,46 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2285,19 +2303,19 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F27">
         <v>20</v>
@@ -2324,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2332,46 +2350,46 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F28">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2379,31 +2397,31 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -2418,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2426,37 +2444,37 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F30">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2465,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2473,37 +2491,37 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2512,45 +2530,45 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="F32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2559,39 +2577,39 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F33">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -2606,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2614,7 +2632,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2623,13 +2641,13 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
       </c>
       <c r="F34">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2653,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2661,7 +2679,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2676,7 +2694,7 @@
         <v>15</v>
       </c>
       <c r="F35">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2700,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2708,38 +2726,38 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F36">
+        <v>250</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36">
         <v>6</v>
       </c>
-      <c r="G36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" t="s">
-        <v>167</v>
-      </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
@@ -2747,56 +2765,103 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
         <v>49</v>
       </c>
       <c r="H37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>172</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
         <v>39</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>44</v>
       </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37">
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38">
         <v>10</v>
       </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>180</v>
       </c>
-      <c r="O37" t="b">
+      <c r="O38" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63359D5A-D84C-4777-90BB-52439AE23149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5918D68F-5B22-42C0-81AC-244467E5E5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
   <si>
     <t>Codigo</t>
   </si>
@@ -648,6 +648,18 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7799155000579.png</t>
+  </si>
+  <si>
+    <t>dietética</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791813420057.png</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1363,46 +1375,46 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1111</v>
+        <v>7791813420057</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1410,19 +1422,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -1449,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1457,19 +1469,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1481,7 +1493,7 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1496,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1504,46 +1516,46 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1551,46 +1563,46 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1598,46 +1610,46 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1645,31 +1657,31 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1684,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1692,19 +1704,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>500</v>
@@ -1716,7 +1728,7 @@
         <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1731,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1739,22 +1751,22 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -1763,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -1778,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1786,34 +1798,34 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K16">
         <v>12</v>
@@ -1825,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1833,37 +1845,37 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F17">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1872,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1880,37 +1892,37 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1919,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1927,37 +1939,37 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F19">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1966,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -1974,131 +1986,131 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O20" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2107,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2115,16 +2127,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
         <v>88</v>
@@ -2154,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2162,16 +2174,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
@@ -2192,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2201,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2209,31 +2221,31 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -2248,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2256,31 +2268,31 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F26">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -2295,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2303,46 +2315,46 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2350,19 +2362,19 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F28">
         <v>20</v>
@@ -2389,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2397,46 +2409,46 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F29">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
         <v>75</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2444,31 +2456,31 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2483,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2491,37 +2503,37 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F31">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2530,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2538,37 +2550,37 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2577,45 +2589,45 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="F33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2624,39 +2636,39 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F34">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -2671,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2679,7 +2691,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2688,13 +2700,13 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
       </c>
       <c r="F35">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2718,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2726,7 +2738,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2741,7 +2753,7 @@
         <v>15</v>
       </c>
       <c r="F36">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2765,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -2773,38 +2785,38 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37">
         <v>6</v>
       </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" t="s">
-        <v>167</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
@@ -2812,56 +2824,103 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
         <v>49</v>
       </c>
       <c r="H38" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
         <v>39</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>44</v>
       </c>
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38">
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39">
         <v>10</v>
       </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>180</v>
       </c>
-      <c r="O38" t="b">
+      <c r="O39" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5918D68F-5B22-42C0-81AC-244467E5E5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94354BC5-DBDD-4BC5-AEC8-62D22091EBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
   <si>
     <t>Codigo</t>
   </si>
@@ -506,9 +506,6 @@
     <t>Azúcar</t>
   </si>
   <si>
-    <t>común tipo "A"</t>
-  </si>
-  <si>
     <t>Ledesma</t>
   </si>
   <si>
@@ -660,6 +657,21 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791813420057.png</t>
+  </si>
+  <si>
+    <t>común</t>
+  </si>
+  <si>
+    <t>tipo "a"</t>
+  </si>
+  <si>
+    <t>Arcor</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790580127534.png</t>
+  </si>
+  <si>
+    <t>común tipo "a"</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1143,16 +1155,16 @@
         <v>7791290794115</v>
       </c>
       <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>174</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>175</v>
-      </c>
-      <c r="E2" t="s">
-        <v>176</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -1164,7 +1176,7 @@
         <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1179,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O2" s="3" t="b">
         <v>1</v>
@@ -1190,16 +1202,16 @@
         <v>7798118140024</v>
       </c>
       <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
         <v>181</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>182</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>183</v>
-      </c>
-      <c r="E3" t="s">
-        <v>184</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -1226,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O3" s="3" t="b">
         <v>1</v>
@@ -1240,13 +1252,13 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1255,10 +1267,10 @@
         <v>105</v>
       </c>
       <c r="H4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" t="s">
         <v>189</v>
-      </c>
-      <c r="I4" t="s">
-        <v>190</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1273,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O4" s="3" t="b">
         <v>1</v>
@@ -1284,16 +1296,16 @@
         <v>7798205440198</v>
       </c>
       <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
         <v>192</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>193</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>194</v>
-      </c>
-      <c r="E5" t="s">
-        <v>195</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1305,7 +1317,7 @@
         <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1320,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O5" s="3" t="b">
         <v>1</v>
@@ -1331,16 +1343,16 @@
         <v>7799155000579</v>
       </c>
       <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
         <v>198</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>199</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>200</v>
-      </c>
-      <c r="E6" t="s">
-        <v>201</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -1352,7 +1364,7 @@
         <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1367,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -1381,13 +1393,13 @@
         <v>101</v>
       </c>
       <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
         <v>204</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>205</v>
-      </c>
-      <c r="E7" t="s">
-        <v>206</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -1414,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7" s="3" t="b">
         <v>1</v>
@@ -1422,46 +1434,46 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1111</v>
+        <v>7790580127534</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="O8" s="3" t="b">
         <v>1</v>
@@ -1469,19 +1481,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1508,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1516,19 +1528,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1540,7 +1552,7 @@
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1555,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1563,46 +1575,46 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1610,46 +1622,46 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1657,46 +1669,46 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1704,31 +1716,31 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1743,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1751,19 +1763,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <v>500</v>
@@ -1775,7 +1787,7 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -1790,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1798,22 +1810,22 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -1822,7 +1834,7 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1837,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1845,34 +1857,34 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K17">
         <v>12</v>
@@ -1884,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1892,37 +1904,37 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F18">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1931,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1939,37 +1951,37 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1978,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -1986,37 +1998,37 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F20">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2025,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -2033,131 +2045,131 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O21" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O22" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2166,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2174,16 +2186,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
@@ -2213,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2221,16 +2233,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
@@ -2251,7 +2263,7 @@
         <v>19</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2260,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2268,31 +2280,31 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -2307,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2315,31 +2327,31 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F27">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2354,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2362,46 +2374,46 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2409,19 +2421,19 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F29">
         <v>20</v>
@@ -2448,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2456,46 +2468,46 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
         <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2503,31 +2515,31 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2542,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2550,37 +2562,37 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F32">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2589,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2597,37 +2609,37 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2636,45 +2648,45 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2683,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2691,31 +2703,31 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F35">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -2730,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2738,7 +2750,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2747,13 +2759,13 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
       </c>
       <c r="F36">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2777,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -2785,7 +2797,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2794,13 +2806,13 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
       </c>
       <c r="F37">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -2824,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -2832,38 +2844,38 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F38">
+        <v>250</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38">
         <v>6</v>
       </c>
-      <c r="G38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
@@ -2871,56 +2883,103 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
         <v>49</v>
       </c>
       <c r="H39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
         <v>39</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>44</v>
       </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39">
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40">
         <v>10</v>
       </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>180</v>
-      </c>
-      <c r="O39" t="b">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>179</v>
+      </c>
+      <c r="O40" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94354BC5-DBDD-4BC5-AEC8-62D22091EBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F639FE9D-BD19-4D60-8A97-E717C8318066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="217">
   <si>
     <t>Codigo</t>
   </si>
@@ -672,6 +672,21 @@
   </si>
   <si>
     <t>común tipo "a"</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>para manos</t>
+  </si>
+  <si>
+    <t>en gel</t>
+  </si>
+  <si>
+    <t>Algabo</t>
+  </si>
+  <si>
+    <t>Alcoholes</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1481,46 +1496,43 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1111</v>
+        <v>7791274196522</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>117</v>
       </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
@@ -1528,19 +1540,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1567,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1575,19 +1587,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -1599,7 +1611,7 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1614,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1622,46 +1634,46 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1669,46 +1681,46 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1716,46 +1728,46 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F14">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1763,31 +1775,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -1802,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1810,19 +1822,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F16">
         <v>500</v>
@@ -1834,7 +1846,7 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1849,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1857,22 +1869,22 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -1881,7 +1893,7 @@
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -1896,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1904,34 +1916,34 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -1943,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1951,37 +1963,37 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F19">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1990,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -1998,37 +2010,37 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2037,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -2045,37 +2057,37 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2084,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -2092,131 +2104,131 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F23">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O23" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2225,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O24" s="3" t="b">
         <v>1</v>
@@ -2233,16 +2245,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
@@ -2272,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2280,16 +2292,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>88</v>
@@ -2310,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2319,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2327,31 +2339,31 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2366,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2374,31 +2386,31 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F28">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -2413,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2421,46 +2433,46 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2468,19 +2480,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -2507,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2515,46 +2527,46 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
         <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2562,31 +2574,31 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2601,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2609,37 +2621,37 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F33">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2648,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2656,37 +2668,37 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2695,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2703,37 +2715,37 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2742,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2750,31 +2762,31 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F36">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
@@ -2789,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -2797,7 +2809,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2806,13 +2818,13 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
       </c>
       <c r="F37">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -2836,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -2844,7 +2856,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2859,7 +2871,7 @@
         <v>15</v>
       </c>
       <c r="F38">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -2883,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -2891,38 +2903,38 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F39">
+        <v>250</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39">
         <v>6</v>
       </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" t="s">
-        <v>166</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
@@ -2930,56 +2942,103 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
         <v>49</v>
       </c>
       <c r="H40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s">
         <v>39</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>44</v>
       </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40">
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41">
         <v>10</v>
       </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>179</v>
       </c>
-      <c r="O40" t="b">
+      <c r="O41" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F639FE9D-BD19-4D60-8A97-E717C8318066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3584AC11-23F9-4D79-BF82-F1C80BC48F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="218">
   <si>
     <t>Codigo</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>Alcoholes</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791274196522.png</t>
   </si>
 </sst>
 </file>
@@ -1534,6 +1537,9 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
+      <c r="N9" t="s">
+        <v>217</v>
+      </c>
       <c r="O9" s="3" t="b">
         <v>1</v>
       </c>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3584AC11-23F9-4D79-BF82-F1C80BC48F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3439F5-B941-4C52-979E-10B16BDDE95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3439F5-B941-4C52-979E-10B16BDDE95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C8B42-297E-4500-83AC-6E2FE2274B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="224">
   <si>
     <t>Codigo</t>
   </si>
@@ -690,6 +690,24 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791274196522.png</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>fina</t>
+  </si>
+  <si>
+    <t>sin tacc</t>
+  </si>
+  <si>
+    <t>Rinsal</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791004000013.png</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1546,46 +1564,46 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1111</v>
+        <v>7791004000013</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="O10" s="3" t="b">
         <v>1</v>
@@ -1593,19 +1611,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -1632,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O11" s="3" t="b">
         <v>1</v>
@@ -1640,19 +1658,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -1664,7 +1682,7 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1679,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1687,46 +1705,46 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1734,46 +1752,46 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K14">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1781,46 +1799,46 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1828,31 +1846,31 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1867,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1875,19 +1893,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>500</v>
@@ -1899,7 +1917,7 @@
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -1914,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1922,22 +1940,22 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -1946,7 +1964,7 @@
         <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -1961,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1969,34 +1987,34 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -2008,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -2016,37 +2034,37 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F20">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2055,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -2063,37 +2081,37 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2102,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -2110,37 +2128,37 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F22">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2149,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2157,131 +2175,131 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O23" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F24">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O24" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2290,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O25" s="3" t="b">
         <v>1</v>
@@ -2298,16 +2316,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
         <v>88</v>
@@ -2337,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2345,16 +2363,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
         <v>88</v>
@@ -2375,7 +2393,7 @@
         <v>19</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2384,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2392,31 +2410,31 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -2431,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2439,31 +2457,31 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F29">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -2478,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2486,46 +2504,46 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2533,19 +2551,19 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
         <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>20</v>
@@ -2572,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2580,46 +2598,46 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
         <v>75</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2627,31 +2645,31 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -2666,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2674,37 +2692,37 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F34">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2713,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2721,37 +2739,37 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
         <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2760,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2768,37 +2786,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2807,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -2815,31 +2833,31 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F37">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
@@ -2854,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -2862,7 +2880,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2871,13 +2889,13 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
       <c r="F38">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -2901,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -2909,7 +2927,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2924,7 +2942,7 @@
         <v>15</v>
       </c>
       <c r="F39">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -2948,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -2956,38 +2974,38 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F40">
+        <v>250</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40">
         <v>6</v>
       </c>
-      <c r="G40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" t="s">
-        <v>166</v>
-      </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
@@ -2995,56 +3013,103 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
       </c>
       <c r="H41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>171</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>44</v>
       </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41">
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42">
         <v>10</v>
       </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>179</v>
       </c>
-      <c r="O41" t="b">
+      <c r="O42" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C8B42-297E-4500-83AC-6E2FE2274B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A58FE2B-8345-45A9-B76B-CD9935D09583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="228">
   <si>
     <t>Codigo</t>
   </si>
@@ -708,6 +708,18 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791004000013.png</t>
+  </si>
+  <si>
+    <t>Aderezo a base de</t>
+  </si>
+  <si>
+    <t>mostaza</t>
+  </si>
+  <si>
+    <t>Savora</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7794000006478.png</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1611,66 +1623,66 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1111</v>
+        <v>7794000006478</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="O11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -1697,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -1705,19 +1717,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -1729,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1744,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -1752,46 +1764,46 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -1799,46 +1811,46 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K15">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O15" s="3" t="b">
         <v>1</v>
@@ -1846,46 +1858,46 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -1893,31 +1905,31 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -1932,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -1940,19 +1952,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <v>500</v>
@@ -1964,7 +1976,7 @@
         <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -1979,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="3" t="b">
         <v>1</v>
@@ -1987,22 +1999,22 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -2011,7 +2023,7 @@
         <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -2026,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O19" s="3" t="b">
         <v>1</v>
@@ -2034,34 +2046,34 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -2073,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O20" s="3" t="b">
         <v>1</v>
@@ -2081,37 +2093,37 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2120,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O21" s="3" t="b">
         <v>1</v>
@@ -2128,37 +2140,37 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2167,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O22" s="3" t="b">
         <v>1</v>
@@ -2175,37 +2187,37 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2214,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O23" s="3" t="b">
         <v>1</v>
@@ -2222,131 +2234,131 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O24" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O25" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2355,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2363,16 +2375,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>88</v>
@@ -2402,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2410,16 +2422,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
@@ -2440,7 +2452,7 @@
         <v>19</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2449,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2457,31 +2469,31 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -2496,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2504,31 +2516,31 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F30">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2543,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2551,46 +2563,46 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2598,19 +2610,19 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -2637,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2645,46 +2657,46 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F33">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
         <v>75</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2692,31 +2704,31 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -2731,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2739,37 +2751,37 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F35">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2778,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2786,37 +2798,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2825,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -2833,37 +2845,37 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2872,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -2880,31 +2892,31 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F38">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
@@ -2919,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -2927,7 +2939,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2936,13 +2948,13 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
         <v>15</v>
       </c>
       <c r="F39">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -2966,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -2974,7 +2986,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2989,7 +3001,7 @@
         <v>15</v>
       </c>
       <c r="F40">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -3013,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -3021,38 +3033,38 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F41">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41">
         <v>6</v>
       </c>
-      <c r="G41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
@@ -3060,56 +3072,103 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" t="s">
         <v>49</v>
       </c>
       <c r="H42" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" t="s">
         <v>39</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>44</v>
       </c>
-      <c r="J42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42">
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43">
         <v>10</v>
       </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>179</v>
       </c>
-      <c r="O42" t="b">
+      <c r="O43" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A58FE2B-8345-45A9-B76B-CD9935D09583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85481BF-F6B6-45BE-836E-973BB34DD766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -1665,7 +1665,7 @@
         <v>227</v>
       </c>
       <c r="O11" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85481BF-F6B6-45BE-836E-973BB34DD766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF4ECF-D050-4B23-BFB8-9800CC33B1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -745,41 +745,20 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -805,11 +784,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1128,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1127,7 @@
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1191,10 +1170,10 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1241,7 +1220,7 @@
       <c r="N2" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="3" t="b">
+      <c r="O2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1288,7 +1267,7 @@
       <c r="N3" t="s">
         <v>184</v>
       </c>
-      <c r="O3" s="3" t="b">
+      <c r="O3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1314,7 @@
       <c r="N4" t="s">
         <v>190</v>
       </c>
-      <c r="O4" s="3" t="b">
+      <c r="O4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1361,7 @@
       <c r="N5" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="3" t="b">
+      <c r="O5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1429,7 +1408,7 @@
       <c r="N6" t="s">
         <v>202</v>
       </c>
-      <c r="O6" s="3" t="b">
+      <c r="O6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1476,7 +1455,7 @@
       <c r="N7" t="s">
         <v>206</v>
       </c>
-      <c r="O7" s="3" t="b">
+      <c r="O7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1523,7 +1502,7 @@
       <c r="N8" t="s">
         <v>210</v>
       </c>
-      <c r="O8" s="3" t="b">
+      <c r="O8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1570,7 +1549,7 @@
       <c r="N9" t="s">
         <v>217</v>
       </c>
-      <c r="O9" s="3" t="b">
+      <c r="O9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1617,7 +1596,7 @@
       <c r="N10" t="s">
         <v>223</v>
       </c>
-      <c r="O10" s="3" t="b">
+      <c r="O10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1643,7 @@
       <c r="N11" t="s">
         <v>227</v>
       </c>
-      <c r="O11" s="3" t="b">
+      <c r="O11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1711,7 +1690,7 @@
       <c r="N12" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="3" t="b">
+      <c r="O12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1758,7 +1737,7 @@
       <c r="N13" t="s">
         <v>118</v>
       </c>
-      <c r="O13" s="3" t="b">
+      <c r="O13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1805,7 +1784,7 @@
       <c r="N14" t="s">
         <v>119</v>
       </c>
-      <c r="O14" s="3" t="b">
+      <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1852,7 +1831,7 @@
       <c r="N15" t="s">
         <v>120</v>
       </c>
-      <c r="O15" s="3" t="b">
+      <c r="O15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1899,7 +1878,7 @@
       <c r="N16" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="3" t="b">
+      <c r="O16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +1925,7 @@
       <c r="N17" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="3" t="b">
+      <c r="O17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1993,7 +1972,7 @@
       <c r="N18" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="3" t="b">
+      <c r="O18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2040,7 +2019,7 @@
       <c r="N19" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="3" t="b">
+      <c r="O19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2087,7 +2066,7 @@
       <c r="N20" t="s">
         <v>125</v>
       </c>
-      <c r="O20" s="3" t="b">
+      <c r="O20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2134,7 +2113,7 @@
       <c r="N21" t="s">
         <v>126</v>
       </c>
-      <c r="O21" s="3" t="b">
+      <c r="O21" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2181,7 +2160,7 @@
       <c r="N22" t="s">
         <v>127</v>
       </c>
-      <c r="O22" s="3" t="b">
+      <c r="O22" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2228,7 +2207,7 @@
       <c r="N23" t="s">
         <v>128</v>
       </c>
-      <c r="O23" s="3" t="b">
+      <c r="O23" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2275,7 +2254,7 @@
       <c r="N24" t="s">
         <v>129</v>
       </c>
-      <c r="O24" s="3" t="b">
+      <c r="O24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2322,7 +2301,7 @@
       <c r="N25" t="s">
         <v>130</v>
       </c>
-      <c r="O25" s="3" t="b">
+      <c r="O25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2369,7 +2348,7 @@
       <c r="N26" t="s">
         <v>131</v>
       </c>
-      <c r="O26" t="b">
+      <c r="O26" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2416,7 +2395,7 @@
       <c r="N27" t="s">
         <v>132</v>
       </c>
-      <c r="O27" t="b">
+      <c r="O27" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2463,7 +2442,7 @@
       <c r="N28" t="s">
         <v>133</v>
       </c>
-      <c r="O28" t="b">
+      <c r="O28" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2510,7 +2489,7 @@
       <c r="N29" t="s">
         <v>134</v>
       </c>
-      <c r="O29" t="b">
+      <c r="O29" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2557,7 +2536,7 @@
       <c r="N30" t="s">
         <v>135</v>
       </c>
-      <c r="O30" t="b">
+      <c r="O30" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2604,7 +2583,7 @@
       <c r="N31" t="s">
         <v>136</v>
       </c>
-      <c r="O31" t="b">
+      <c r="O31" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2651,7 +2630,7 @@
       <c r="N32" t="s">
         <v>137</v>
       </c>
-      <c r="O32" t="b">
+      <c r="O32" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2698,7 +2677,7 @@
       <c r="N33" t="s">
         <v>138</v>
       </c>
-      <c r="O33" t="b">
+      <c r="O33" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2745,7 +2724,7 @@
       <c r="N34" t="s">
         <v>139</v>
       </c>
-      <c r="O34" t="b">
+      <c r="O34" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2792,7 +2771,7 @@
       <c r="N35" t="s">
         <v>147</v>
       </c>
-      <c r="O35" t="b">
+      <c r="O35" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2839,7 +2818,7 @@
       <c r="N36" t="s">
         <v>154</v>
       </c>
-      <c r="O36" t="b">
+      <c r="O36" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2886,7 +2865,7 @@
       <c r="N37" t="s">
         <v>158</v>
       </c>
-      <c r="O37" t="b">
+      <c r="O37" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2933,7 +2912,7 @@
       <c r="N38" t="s">
         <v>160</v>
       </c>
-      <c r="O38" t="b">
+      <c r="O38" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2980,7 +2959,7 @@
       <c r="N39" t="s">
         <v>162</v>
       </c>
-      <c r="O39" t="b">
+      <c r="O39" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3027,7 +3006,7 @@
       <c r="N40" t="s">
         <v>164</v>
       </c>
-      <c r="O40" t="b">
+      <c r="O40" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3074,7 +3053,7 @@
       <c r="N41" t="s">
         <v>165</v>
       </c>
-      <c r="O41" t="b">
+      <c r="O41" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3121,7 +3100,7 @@
       <c r="N42" t="s">
         <v>171</v>
       </c>
-      <c r="O42" t="b">
+      <c r="O42" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3168,11 +3147,12 @@
       <c r="N43" t="s">
         <v>179</v>
       </c>
-      <c r="O43" t="b">
+      <c r="O43" s="3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF4ECF-D050-4B23-BFB8-9800CC33B1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE102ADE-7AFD-4C82-9572-CB947582CADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE102ADE-7AFD-4C82-9572-CB947582CADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBDF6A-DB2C-4744-8032-007E3006CFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="235">
   <si>
     <t>Codigo</t>
   </si>
@@ -720,6 +720,27 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7794000006478.png</t>
+  </si>
+  <si>
+    <t>Margarina</t>
+  </si>
+  <si>
+    <t>cremosa</t>
+  </si>
+  <si>
+    <t>dorada</t>
+  </si>
+  <si>
+    <t>Dánica</t>
+  </si>
+  <si>
+    <t>Pote</t>
+  </si>
+  <si>
+    <t>Margarinas</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791620187778.png</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1649,46 +1670,46 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1111</v>
+        <v>7791620187778</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -1696,19 +1717,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -1735,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -1743,19 +1764,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -1767,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1782,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -1790,46 +1811,46 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -1837,46 +1858,46 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -1884,46 +1905,46 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -1931,31 +1952,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -1970,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -1978,19 +1999,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F19">
         <v>500</v>
@@ -2002,7 +2023,7 @@
         <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -2017,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2025,22 +2046,22 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -2049,7 +2070,7 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -2064,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2072,34 +2093,34 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K21">
         <v>12</v>
@@ -2111,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2119,37 +2140,37 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F22">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2158,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2166,37 +2187,37 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2205,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2213,37 +2234,37 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F24">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2252,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2260,131 +2281,131 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F26">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O26" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2393,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2401,16 +2422,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
@@ -2440,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
@@ -2448,16 +2469,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
@@ -2478,7 +2499,7 @@
         <v>19</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2487,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2495,31 +2516,31 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2534,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2542,31 +2563,31 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F31">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2581,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2589,46 +2610,46 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2636,19 +2657,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F33">
         <v>20</v>
@@ -2675,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2683,46 +2704,46 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F34">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
         <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2730,31 +2751,31 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -2769,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -2777,37 +2798,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F36">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2816,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -2824,37 +2845,37 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2863,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -2871,37 +2892,37 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2910,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2918,31 +2939,31 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F39">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -2957,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -2965,7 +2986,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2974,13 +2995,13 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
       </c>
       <c r="F40">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -3004,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3012,7 +3033,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -3027,7 +3048,7 @@
         <v>15</v>
       </c>
       <c r="F41">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -3051,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3059,38 +3080,38 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F42">
+        <v>250</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42">
         <v>6</v>
       </c>
-      <c r="G42" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" t="s">
-        <v>170</v>
-      </c>
-      <c r="I42" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
@@ -3098,56 +3119,103 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O42" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
         <v>49</v>
       </c>
       <c r="H43" t="s">
+        <v>170</v>
+      </c>
+      <c r="I43" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>171</v>
+      </c>
+      <c r="O43" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s">
         <v>39</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>44</v>
       </c>
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43">
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44">
         <v>10</v>
       </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>179</v>
       </c>
-      <c r="O43" s="3" t="b">
+      <c r="O44" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBDF6A-DB2C-4744-8032-007E3006CFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284F1319-4EAE-47D7-A591-D31F07D98487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="240">
   <si>
     <t>Codigo</t>
   </si>
@@ -741,6 +741,21 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791620187778.png</t>
+  </si>
+  <si>
+    <t>Cacao</t>
+  </si>
+  <si>
+    <t>chocolatado</t>
+  </si>
+  <si>
+    <t>Exquisita</t>
+  </si>
+  <si>
+    <t>Cacaos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790070433015.png</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1717,46 +1732,46 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1111</v>
+        <v>7790070433015</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -1764,19 +1779,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -1803,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -1811,19 +1826,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>1000</v>
@@ -1835,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -1850,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -1858,46 +1873,46 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -1905,46 +1920,46 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K17">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -1952,46 +1967,46 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F18">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -1999,31 +2014,31 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -2038,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2046,19 +2061,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>500</v>
@@ -2070,7 +2085,7 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -2085,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2093,22 +2108,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -2117,7 +2132,7 @@
         <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -2132,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2140,34 +2155,34 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K22">
         <v>12</v>
@@ -2179,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2187,37 +2202,37 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2226,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2234,37 +2249,37 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2273,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2281,37 +2296,37 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F25">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2320,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
@@ -2328,131 +2343,131 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O26" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F27">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O27" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2461,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
@@ -2469,16 +2484,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
@@ -2508,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2516,16 +2531,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -2546,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2555,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2563,31 +2578,31 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2602,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2610,31 +2625,31 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F32">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2649,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2657,46 +2672,46 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2704,19 +2719,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
         <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -2743,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2751,46 +2766,46 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F35">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
         <v>75</v>
       </c>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -2798,31 +2813,31 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
@@ -2837,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -2845,37 +2860,37 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F37">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I37" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2884,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -2892,37 +2907,37 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2931,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2939,37 +2954,37 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2978,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -2986,31 +3001,31 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F40">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -3025,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3033,7 +3048,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -3042,13 +3057,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
       </c>
       <c r="F41">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -3072,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3080,7 +3095,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -3095,7 +3110,7 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -3119,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3127,38 +3142,38 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F43">
+        <v>250</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43">
         <v>6</v>
       </c>
-      <c r="G43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
@@ -3166,56 +3181,103 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O43" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
       </c>
       <c r="H44" t="s">
+        <v>170</v>
+      </c>
+      <c r="I44" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>171</v>
+      </c>
+      <c r="O44" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s">
         <v>39</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>44</v>
       </c>
-      <c r="J44" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44">
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45">
         <v>10</v>
       </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>179</v>
       </c>
-      <c r="O44" s="3" t="b">
+      <c r="O45" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284F1319-4EAE-47D7-A591-D31F07D98487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8D2C2A-C129-4C1C-9816-33CEC2F7E562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="243">
   <si>
     <t>Codigo</t>
   </si>
@@ -756,6 +756,15 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7790070433015.png</t>
+  </si>
+  <si>
+    <t>Aderezo</t>
+  </si>
+  <si>
+    <t>a base de mostaza</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7794000006515.png</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1779,46 +1788,46 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1111</v>
+        <v>7794000006515</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -1826,19 +1835,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>1000</v>
@@ -1865,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -1873,19 +1882,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <v>1000</v>
@@ -1897,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1912,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -1920,46 +1929,46 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -1967,46 +1976,46 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K18">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2014,46 +2023,46 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F19">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2061,31 +2070,31 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -2100,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2108,19 +2117,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>500</v>
@@ -2132,7 +2141,7 @@
         <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -2147,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2155,22 +2164,22 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -2179,7 +2188,7 @@
         <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -2194,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2202,34 +2211,34 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K23">
         <v>12</v>
@@ -2241,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2249,37 +2258,37 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F24">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2288,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2296,37 +2305,37 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2335,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
@@ -2343,37 +2352,37 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F26">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2382,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
@@ -2390,131 +2399,131 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O27" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F28">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O28" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2523,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2531,16 +2540,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -2570,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2578,16 +2587,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
         <v>88</v>
@@ -2608,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2617,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2625,31 +2634,31 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2664,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2672,31 +2681,31 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F33">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -2711,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2719,46 +2728,46 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2766,19 +2775,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F35">
         <v>20</v>
@@ -2805,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -2813,46 +2822,46 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F36">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
         <v>75</v>
       </c>
       <c r="I36" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -2860,31 +2869,31 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
@@ -2899,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -2907,37 +2916,37 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F38">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2946,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2954,37 +2963,37 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2993,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3001,37 +3010,37 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F40">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3040,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3048,31 +3057,31 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F41">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
@@ -3087,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3095,7 +3104,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -3104,13 +3113,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
       </c>
       <c r="F42">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -3134,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3142,7 +3151,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -3157,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F43">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -3181,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3189,38 +3198,38 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F44">
+        <v>250</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44">
         <v>6</v>
       </c>
-      <c r="G44" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" t="s">
-        <v>170</v>
-      </c>
-      <c r="I44" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
@@ -3228,56 +3237,103 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O44" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
       </c>
       <c r="H45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>171</v>
+      </c>
+      <c r="O45" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
         <v>39</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>44</v>
       </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45">
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
         <v>10</v>
       </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>179</v>
       </c>
-      <c r="O45" s="3" t="b">
+      <c r="O46" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8D2C2A-C129-4C1C-9816-33CEC2F7E562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE018E-0ED2-4DBF-A3E9-AED474F5A381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="244">
   <si>
     <t>Codigo</t>
   </si>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7794000006515.png</t>
+  </si>
+  <si>
+    <t>Dul-c</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1835,66 +1838,57 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>1000</v>
@@ -1921,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -1929,19 +1923,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>1000</v>
@@ -1953,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -1968,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -1976,46 +1970,46 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2023,46 +2017,46 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K19">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2070,46 +2064,46 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2117,31 +2111,31 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -2156,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2164,19 +2158,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790150006153</v>
+        <v>7790070336385</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>500</v>
@@ -2188,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -2203,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2211,22 +2205,22 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790150430392</v>
+        <v>7790150006153</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
@@ -2235,7 +2229,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2250,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2258,34 +2252,34 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K24">
         <v>12</v>
@@ -2297,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2305,37 +2299,37 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F25">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2344,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
@@ -2352,37 +2346,37 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2391,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
@@ -2399,37 +2393,37 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F27">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2438,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2446,131 +2440,131 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O28" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O29" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2579,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2587,16 +2581,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
         <v>88</v>
@@ -2626,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2634,16 +2628,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
         <v>88</v>
@@ -2664,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2673,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2681,31 +2675,31 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -2720,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2728,31 +2722,31 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F34">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -2767,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2775,46 +2769,46 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -2822,19 +2816,19 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F36">
         <v>20</v>
@@ -2861,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -2869,46 +2863,46 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
         <v>75</v>
       </c>
       <c r="I37" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -2916,31 +2910,31 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
@@ -2955,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2963,37 +2957,37 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F39">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -3002,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3010,37 +3004,37 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3049,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3057,37 +3051,37 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3096,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3104,31 +3098,31 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F42">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -3143,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3151,7 +3145,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -3160,13 +3154,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
       <c r="F43">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -3190,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3198,7 +3192,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -3213,7 +3207,7 @@
         <v>15</v>
       </c>
       <c r="F44">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3237,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3245,38 +3239,38 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F45">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45">
         <v>6</v>
       </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
@@ -3284,56 +3278,103 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O45" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G46" t="s">
         <v>49</v>
       </c>
       <c r="H46" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>171</v>
+      </c>
+      <c r="O46" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" t="s">
         <v>39</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>44</v>
       </c>
-      <c r="J46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46">
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47">
         <v>10</v>
       </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>179</v>
       </c>
-      <c r="O46" s="3" t="b">
+      <c r="O47" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE018E-0ED2-4DBF-A3E9-AED474F5A381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4DFCA0-3665-4B09-8055-F969117EE200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4DFCA0-3665-4B09-8055-F969117EE200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27380E55-D943-42D9-850C-527BC58508A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
   <si>
     <t>Codigo</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>Dul-c</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790220001705.png</t>
   </si>
 </sst>
 </file>
@@ -1864,14 +1867,23 @@
       <c r="I15" t="s">
         <v>155</v>
       </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>244</v>
       </c>
       <c r="O15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2205,7 +2217,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790150006153</v>
+        <v>7790150006351</v>
       </c>
       <c r="B23" t="s">
         <v>112</v>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27380E55-D943-42D9-850C-527BC58508A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEF88C-F4C2-4D04-957D-DFA368AAD9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="250">
   <si>
     <t>Codigo</t>
   </si>
@@ -771,6 +771,21 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7790220001705.png</t>
+  </si>
+  <si>
+    <t>Preservativos</t>
+  </si>
+  <si>
+    <t>de látex</t>
+  </si>
+  <si>
+    <t>texturados</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Tetra brik</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1230,31 +1245,31 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>7791290794115</v>
+        <v>7791519200069</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1268,55 +1283,49 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>177</v>
-      </c>
       <c r="O2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7798118140024</v>
+        <v>7793913001822</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>184</v>
       </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
@@ -1324,37 +1333,37 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7791058000595</v>
+        <v>7791290794115</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1363,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
@@ -1371,46 +1380,46 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7798205440198</v>
+        <v>7798118140024</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
@@ -1418,31 +1427,31 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7799155000579</v>
+        <v>7791058000595</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1457,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
@@ -1465,31 +1474,31 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7791813420057</v>
+        <v>7798205440198</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1501,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
@@ -1512,37 +1521,37 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7790580127534</v>
+        <v>7799155000579</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1551,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
@@ -1559,22 +1568,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7791274196522</v>
+        <v>7791813420057</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1583,7 +1592,7 @@
         <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1598,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
@@ -1606,37 +1615,37 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791004000013</v>
+        <v>7790580127534</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1645,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
@@ -1653,31 +1662,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7794000006478</v>
+        <v>7791274196522</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1692,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -1700,37 +1709,37 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791620187778</v>
+        <v>7791004000013</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1739,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -1747,37 +1756,37 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790070433015</v>
+        <v>7794000006478</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1786,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -1794,37 +1803,37 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7794000006515</v>
+        <v>7791620187778</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F14">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1833,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -1841,37 +1850,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790220001705</v>
+        <v>7790070433015</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1880,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -1888,46 +1897,46 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1111</v>
+        <v>7794000006515</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -1935,46 +1944,46 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2222</v>
+        <v>7790220001705</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -1982,19 +1991,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3333</v>
+        <v>1111</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>1000</v>
@@ -2006,7 +2015,7 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -2021,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2029,46 +2038,46 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>77990112</v>
+        <v>2222</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2076,46 +2085,46 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3086123206873</v>
+        <v>3333</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K20">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2123,31 +2132,31 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790036973036</v>
+        <v>77990112</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F21">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -2162,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2170,46 +2179,46 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790070336385</v>
+        <v>3086123206873</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F22">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2217,31 +2226,31 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790150006351</v>
+        <v>7790036973036</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F23">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2256,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2264,22 +2273,22 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790150430392</v>
+        <v>7790070336385</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
@@ -2288,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -2303,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2311,34 +2320,34 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790520010445</v>
+        <v>7790150006351</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -2350,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
@@ -2358,37 +2367,37 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790520016461</v>
+        <v>7790150430392</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F26">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2397,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
@@ -2405,10 +2414,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790520995360</v>
+        <v>7790520010445</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
         <v>84</v>
@@ -2420,7 +2429,7 @@
         <v>83</v>
       </c>
       <c r="F27">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
         <v>49</v>
@@ -2432,10 +2441,10 @@
         <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2444,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2452,31 +2461,31 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790639003574</v>
+        <v>7790520016461</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F28">
-        <v>1.5</v>
+        <v>360</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -2491,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
@@ -2499,84 +2508,84 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791070000382</v>
+        <v>7790520995360</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
         <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O29" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791600087128</v>
+        <v>7790639003574</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2585,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2593,84 +2602,84 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791664000156</v>
+        <v>7791070000382</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F31">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O31" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791664000453</v>
+        <v>7791600087128</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2679,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2687,7 +2696,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791684000934</v>
+        <v>7791664000156</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
@@ -2696,7 +2705,7 @@
         <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
         <v>88</v>
@@ -2717,7 +2726,7 @@
         <v>19</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2726,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2734,37 +2743,37 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7793913000139</v>
+        <v>7791664000453</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2773,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2781,31 +2790,31 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7795018002902</v>
+        <v>7791684000934</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F35">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -2820,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -2828,46 +2837,46 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7798100200491</v>
+        <v>7793913000139</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -2875,46 +2884,46 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7798100200583</v>
+        <v>7795018002902</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -2922,46 +2931,46 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791600087012</v>
+        <v>7798100200491</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F38">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
         <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2969,46 +2978,46 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791520009743</v>
+        <v>7798100200583</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="F39">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3016,37 +3025,37 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7794000006065</v>
+        <v>7791600087012</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3055,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3063,37 +3072,37 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7792540260138</v>
+        <v>7791520009743</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3102,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3110,37 +3119,37 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790639003895</v>
+        <v>7794000006065</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="F42">
-        <v>1.5</v>
+        <v>237</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="I42" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -3149,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3157,37 +3166,37 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791600174767</v>
+        <v>7792540260138</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="F43">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3196,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3204,31 +3213,31 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791600192372</v>
+        <v>7790639003895</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F44">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -3243,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3251,7 +3260,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791600192488</v>
+        <v>7791600174767</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -3260,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -3290,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3298,38 +3307,38 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>2001300000798</v>
+        <v>7791600192372</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F46">
+        <v>150</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
         <v>6</v>
       </c>
-      <c r="G46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" t="s">
-        <v>170</v>
-      </c>
-      <c r="I46" t="s">
-        <v>166</v>
-      </c>
-      <c r="J46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
@@ -3337,56 +3346,150 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O46" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
+        <v>7791600192488</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>250</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>165</v>
+      </c>
+      <c r="O47" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2001300000798</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>171</v>
+      </c>
+      <c r="O48" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>7791070000078</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>111</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>178</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <v>4</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G49" t="s">
         <v>49</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H49" t="s">
         <v>39</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I49" t="s">
         <v>44</v>
       </c>
-      <c r="J47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47">
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49">
         <v>10</v>
       </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>179</v>
       </c>
-      <c r="O47" s="3" t="b">
+      <c r="O49" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEF88C-F4C2-4D04-957D-DFA368AAD9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F50C189-D382-410C-813B-AED8C5934E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="257">
   <si>
     <t>Codigo</t>
   </si>
@@ -704,9 +704,6 @@
     <t>Rinsal</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791004000013.png</t>
   </si>
   <si>
@@ -786,6 +783,30 @@
   </si>
   <si>
     <t>Tetra brik</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7793913001822.png</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>lacteado</t>
+  </si>
+  <si>
+    <t>chico</t>
+  </si>
+  <si>
+    <t>Veneziana</t>
+  </si>
+  <si>
+    <t>Panes</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791708611454.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791058000731.png</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1248,16 +1269,16 @@
         <v>7791519200069</v>
       </c>
       <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
         <v>245</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>246</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>247</v>
-      </c>
-      <c r="E2" t="s">
-        <v>248</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1269,7 +1290,7 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1310,7 +1331,7 @@
         <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I3" t="s">
         <v>189</v>
@@ -1327,37 +1348,40 @@
       <c r="M3" t="b">
         <v>1</v>
       </c>
+      <c r="N3" t="s">
+        <v>249</v>
+      </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7791290794115</v>
+        <v>7791708611454</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1372,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
@@ -1380,38 +1404,38 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7798118140024</v>
+        <v>7791058000731</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
@@ -1419,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
@@ -1427,37 +1451,37 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7791058000595</v>
+        <v>7791290794115</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1466,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
@@ -1474,46 +1498,46 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7798205440198</v>
+        <v>7798118140024</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
@@ -1521,31 +1545,31 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7799155000579</v>
+        <v>7791058000595</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1560,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
@@ -1568,31 +1592,31 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7791813420057</v>
+        <v>7798205440198</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1604,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
@@ -1615,37 +1639,37 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7790580127534</v>
+        <v>7799155000579</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1654,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
@@ -1662,22 +1686,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7791274196522</v>
+        <v>7791813420057</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -1686,7 +1710,7 @@
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1701,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -1709,37 +1733,37 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791004000013</v>
+        <v>7790580127534</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1748,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -1756,31 +1780,31 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7794000006478</v>
+        <v>7791274196522</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F13">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1795,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -1803,37 +1827,37 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791620187778</v>
+        <v>7791004000013</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F14">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1842,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -1850,37 +1874,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790070433015</v>
+        <v>7794000006478</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1889,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -1897,37 +1921,37 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7794000006515</v>
+        <v>7791620187778</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1936,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -1944,37 +1968,37 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790220001705</v>
+        <v>7790070433015</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1983,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -1991,46 +2015,46 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1111</v>
+        <v>7794000006515</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2038,46 +2062,46 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2222</v>
+        <v>7790220001705</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2085,19 +2109,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3333</v>
+        <v>1111</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -2109,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -2124,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2132,46 +2156,46 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>77990112</v>
+        <v>2222</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2179,46 +2203,46 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3086123206873</v>
+        <v>3333</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2226,31 +2250,31 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790036973036</v>
+        <v>77990112</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F23">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2265,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2273,46 +2297,46 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790070336385</v>
+        <v>3086123206873</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2320,31 +2344,31 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790150006351</v>
+        <v>7790036973036</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -2359,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
@@ -2367,22 +2391,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790150430392</v>
+        <v>7790070336385</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
@@ -2391,7 +2415,7 @@
         <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -2406,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
@@ -2414,34 +2438,34 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790520010445</v>
+        <v>7790150006351</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -2453,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2461,37 +2485,37 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790520016461</v>
+        <v>7790150430392</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F28">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2500,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
@@ -2508,10 +2532,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790520995360</v>
+        <v>7790520010445</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>84</v>
@@ -2523,7 +2547,7 @@
         <v>83</v>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
         <v>49</v>
@@ -2535,10 +2559,10 @@
         <v>86</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K29">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2547,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2555,31 +2579,31 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790639003574</v>
+        <v>7790520016461</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F30">
-        <v>1.5</v>
+        <v>360</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2594,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2602,84 +2626,84 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791070000382</v>
+        <v>7790520995360</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
         <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O31" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791600087128</v>
+        <v>7790639003574</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2688,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2696,84 +2720,84 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791664000156</v>
+        <v>7791070000382</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O33" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791664000453</v>
+        <v>7791600087128</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2782,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2790,7 +2814,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791684000934</v>
+        <v>7791664000156</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -2799,7 +2823,7 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
         <v>88</v>
@@ -2820,7 +2844,7 @@
         <v>19</v>
       </c>
       <c r="K35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2829,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -2837,37 +2861,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7793913000139</v>
+        <v>7791664000453</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2876,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -2884,31 +2908,31 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7795018002902</v>
+        <v>7791684000934</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F37">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G37" t="s">
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
@@ -2923,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -2931,46 +2955,46 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7798100200491</v>
+        <v>7793913000139</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2978,46 +3002,46 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7798100200583</v>
+        <v>7795018002902</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3025,46 +3049,46 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791600087012</v>
+        <v>7798100200491</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F40">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
         <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3072,46 +3096,46 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791520009743</v>
+        <v>7798100200583</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="F41">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3119,37 +3143,37 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7794000006065</v>
+        <v>7791600087012</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
       <c r="K42">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -3158,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3166,37 +3190,37 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7792540260138</v>
+        <v>7791520009743</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3205,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3213,37 +3237,37 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790639003895</v>
+        <v>7794000006065</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="F44">
-        <v>1.5</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3252,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3260,37 +3284,37 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791600174767</v>
+        <v>7792540260138</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="F45">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3299,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3307,31 +3331,31 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7791600192372</v>
+        <v>7790639003895</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F46">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -3346,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3354,7 +3378,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7791600192488</v>
+        <v>7791600174767</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -3363,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -3393,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
@@ -3401,38 +3425,38 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>2001300000798</v>
+        <v>7791600192372</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F48">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48">
         <v>6</v>
       </c>
-      <c r="G48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" t="s">
-        <v>170</v>
-      </c>
-      <c r="I48" t="s">
-        <v>166</v>
-      </c>
-      <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
@@ -3440,56 +3464,150 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O48" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
+        <v>7791600192488</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>250</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>165</v>
+      </c>
+      <c r="O49" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2001300000798</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>171</v>
+      </c>
+      <c r="O50" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>7791070000078</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>110</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>111</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E51" t="s">
         <v>178</v>
       </c>
-      <c r="F49">
+      <c r="F51">
         <v>4</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" t="s">
         <v>49</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H51" t="s">
         <v>39</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I51" t="s">
         <v>44</v>
       </c>
-      <c r="J49" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49">
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51">
         <v>10</v>
       </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>179</v>
       </c>
-      <c r="O49" s="3" t="b">
+      <c r="O51" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F50C189-D382-410C-813B-AED8C5934E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF14481-3FC4-4876-9752-5572AED940B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
   <si>
     <t>Codigo</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>Lata</t>
-  </si>
-  <si>
     <t>Salame</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Fiambres</t>
   </si>
   <si>
-    <t>Horma</t>
-  </si>
-  <si>
     <t>Paladini</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>Francia</t>
   </si>
   <si>
-    <t>Suelto</t>
-  </si>
-  <si>
     <t>Tregar</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>de la huerta</t>
   </si>
   <si>
-    <t>Tetra Brik</t>
-  </si>
-  <si>
     <t>Fideos</t>
   </si>
   <si>
@@ -281,9 +269,6 @@
     <t>Licores</t>
   </si>
   <si>
-    <t>Petaca</t>
-  </si>
-  <si>
     <t>Tabletas insecticidas</t>
   </si>
   <si>
@@ -548,9 +533,6 @@
     <t>Cismondi</t>
   </si>
   <si>
-    <t>Maple</t>
-  </si>
-  <si>
     <t>C:\VentaSoft\Imágenes de artículos\2001300000798.png</t>
   </si>
   <si>
@@ -599,12 +581,6 @@
     <t>Manfrey</t>
   </si>
   <si>
-    <t>pelado</t>
-  </si>
-  <si>
-    <t>Sachet</t>
-  </si>
-  <si>
     <t>Leches</t>
   </si>
   <si>
@@ -807,6 +783,51 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791058000731.png</t>
+  </si>
+  <si>
+    <t>DescripciónConPackaging</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791519200069.png</t>
+  </si>
+  <si>
+    <t>tetra brik</t>
+  </si>
+  <si>
+    <t>de pascualinas</t>
+  </si>
+  <si>
+    <t>criolla</t>
+  </si>
+  <si>
+    <t>Di Pascuale</t>
+  </si>
+  <si>
+    <t>botella</t>
+  </si>
+  <si>
+    <t>sachet</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>horma</t>
+  </si>
+  <si>
+    <t>petaca</t>
+  </si>
+  <si>
+    <t>suelto</t>
+  </si>
+  <si>
+    <t>aerosol</t>
+  </si>
+  <si>
+    <t>maple</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1215,9 +1236,10 @@
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,36 +1283,39 @@
         <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="P1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7791519200069</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1304,37 +1329,43 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
+      <c r="N2" t="s">
+        <v>251</v>
+      </c>
       <c r="O2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7793913001822</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1349,39 +1380,42 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7791708611454</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F4">
         <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1396,39 +1430,42 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7791058000731</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1443,262 +1480,277 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7798118140079</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7791290794115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>256</v>
       </c>
-      <c r="O5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>7791290794115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7798118140024</v>
+      </c>
+      <c r="B8" t="s">
         <v>174</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C8" t="s">
         <v>175</v>
       </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="D8" t="s">
         <v>176</v>
       </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6">
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7791058000595</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7798205440198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7798118140024</v>
-      </c>
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>30</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>184</v>
-      </c>
-      <c r="O7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7791058000595</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>188</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7799155000579</v>
+      </c>
+      <c r="B11" t="s">
         <v>189</v>
       </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="C11" t="s">
         <v>190</v>
       </c>
-      <c r="O8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7798205440198</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D11" t="s">
         <v>191</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11" t="s">
         <v>192</v>
-      </c>
-      <c r="D9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>196</v>
-      </c>
-      <c r="O9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7799155000579</v>
-      </c>
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10">
-        <v>500</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>202</v>
-      </c>
-      <c r="O10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7791813420057</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" t="s">
-        <v>205</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -1707,292 +1759,310 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7791813420057</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7790580127534</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>202</v>
+      </c>
+      <c r="O13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7791274196522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" t="s">
         <v>206</v>
       </c>
-      <c r="O11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>7790580127534</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
         <v>207</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" t="s">
         <v>208</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>209</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>7791004000013</v>
+      </c>
+      <c r="B15" t="s">
         <v>210</v>
       </c>
-      <c r="O12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>7791274196522</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
         <v>212</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15" t="s">
         <v>213</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>214</v>
       </c>
-      <c r="E13" t="s">
+      <c r="O15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7794000006478</v>
+      </c>
+      <c r="B16" t="s">
         <v>215</v>
       </c>
-      <c r="F13">
-        <v>300</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="C16" t="s">
         <v>216</v>
       </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13">
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
         <v>6</v>
       </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>217</v>
-      </c>
-      <c r="O13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7791004000013</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>218</v>
       </c>
-      <c r="C14" t="s">
+      <c r="O16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7791620187778</v>
+      </c>
+      <c r="B17" t="s">
         <v>219</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C17" t="s">
         <v>220</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D17" t="s">
         <v>221</v>
       </c>
-      <c r="F14">
-        <v>500</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="E17" t="s">
         <v>222</v>
       </c>
-      <c r="O14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>7794000006478</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F17">
+        <v>210</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
         <v>223</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I17" t="s">
         <v>224</v>
-      </c>
-      <c r="D15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15">
-        <v>250</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>226</v>
-      </c>
-      <c r="O15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>7791620187778</v>
-      </c>
-      <c r="B16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16">
-        <v>210</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>231</v>
-      </c>
-      <c r="I16" t="s">
-        <v>232</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16">
-        <v>12</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>233</v>
-      </c>
-      <c r="O16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7790070433015</v>
-      </c>
-      <c r="B17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17">
-        <v>150</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" t="s">
-        <v>237</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -2007,228 +2077,243 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>7790070433015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>230</v>
+      </c>
+      <c r="O18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>7794000006515</v>
       </c>
-      <c r="B18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18">
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18">
+      <c r="G19" t="s">
         <v>24</v>
       </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>241</v>
-      </c>
-      <c r="O18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>233</v>
+      </c>
+      <c r="O19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>7790220001705</v>
       </c>
-      <c r="B19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19">
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20">
         <v>10</v>
       </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>243</v>
-      </c>
-      <c r="O19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>235</v>
+      </c>
+      <c r="O20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>1111</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20">
-        <v>1000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2222</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
       </c>
       <c r="F21">
         <v>1000</v>
       </c>
       <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="I21" t="s">
+      <c r="E22" t="s">
         <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>3333</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
       </c>
       <c r="F22">
         <v>1000</v>
       </c>
       <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>259</v>
+      </c>
+      <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
@@ -2242,180 +2327,192 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>3333</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>77990112</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>260</v>
+      </c>
+      <c r="I24" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23">
-        <v>200</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23">
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24">
         <v>12</v>
       </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>120</v>
-      </c>
-      <c r="O23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>3086123206873</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H25" t="s">
+        <v>261</v>
+      </c>
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="J25" t="s">
         <v>49</v>
       </c>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K25">
         <v>50</v>
       </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>7790036973036</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26">
         <v>210</v>
       </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25">
-        <v>12</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>122</v>
-      </c>
-      <c r="O25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>7790070336385</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26">
-        <v>500</v>
-      </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -2430,39 +2527,42 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="F27">
         <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2477,39 +2577,42 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -2524,42 +2627,45 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -2571,321 +2677,342 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>7790520010445</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30">
+        <v>12</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>7790520016461</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31">
+        <v>360</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s">
+        <v>262</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>7790520995360</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>250</v>
+      </c>
+      <c r="I32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>24</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>123</v>
+      </c>
+      <c r="O32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>7790639003574</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33">
+        <v>1.5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7791070000382</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>7791600087128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>12</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>126</v>
       </c>
-      <c r="O29" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>7790520016461</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30">
-        <v>360</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30">
-        <v>6</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>127</v>
-      </c>
-      <c r="O30" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>7790520995360</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="O35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>7791664000156</v>
+      </c>
+      <c r="B36" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E36" t="s">
         <v>83</v>
-      </c>
-      <c r="F31">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31">
-        <v>24</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>128</v>
-      </c>
-      <c r="O31" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>7790639003574</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32">
-        <v>1.5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32">
-        <v>6</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>129</v>
-      </c>
-      <c r="O32" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>7791070000382</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>130</v>
-      </c>
-      <c r="O33" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>7791600087128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34">
-        <v>150</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34">
-        <v>12</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>131</v>
-      </c>
-      <c r="O34" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>7791664000156</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35">
-        <v>500</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35">
-        <v>6</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>132</v>
-      </c>
-      <c r="O35" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>7791664000453</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
       </c>
       <c r="F36">
         <v>500</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
@@ -2900,45 +3027,48 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F37">
         <v>500</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2947,39 +3077,42 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
@@ -2994,39 +3127,42 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -3041,86 +3177,92 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>7795018002902</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>800</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>12</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>131</v>
+      </c>
+      <c r="O40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>7798100200491</v>
       </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40">
-        <v>10</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>137</v>
-      </c>
-      <c r="O40" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>7798100200583</v>
-      </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F41">
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
@@ -3135,86 +3277,92 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
+        <v>7798100200583</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>133</v>
+      </c>
+      <c r="O42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>7791600087012</v>
       </c>
-      <c r="B42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" t="s">
-        <v>142</v>
-      </c>
-      <c r="J42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42">
-        <v>6</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>139</v>
-      </c>
-      <c r="O42" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>7791520009743</v>
-      </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -3229,180 +3377,192 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
+        <v>134</v>
+      </c>
+      <c r="O43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>7791520009743</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44">
+        <v>180</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>256</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>6</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>142</v>
+      </c>
+      <c r="O44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>7794000006065</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45">
+        <v>237</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
         <v>147</v>
       </c>
-      <c r="O43" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>7794000006065</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="I45" t="s">
         <v>148</v>
       </c>
-      <c r="C44" t="s">
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>24</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>149</v>
       </c>
-      <c r="D44" t="s">
+      <c r="O45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>7792540260138</v>
+      </c>
+      <c r="B46" t="s">
         <v>150</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
         <v>151</v>
       </c>
-      <c r="F44">
-        <v>237</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
         <v>152</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
         <v>153</v>
       </c>
-      <c r="J44" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44">
-        <v>24</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="O46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>7790639003895</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
         <v>154</v>
       </c>
-      <c r="O44" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>7792540260138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" t="s">
-        <v>155</v>
-      </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45">
-        <v>10</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="b">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>158</v>
-      </c>
-      <c r="O45" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>7790639003895</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47">
+        <v>1.5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>256</v>
+      </c>
+      <c r="I47" t="s">
         <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46">
-        <v>1.5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" t="s">
-        <v>106</v>
-      </c>
-      <c r="J46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46">
-        <v>6</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>160</v>
-      </c>
-      <c r="O46" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>7791600174767</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47">
-        <v>250</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" t="s">
-        <v>18</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -3417,15 +3577,18 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -3434,19 +3597,19 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
       </c>
       <c r="F48">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -3464,15 +3627,18 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -3481,19 +3647,19 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
       </c>
       <c r="F49">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -3511,103 +3677,162 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
+        <v>159</v>
+      </c>
+      <c r="O49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>7791600192488</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>250</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>262</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>160</v>
+      </c>
+      <c r="O50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2001300000798</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" t="s">
+        <v>263</v>
+      </c>
+      <c r="I51" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
         <v>165</v>
       </c>
-      <c r="O49" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2001300000798</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-      <c r="G50" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" t="s">
-        <v>166</v>
-      </c>
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s">
-        <v>171</v>
-      </c>
-      <c r="O50" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="O51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>7791070000078</v>
       </c>
-      <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51">
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51">
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52">
         <v>10</v>
       </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>179</v>
-      </c>
-      <c r="O51" s="3" t="b">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>173</v>
+      </c>
+      <c r="O52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF14481-3FC4-4876-9752-5572AED940B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECAB355-BA8A-42AC-8F1C-68251EB9DB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="269">
   <si>
     <t>Codigo</t>
   </si>
@@ -828,6 +828,21 @@
   </si>
   <si>
     <t>maple</t>
+  </si>
+  <si>
+    <t>Té</t>
+  </si>
+  <si>
+    <t>negro clásico</t>
+  </si>
+  <si>
+    <t>en saquitos</t>
+  </si>
+  <si>
+    <t>Tés</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790150211953.png</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1538,31 +1553,31 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7791290794115</v>
+        <v>7790150211953</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1577,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
@@ -1588,37 +1603,37 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1627,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
@@ -1638,37 +1653,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1677,107 +1692,107 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="I10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F11">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -1788,19 +1803,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F12">
         <v>500</v>
@@ -1812,13 +1827,13 @@
         <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1827,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -1838,37 +1853,37 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1877,48 +1892,48 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F14">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1927,48 +1942,48 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1977,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -1988,37 +2003,37 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2027,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -2038,37 +2053,37 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2077,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -2088,31 +2103,31 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="I18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -2127,48 +2142,48 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F19">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2177,48 +2192,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2227,68 +2242,68 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="F21">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2297,10 +2312,10 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F22">
         <v>1000</v>
@@ -2327,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2338,19 +2353,19 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <v>1000</v>
@@ -2362,7 +2377,7 @@
         <v>259</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2377,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2388,181 +2403,181 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K25">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F27">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2577,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2588,19 +2603,19 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F28">
         <v>500</v>
@@ -2612,7 +2627,7 @@
         <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -2627,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
@@ -2638,22 +2653,22 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -2662,7 +2677,7 @@
         <v>258</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -2677,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2688,34 +2703,34 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -2727,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2738,37 +2753,37 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F31">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2777,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2788,37 +2803,37 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2827,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2838,37 +2853,37 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F33">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2877,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2888,49 +2903,49 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O34" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -2938,87 +2953,87 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F35">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O35" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="I36" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3027,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -3038,16 +3053,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
@@ -3077,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -3088,16 +3103,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
         <v>83</v>
@@ -3118,7 +3133,7 @@
         <v>19</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3127,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -3138,31 +3153,31 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -3177,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3188,31 +3203,31 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F40">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -3227,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3238,46 +3253,46 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3288,19 +3303,19 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F42">
         <v>20</v>
@@ -3327,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3338,46 +3353,46 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3388,31 +3403,31 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F44">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -3427,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3438,37 +3453,37 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F45">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
       </c>
       <c r="K45">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3477,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3488,37 +3503,37 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3527,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3538,37 +3553,37 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F47">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3577,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
@@ -3588,31 +3603,31 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F48">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -3627,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
@@ -3638,7 +3653,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -3647,13 +3662,13 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
       </c>
       <c r="F49">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -3677,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O49" s="3" t="b">
         <v>1</v>
@@ -3688,7 +3703,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -3703,7 +3718,7 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -3727,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="3" t="b">
         <v>1</v>
@@ -3738,38 +3753,38 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F51">
+        <v>250</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>262</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51">
         <v>6</v>
       </c>
-      <c r="G51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" t="s">
-        <v>263</v>
-      </c>
-      <c r="I51" t="s">
-        <v>161</v>
-      </c>
-      <c r="J51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
@@ -3777,62 +3792,112 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O51" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G52" t="s">
         <v>47</v>
       </c>
       <c r="H52" t="s">
+        <v>263</v>
+      </c>
+      <c r="I52" t="s">
+        <v>161</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s">
         <v>258</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I53" t="s">
         <v>42</v>
       </c>
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52">
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53">
         <v>10</v>
       </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>173</v>
       </c>
-      <c r="O52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P52" t="b">
+      <c r="O53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECAB355-BA8A-42AC-8F1C-68251EB9DB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA46D42-DE9D-45B2-BC77-D8444C0E3F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="270">
   <si>
     <t>Codigo</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7790150211953.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798118140079.png</t>
   </si>
 </sst>
 </file>
@@ -1544,6 +1547,9 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>269</v>
+      </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA46D42-DE9D-45B2-BC77-D8444C0E3F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE911B3-C0B4-4DC2-8473-64855E5C6F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
   <si>
     <t>Codigo</t>
   </si>
@@ -846,6 +846,30 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7798118140079.png</t>
+  </si>
+  <si>
+    <t>Crema dental</t>
+  </si>
+  <si>
+    <t>anticaries</t>
+  </si>
+  <si>
+    <t>herbal</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Cremas dentales</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7509546695518.png</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790220000746.png</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1609,31 +1633,31 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7791290794115</v>
+        <v>7509546695518</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1648,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
@@ -1659,37 +1683,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7798118140024</v>
+        <v>7790220000746</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1698,48 +1722,48 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791058000595</v>
+        <v>7791290794115</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1748,57 +1772,57 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7798205440198</v>
+        <v>7798118140024</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -1809,31 +1833,31 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7799155000579</v>
+        <v>7791058000595</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1848,42 +1872,42 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7791813420057</v>
+        <v>7798205440198</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1895,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -1909,37 +1933,37 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790580127534</v>
+        <v>7799155000579</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1948,42 +1972,42 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791274196522</v>
+        <v>7791813420057</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -1998,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -2009,37 +2033,37 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7791004000013</v>
+        <v>7790580127534</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
         <v>258</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2048,42 +2072,42 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7794000006478</v>
+        <v>7791274196522</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F17">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -2098,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -2109,37 +2133,37 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791620187778</v>
+        <v>7791004000013</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F18">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="I18" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2148,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2159,37 +2183,37 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790070433015</v>
+        <v>7794000006478</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2198,48 +2222,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7794000006515</v>
+        <v>7791620187778</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2248,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2259,37 +2283,37 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790220001705</v>
+        <v>7790070433015</v>
       </c>
       <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21">
         <v>150</v>
       </c>
-      <c r="C21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>258</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2298,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2309,46 +2333,46 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1111</v>
+        <v>7794000006515</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="F22">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2359,69 +2383,69 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2222</v>
+        <v>7790220001705</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="F23">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3333</v>
+        <v>1111</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>1000</v>
@@ -2433,7 +2457,7 @@
         <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -2448,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2459,96 +2483,96 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>77990112</v>
+        <v>2222</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3086123206873</v>
+        <v>3333</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K26">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
@@ -2559,31 +2583,31 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790036973036</v>
+        <v>77990112</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F27">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2598,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2609,81 +2633,81 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790070336385</v>
+        <v>3086123206873</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790150006351</v>
+        <v>7790036973036</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="F29">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -2698,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2709,22 +2733,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790150430392</v>
+        <v>7790070336385</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -2733,7 +2757,7 @@
         <v>258</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2748,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2759,34 +2783,34 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790520010445</v>
+        <v>7790150006351</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K31">
         <v>12</v>
@@ -2798,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2809,37 +2833,37 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790520016461</v>
+        <v>7790150430392</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F32">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2848,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2859,10 +2883,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790520995360</v>
+        <v>7790520010445</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
         <v>79</v>
@@ -2874,7 +2898,7 @@
         <v>78</v>
       </c>
       <c r="F33">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>47</v>
@@ -2886,10 +2910,10 @@
         <v>81</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K33">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2898,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2909,31 +2933,31 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790639003574</v>
+        <v>7790520016461</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F34">
-        <v>1.5</v>
+        <v>360</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -2948,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2959,49 +2983,49 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791070000382</v>
+        <v>7790520995360</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O35" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -3009,37 +3033,37 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7791600087128</v>
+        <v>7790639003574</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F36">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3048,98 +3072,98 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791664000156</v>
+        <v>7791070000382</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O37" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791664000453</v>
+        <v>7791600087128</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3148,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -3159,7 +3183,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791684000934</v>
+        <v>7791664000156</v>
       </c>
       <c r="B39" t="s">
         <v>82</v>
@@ -3168,7 +3192,7 @@
         <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
@@ -3189,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -3198,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3209,37 +3233,37 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7793913000139</v>
+        <v>7791664000453</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3248,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3259,31 +3283,31 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7795018002902</v>
+        <v>7791684000934</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F41">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G41" t="s">
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
@@ -3298,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3309,46 +3333,46 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7798100200491</v>
+        <v>7793913000139</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3359,46 +3383,46 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7798100200583</v>
+        <v>7795018002902</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3409,46 +3433,46 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791600087012</v>
+        <v>7798100200491</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3459,46 +3483,46 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791520009743</v>
+        <v>7798100200583</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="F45">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3509,37 +3533,37 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7794000006065</v>
+        <v>7791600087012</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F46">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
       </c>
       <c r="K46">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3548,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3559,37 +3583,37 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7792540260138</v>
+        <v>7791520009743</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3598,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
@@ -3609,37 +3633,37 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7790639003895</v>
+        <v>7794000006065</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="F48">
-        <v>1.5</v>
+        <v>237</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="I48" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3648,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
@@ -3659,37 +3683,37 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791600174767</v>
+        <v>7792540260138</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="F49">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3698,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O49" s="3" t="b">
         <v>1</v>
@@ -3709,31 +3733,31 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791600192372</v>
+        <v>7790639003895</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
@@ -3748,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O50" s="3" t="b">
         <v>1</v>
@@ -3759,7 +3783,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791600192488</v>
+        <v>7791600174767</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -3768,7 +3792,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -3798,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3809,38 +3833,38 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2001300000798</v>
+        <v>7791600192372</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F52">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>262</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52">
         <v>6</v>
       </c>
-      <c r="G52" t="s">
-        <v>47</v>
-      </c>
-      <c r="H52" t="s">
-        <v>263</v>
-      </c>
-      <c r="I52" t="s">
-        <v>161</v>
-      </c>
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
@@ -3848,62 +3872,162 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O52" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
+        <v>7791600192488</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>250</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>160</v>
+      </c>
+      <c r="O53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2001300000798</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" t="s">
+        <v>263</v>
+      </c>
+      <c r="I54" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>165</v>
+      </c>
+      <c r="O54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>7791070000078</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>106</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>172</v>
       </c>
-      <c r="F53">
+      <c r="F55">
         <v>4</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G55" t="s">
         <v>47</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H55" t="s">
         <v>258</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I55" t="s">
         <v>42</v>
       </c>
-      <c r="J53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53">
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55">
         <v>10</v>
       </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>173</v>
       </c>
-      <c r="O53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P53" t="b">
+      <c r="O55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE911B3-C0B4-4DC2-8473-64855E5C6F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7654F4C5-08DF-4A4E-9C78-77A03ACBD020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="280">
   <si>
     <t>Codigo</t>
   </si>
@@ -719,9 +719,6 @@
     <t>Cacao</t>
   </si>
   <si>
-    <t>chocolatado</t>
-  </si>
-  <si>
     <t>Exquisita</t>
   </si>
   <si>
@@ -870,6 +867,15 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7790220000746.png</t>
+  </si>
+  <si>
+    <t>Nesquik</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\8445291121867.png</t>
+  </si>
+  <si>
+    <t>"chocolatada"</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1328,7 +1334,7 @@
         <v>138</v>
       </c>
       <c r="P1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1336,16 +1342,16 @@
         <v>7791519200069</v>
       </c>
       <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
         <v>236</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>237</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>238</v>
-      </c>
-      <c r="E2" t="s">
-        <v>239</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1354,10 +1360,10 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1372,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O2" s="2" t="b">
         <v>1</v>
@@ -1404,7 +1410,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
         <v>181</v>
@@ -1422,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
@@ -1436,16 +1442,16 @@
         <v>7791708611454</v>
       </c>
       <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
         <v>242</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>243</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>244</v>
-      </c>
-      <c r="E4" t="s">
-        <v>245</v>
       </c>
       <c r="F4">
         <v>400</v>
@@ -1457,7 +1463,7 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1472,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
@@ -1504,7 +1510,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
         <v>181</v>
@@ -1522,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
@@ -1539,13 +1545,13 @@
         <v>174</v>
       </c>
       <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
         <v>253</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>254</v>
-      </c>
-      <c r="E6" t="s">
-        <v>255</v>
       </c>
       <c r="F6">
         <v>400</v>
@@ -1572,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
@@ -1586,13 +1592,13 @@
         <v>7790150211953</v>
       </c>
       <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
         <v>264</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>265</v>
-      </c>
-      <c r="D7" t="s">
-        <v>266</v>
       </c>
       <c r="E7" t="s">
         <v>110</v>
@@ -1604,10 +1610,10 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1622,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
@@ -1636,16 +1642,16 @@
         <v>7509546695518</v>
       </c>
       <c r="B8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>272</v>
-      </c>
-      <c r="E8" t="s">
-        <v>273</v>
       </c>
       <c r="F8">
         <v>90</v>
@@ -1654,10 +1660,10 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1672,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
@@ -1695,7 +1701,7 @@
         <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1704,7 +1710,7 @@
         <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I9" t="s">
         <v>150</v>
@@ -1722,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
@@ -1733,37 +1739,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791290794115</v>
+        <v>8445291121867</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1772,48 +1778,48 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1822,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -1833,37 +1839,37 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1872,107 +1878,107 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>100</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F15">
         <v>500</v>
@@ -2007,13 +2013,13 @@
         <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2022,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -2033,37 +2039,37 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2072,48 +2078,48 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F17">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2122,48 +2128,48 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2172,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2183,37 +2189,37 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2222,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2233,37 +2239,37 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F20">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2272,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2283,31 +2289,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -2322,48 +2328,48 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F22">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2372,48 +2378,48 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2422,68 +2428,68 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2492,10 +2498,10 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>1000</v>
@@ -2504,7 +2510,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
@@ -2522,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>1000</v>
@@ -2554,10 +2560,10 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -2572,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
@@ -2583,181 +2589,181 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K28">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F29">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F30">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2772,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F31">
         <v>500</v>
@@ -2804,10 +2810,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2822,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2833,31 +2839,31 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G32" t="s">
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2872,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2883,34 +2889,34 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K33">
         <v>12</v>
@@ -2922,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2933,37 +2939,37 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F34">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2972,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2983,37 +2989,37 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3022,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -3033,37 +3039,37 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F36">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3072,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -3083,49 +3089,49 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O37" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -3133,87 +3139,87 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F38">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -3222,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3233,16 +3239,16 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
         <v>83</v>
@@ -3272,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3283,16 +3289,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
         <v>83</v>
@@ -3313,7 +3319,7 @@
         <v>19</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3322,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3333,31 +3339,31 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -3372,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3383,31 +3389,31 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -3422,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3433,46 +3439,46 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F44">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3483,19 +3489,19 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F45">
         <v>20</v>
@@ -3522,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3533,46 +3539,46 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3583,31 +3589,31 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -3622,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
@@ -3633,37 +3639,37 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F48">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="I48" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3672,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
@@ -3683,37 +3689,37 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
         <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3722,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O49" s="3" t="b">
         <v>1</v>
@@ -3733,37 +3739,37 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3772,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="3" t="b">
         <v>1</v>
@@ -3783,31 +3789,31 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F51">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
@@ -3822,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3833,7 +3839,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -3842,19 +3848,19 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E52" t="s">
         <v>15</v>
       </c>
       <c r="F52">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
@@ -3872,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="3" t="b">
         <v>1</v>
@@ -3883,7 +3889,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -3898,13 +3904,13 @@
         <v>15</v>
       </c>
       <c r="F53">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -3922,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="3" t="b">
         <v>1</v>
@@ -3933,38 +3939,38 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F54">
+        <v>250</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>261</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54">
         <v>6</v>
       </c>
-      <c r="G54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H54" t="s">
-        <v>263</v>
-      </c>
-      <c r="I54" t="s">
-        <v>161</v>
-      </c>
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
@@ -3972,62 +3978,112 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O54" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55" t="s">
         <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I55" t="s">
+        <v>161</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>165</v>
+      </c>
+      <c r="O55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" t="s">
         <v>42</v>
       </c>
-      <c r="J55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55">
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56">
         <v>10</v>
       </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>173</v>
       </c>
-      <c r="O55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P55" t="b">
+      <c r="O56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7654F4C5-08DF-4A4E-9C78-77A03ACBD020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1809DD-C336-44B2-8A50-FF66CE976D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="284">
   <si>
     <t>Codigo</t>
   </si>
@@ -876,6 +876,18 @@
   </si>
   <si>
     <t>"chocolatada"</t>
+  </si>
+  <si>
+    <t>Salchichas</t>
+  </si>
+  <si>
+    <t>tipo viena</t>
+  </si>
+  <si>
+    <t>sin piel</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790079010828.png</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1789,37 +1801,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1828,48 +1840,48 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1878,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -1889,37 +1901,37 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1928,107 +1940,107 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>100</v>
       </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -2039,19 +2051,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F16">
         <v>500</v>
@@ -2063,13 +2075,13 @@
         <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2078,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -2089,37 +2101,37 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2128,48 +2140,48 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2178,48 +2190,48 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2228,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2239,37 +2251,37 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F20">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2278,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2289,37 +2301,37 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F21">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2328,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2339,31 +2351,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="I22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -2378,48 +2390,48 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F23">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="I23" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2428,48 +2440,48 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2478,68 +2490,68 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="F25">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2548,10 +2560,10 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>1000</v>
@@ -2578,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
@@ -2589,19 +2601,19 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F27">
         <v>1000</v>
@@ -2613,7 +2625,7 @@
         <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2628,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2639,181 +2651,181 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K29">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F30">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F31">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G31" t="s">
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2828,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F32">
         <v>500</v>
@@ -2863,7 +2875,7 @@
         <v>257</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2878,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2889,22 +2901,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
@@ -2913,7 +2925,7 @@
         <v>257</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -2928,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2939,34 +2951,34 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K34">
         <v>12</v>
@@ -2978,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -2989,37 +3001,37 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F35">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3028,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -3039,37 +3051,37 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3078,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -3089,37 +3101,37 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F37">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3128,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -3139,49 +3151,49 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -3189,87 +3201,87 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F39">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3278,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3289,16 +3301,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
         <v>83</v>
@@ -3328,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3339,16 +3351,16 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
@@ -3369,7 +3381,7 @@
         <v>19</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -3378,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3389,31 +3401,31 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -3428,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3439,31 +3451,31 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -3478,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3489,46 +3501,46 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F46">
         <v>20</v>
@@ -3578,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3589,46 +3601,46 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F47">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
@@ -3639,31 +3651,31 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -3678,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
@@ -3689,37 +3701,37 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F49">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G49" t="s">
         <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="I49" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3728,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O49" s="3" t="b">
         <v>1</v>
@@ -3739,37 +3751,37 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
         <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3778,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O50" s="3" t="b">
         <v>1</v>
@@ -3789,37 +3801,37 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3828,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3839,31 +3851,31 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F52">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
@@ -3878,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="3" t="b">
         <v>1</v>
@@ -3889,7 +3901,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -3898,13 +3910,13 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
       </c>
       <c r="F53">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -3928,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="3" t="b">
         <v>1</v>
@@ -3939,7 +3951,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -3954,7 +3966,7 @@
         <v>15</v>
       </c>
       <c r="F54">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3978,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="3" t="b">
         <v>1</v>
@@ -3989,38 +4001,38 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F55">
+        <v>250</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>261</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55">
         <v>6</v>
       </c>
-      <c r="G55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" t="s">
-        <v>262</v>
-      </c>
-      <c r="I55" t="s">
-        <v>161</v>
-      </c>
-      <c r="J55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
@@ -4028,62 +4040,112 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O55" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E56" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
         <v>47</v>
       </c>
       <c r="H56" t="s">
+        <v>262</v>
+      </c>
+      <c r="I56" t="s">
+        <v>161</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>165</v>
+      </c>
+      <c r="O56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s">
         <v>257</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I57" t="s">
         <v>42</v>
       </c>
-      <c r="J56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56">
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57">
         <v>10</v>
       </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>173</v>
       </c>
-      <c r="O56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P56" t="b">
+      <c r="O57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1809DD-C336-44B2-8A50-FF66CE976D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C10C94-A90D-429C-887B-C30300DCC214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="287">
   <si>
     <t>Codigo</t>
   </si>
@@ -888,6 +888,15 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7790079010828.png</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>panchos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791708001378.png</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1351,37 +1360,37 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>7791519200069</v>
+        <v>7791708001378</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -1390,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="b">
         <v>1</v>
@@ -1401,31 +1410,31 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1440,42 +1449,42 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="I4" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1490,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
@@ -1501,37 +1510,37 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1540,42 +1549,42 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="F6">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1590,48 +1599,48 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1640,42 +1649,42 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>249</v>
       </c>
       <c r="I8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1690,48 +1699,48 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1740,48 +1749,48 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F10">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
         <v>257</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1790,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
@@ -1801,31 +1810,31 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
         <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1840,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -1851,37 +1860,37 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1890,48 +1899,48 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1940,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -1951,37 +1960,37 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1990,107 +1999,107 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>100</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -2101,19 +2110,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F17">
         <v>500</v>
@@ -2125,13 +2134,13 @@
         <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2140,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -2151,37 +2160,37 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2190,48 +2199,48 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F19">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2240,48 +2249,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2290,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -2301,37 +2310,37 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F21">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2340,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2351,37 +2360,37 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F22">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2390,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2401,31 +2410,31 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F23">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2440,48 +2449,48 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2490,48 +2499,48 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2540,68 +2549,68 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="F26">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2610,10 +2619,10 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>1000</v>
@@ -2640,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
@@ -2651,19 +2660,19 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -2675,7 +2684,7 @@
         <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -2690,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
@@ -2701,181 +2710,181 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F29">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K30">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F31">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2890,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
@@ -2901,19 +2910,19 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F33">
         <v>500</v>
@@ -2925,7 +2934,7 @@
         <v>257</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -2940,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2951,22 +2960,22 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
@@ -2975,7 +2984,7 @@
         <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -2990,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -3001,34 +3010,34 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K35">
         <v>12</v>
@@ -3040,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -3051,37 +3060,37 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F36">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3090,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -3101,37 +3110,37 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F37">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="K37">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3140,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -3151,37 +3160,37 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F38">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3190,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -3201,49 +3210,49 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -3251,87 +3260,87 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F40">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="I41" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3340,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="3" t="b">
         <v>1</v>
@@ -3351,16 +3360,16 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
@@ -3390,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3401,16 +3410,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
         <v>83</v>
@@ -3431,7 +3440,7 @@
         <v>19</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3440,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3451,31 +3460,31 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -3490,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3501,31 +3510,31 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
@@ -3540,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3551,46 +3560,46 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3601,19 +3610,19 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F47">
         <v>20</v>
@@ -3640,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
@@ -3651,46 +3660,46 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F48">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
@@ -3701,31 +3710,31 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F49">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
@@ -3740,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O49" s="3" t="b">
         <v>1</v>
@@ -3751,37 +3760,37 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F50">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="I50" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3790,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O50" s="3" t="b">
         <v>1</v>
@@ -3801,37 +3810,37 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3840,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3851,37 +3860,37 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F52">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H52" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3890,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="3" t="b">
         <v>1</v>
@@ -3901,31 +3910,31 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F53">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
@@ -3940,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="3" t="b">
         <v>1</v>
@@ -3951,7 +3960,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -3960,13 +3969,13 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
       </c>
       <c r="F54">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3990,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="3" t="b">
         <v>1</v>
@@ -4001,7 +4010,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -4016,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -4040,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O55" s="3" t="b">
         <v>1</v>
@@ -4051,38 +4060,38 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F56">
+        <v>250</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>261</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56">
         <v>6</v>
       </c>
-      <c r="G56" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" t="s">
-        <v>262</v>
-      </c>
-      <c r="I56" t="s">
-        <v>161</v>
-      </c>
-      <c r="J56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
@@ -4090,62 +4099,112 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O56" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
         <v>47</v>
       </c>
       <c r="H57" t="s">
+        <v>262</v>
+      </c>
+      <c r="I57" t="s">
+        <v>161</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>165</v>
+      </c>
+      <c r="O57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
         <v>257</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>42</v>
       </c>
-      <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57">
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58">
         <v>10</v>
       </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>173</v>
       </c>
-      <c r="O57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P57" t="b">
+      <c r="O58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C10C94-A90D-429C-887B-C30300DCC214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2F4B8-EE99-4457-9A9F-5DCA605CDBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="291">
   <si>
     <t>Codigo</t>
   </si>
@@ -897,6 +897,18 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791708001378.png</t>
+  </si>
+  <si>
+    <t>larga vida</t>
+  </si>
+  <si>
+    <t>parcialmente descremada 2%</t>
+  </si>
+  <si>
+    <t>Armonia</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790742336200.png</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1293,7 +1305,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1410,37 +1422,37 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7791519200069</v>
+        <v>7790742336200</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1449,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
@@ -1460,31 +1472,31 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1499,42 +1511,42 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1549,48 +1561,48 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1599,42 +1611,42 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="F7">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -1649,48 +1661,48 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1699,42 +1711,42 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="F9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>249</v>
       </c>
       <c r="I9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -1749,48 +1761,48 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1799,48 +1811,48 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F11">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
         <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1849,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -1860,31 +1872,31 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1899,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -1910,37 +1922,37 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1949,48 +1961,48 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1999,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -2010,37 +2022,37 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2049,107 +2061,107 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>100</v>
       </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -2160,19 +2172,19 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F18">
         <v>500</v>
@@ -2184,13 +2196,13 @@
         <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2199,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2210,37 +2222,37 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2249,48 +2261,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F20">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2299,48 +2311,48 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2349,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -2360,37 +2372,37 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F22">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2399,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2410,37 +2422,37 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F23">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2449,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2460,31 +2472,31 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F24">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -2499,48 +2511,48 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F25">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2549,48 +2561,48 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2599,68 +2611,68 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="F27">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2669,10 +2681,10 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -2699,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
@@ -2710,19 +2722,19 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29">
         <v>1000</v>
@@ -2734,7 +2746,7 @@
         <v>258</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -2749,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2760,181 +2772,181 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F30">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K31">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F32">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -2949,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
@@ -2960,19 +2972,19 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F34">
         <v>500</v>
@@ -2984,7 +2996,7 @@
         <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -2999,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -3010,22 +3022,22 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
@@ -3034,7 +3046,7 @@
         <v>257</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -3049,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -3060,34 +3072,34 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K36">
         <v>12</v>
@@ -3099,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -3110,37 +3122,37 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F37">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3149,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -3160,37 +3172,37 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F38">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3199,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -3210,37 +3222,37 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F39">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -3249,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3260,49 +3272,49 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -3310,87 +3322,87 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F41">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -3399,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3410,16 +3422,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
         <v>83</v>
@@ -3449,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3460,16 +3472,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>83</v>
@@ -3490,7 +3502,7 @@
         <v>19</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3499,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3510,31 +3522,31 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
@@ -3549,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3560,31 +3572,31 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F46">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -3599,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3610,69 +3622,69 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F48">
         <v>20</v>
@@ -3699,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
@@ -3710,46 +3722,46 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F49">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O49" s="3" t="b">
         <v>1</v>
@@ -3760,31 +3772,31 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F50">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
@@ -3799,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O50" s="3" t="b">
         <v>1</v>
@@ -3810,37 +3822,37 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F51">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G51" t="s">
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="I51" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3849,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3860,37 +3872,37 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3899,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O52" s="3" t="b">
         <v>1</v>
@@ -3910,37 +3922,37 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F53">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3949,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="3" t="b">
         <v>1</v>
@@ -3960,31 +3972,31 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F54">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H54" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
@@ -3999,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O54" s="3" t="b">
         <v>1</v>
@@ -4010,7 +4022,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -4019,13 +4031,13 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E55" t="s">
         <v>15</v>
       </c>
       <c r="F55">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -4049,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O55" s="3" t="b">
         <v>1</v>
@@ -4060,7 +4072,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -4075,7 +4087,7 @@
         <v>15</v>
       </c>
       <c r="F56">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -4099,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O56" s="3" t="b">
         <v>1</v>
@@ -4110,38 +4122,38 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F57">
+        <v>250</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>261</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57">
         <v>6</v>
       </c>
-      <c r="G57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" t="s">
-        <v>262</v>
-      </c>
-      <c r="I57" t="s">
-        <v>161</v>
-      </c>
-      <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
@@ -4149,62 +4161,112 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O57" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G58" t="s">
         <v>47</v>
       </c>
       <c r="H58" t="s">
+        <v>262</v>
+      </c>
+      <c r="I58" t="s">
+        <v>161</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>165</v>
+      </c>
+      <c r="O58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s">
         <v>257</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I59" t="s">
         <v>42</v>
       </c>
-      <c r="J58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58">
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59">
         <v>10</v>
       </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>173</v>
       </c>
-      <c r="O58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P58" t="b">
+      <c r="O59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2F4B8-EE99-4457-9A9F-5DCA605CDBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC32BAC-0A5A-4EB3-AF09-704AFE1BBD27}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
   </bookViews>
@@ -20,23 +20,17 @@
     <definedName name="Maestro">#REF!</definedName>
     <definedName name="Título">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="293">
   <si>
     <t>Codigo</t>
   </si>
@@ -909,6 +903,12 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7790742336200.png</t>
+  </si>
+  <si>
+    <t>con azúcar</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791813888406.png</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -1472,31 +1472,31 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7791519200069</v>
+        <v>7791813888406</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
@@ -1522,31 +1522,31 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
@@ -1572,31 +1572,31 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -1611,48 +1611,48 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1661,42 +1661,42 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="F8">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1711,48 +1711,48 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="O8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1761,42 +1761,42 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>249</v>
       </c>
       <c r="I10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1811,48 +1811,48 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1861,48 +1861,48 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F12">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
         <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -1922,31 +1922,31 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>257</v>
       </c>
       <c r="I13" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -1972,37 +1972,37 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2011,48 +2011,48 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -2072,37 +2072,37 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2111,107 +2111,107 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>100</v>
       </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F19">
         <v>500</v>
@@ -2246,13 +2246,13 @@
         <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -2272,37 +2272,37 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2311,48 +2311,48 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2361,48 +2361,48 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F22">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -2422,37 +2422,37 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F23">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="I23" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -2472,37 +2472,37 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F24">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -2522,31 +2522,31 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -2561,48 +2561,48 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F26">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="I26" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2611,48 +2611,48 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2661,68 +2661,68 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="F28">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2731,10 +2731,10 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F29">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O29" s="3" t="b">
         <v>1</v>
@@ -2772,19 +2772,19 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30">
         <v>1000</v>
@@ -2796,7 +2796,7 @@
         <v>258</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O30" s="3" t="b">
         <v>1</v>
@@ -2822,181 +2822,181 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F31">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O31" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K32">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O32" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F33">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O33" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F34">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O34" s="3" t="b">
         <v>1</v>
@@ -3022,19 +3022,19 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F35">
         <v>500</v>
@@ -3046,7 +3046,7 @@
         <v>257</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O35" s="3" t="b">
         <v>1</v>
@@ -3072,22 +3072,22 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G36" t="s">
         <v>24</v>
@@ -3096,7 +3096,7 @@
         <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O36" s="3" t="b">
         <v>1</v>
@@ -3122,34 +3122,34 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K37">
         <v>12</v>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="3" t="b">
         <v>1</v>
@@ -3172,37 +3172,37 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F38">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -3222,37 +3222,37 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="3" t="b">
         <v>1</v>
@@ -3272,37 +3272,37 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F40">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="3" t="b">
         <v>1</v>
@@ -3322,49 +3322,49 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -3372,87 +3372,87 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F42">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3472,16 +3472,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
         <v>83</v>
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="3" t="b">
         <v>1</v>
@@ -3522,16 +3522,16 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
         <v>83</v>
@@ -3552,7 +3552,7 @@
         <v>19</v>
       </c>
       <c r="K45">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O45" s="3" t="b">
         <v>1</v>
@@ -3572,31 +3572,31 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O46" s="3" t="b">
         <v>1</v>
@@ -3622,31 +3622,31 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F47">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -3661,80 +3661,80 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O47" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O48" s="3" t="b">
         <v>1</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F49">
         <v>20</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O49" s="3" t="b">
         <v>1</v>
@@ -3772,46 +3772,46 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F50">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O50" s="3" t="b">
         <v>1</v>
@@ -3822,31 +3822,31 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F51">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3872,37 +3872,37 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F52">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="I52" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O52" s="3" t="b">
         <v>1</v>
@@ -3922,37 +3922,37 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
         <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O53" s="3" t="b">
         <v>1</v>
@@ -3972,37 +3972,37 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H54" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O54" s="3" t="b">
         <v>1</v>
@@ -4022,31 +4022,31 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F55">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O55" s="3" t="b">
         <v>1</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -4081,13 +4081,13 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
       </c>
       <c r="F56">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O56" s="3" t="b">
         <v>1</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -4137,7 +4137,7 @@
         <v>15</v>
       </c>
       <c r="F57">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O57" s="3" t="b">
         <v>1</v>
@@ -4172,38 +4172,38 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F58">
+        <v>250</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>261</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58">
         <v>6</v>
       </c>
-      <c r="G58" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" t="s">
-        <v>262</v>
-      </c>
-      <c r="I58" t="s">
-        <v>161</v>
-      </c>
-      <c r="J58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
       <c r="L58" t="b">
         <v>0</v>
       </c>
@@ -4211,62 +4211,112 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O58" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G59" t="s">
         <v>47</v>
       </c>
       <c r="H59" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" t="s">
+        <v>161</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>165</v>
+      </c>
+      <c r="O59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s">
         <v>257</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
         <v>42</v>
       </c>
-      <c r="J59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59">
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60">
         <v>10</v>
       </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>173</v>
       </c>
-      <c r="O59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P59" t="b">
+      <c r="O60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -5,21 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Propio\VentaSoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC32BAC-0A5A-4EB3-AF09-704AFE1BBD27}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DDB4A-BFE8-4415-B459-A7612AA11239}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="16200" windowHeight="9420" xr2:uid="{565376BF-67BC-4AF0-8C7C-2620866B3ED5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="4" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="Artículos">#REF!</definedName>
-    <definedName name="Maestro">#REF!</definedName>
-    <definedName name="Título">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="302">
   <si>
     <t>Codigo</t>
   </si>
@@ -38,423 +34,834 @@
     <t>TipoArtículo</t>
   </si>
   <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Variedad</t>
+  </si>
+  <si>
     <t>Marca</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Variedad</t>
+    <t>ContenidoNeto</t>
   </si>
   <si>
     <t>UnidadDeMedida</t>
   </si>
   <si>
-    <t>ContenidoNeto</t>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>PaisOrigen</t>
+  </si>
+  <si>
+    <t>UnidadesPorBulto</t>
   </si>
   <si>
     <t>Pesable</t>
   </si>
   <si>
-    <t>Familia</t>
-  </si>
-  <si>
-    <t>UnidadesPorBulto</t>
+    <t>TieneVencimiento</t>
   </si>
   <si>
     <t>Imagen</t>
   </si>
   <si>
-    <t>PaisOrigen</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
-    <t>TieneVencimiento</t>
+    <t>ImagenExactaDelArticulo</t>
+  </si>
+  <si>
+    <t>DescripciónConPackaging</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>panchos</t>
+  </si>
+  <si>
+    <t>Veneziana</t>
+  </si>
+  <si>
+    <t>und.</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>Panes</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791708001378.png</t>
+  </si>
+  <si>
+    <t>Leche</t>
+  </si>
+  <si>
+    <t>larga vida</t>
+  </si>
+  <si>
+    <t>parcialmente descremada 2%</t>
+  </si>
+  <si>
+    <t>Armonia</t>
+  </si>
+  <si>
+    <t>lt.</t>
+  </si>
+  <si>
+    <t>tetra brik</t>
+  </si>
+  <si>
+    <t>Leches</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790742336200.png</t>
+  </si>
+  <si>
+    <t>Gaseosa</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>con azúcar</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>ml.</t>
+  </si>
+  <si>
+    <t>botella</t>
+  </si>
+  <si>
+    <t>Gaseosas</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791813888406.png</t>
+  </si>
+  <si>
+    <t>Maní</t>
+  </si>
+  <si>
+    <t>confitado</t>
+  </si>
+  <si>
+    <t>surtido</t>
+  </si>
+  <si>
+    <t>Palmesano</t>
+  </si>
+  <si>
+    <t>gr.</t>
+  </si>
+  <si>
+    <t>Navideños</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7795522004089.png</t>
+  </si>
+  <si>
+    <t>Azúcar</t>
+  </si>
+  <si>
+    <t>blanco refinado</t>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>Ledesma</t>
+  </si>
+  <si>
+    <t>kg.</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7792540250450.png</t>
+  </si>
+  <si>
+    <t>Preservativos</t>
+  </si>
+  <si>
+    <t>de látex</t>
+  </si>
+  <si>
+    <t>texturados</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791519200069.png</t>
+  </si>
+  <si>
+    <t>ultrapasteurizada</t>
+  </si>
+  <si>
+    <t>entera</t>
+  </si>
+  <si>
+    <t>Tregar</t>
+  </si>
+  <si>
+    <t>Tetra brik</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7793913001822.png</t>
+  </si>
+  <si>
+    <t>lacteado</t>
+  </si>
+  <si>
+    <t>chico</t>
+  </si>
+  <si>
+    <t>Bolsa</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791708611454.png</t>
+  </si>
+  <si>
+    <t>Manfrey</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791058000731.png</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>de pascualinas</t>
+  </si>
+  <si>
+    <t>criolla</t>
+  </si>
+  <si>
+    <t>Di Pascuale</t>
+  </si>
+  <si>
+    <t>Pastas frescas</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798118140079.png</t>
+  </si>
+  <si>
+    <t>Té</t>
+  </si>
+  <si>
+    <t>negro clásico</t>
+  </si>
+  <si>
+    <t>en saquitos</t>
+  </si>
+  <si>
+    <t>La Virginia</t>
+  </si>
+  <si>
+    <t>Tés</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790150211953.png</t>
+  </si>
+  <si>
+    <t>Crema dental</t>
+  </si>
+  <si>
+    <t>anticaries</t>
+  </si>
+  <si>
+    <t>herbal</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Cremas dentales</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7509546695518.png</t>
+  </si>
+  <si>
+    <t>común</t>
+  </si>
+  <si>
+    <t>tipo "a"</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790220000746.png</t>
+  </si>
+  <si>
+    <t>Cacao</t>
+  </si>
+  <si>
+    <t>en polvo</t>
+  </si>
+  <si>
+    <t>Nesquik</t>
+  </si>
+  <si>
+    <t>Cacaos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\8445291121867.png</t>
+  </si>
+  <si>
+    <t>Salchichas</t>
+  </si>
+  <si>
+    <t>tipo viena</t>
+  </si>
+  <si>
+    <t>sin piel</t>
+  </si>
+  <si>
+    <t>Paladini</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790079010828.png</t>
+  </si>
+  <si>
+    <t>Detergente</t>
+  </si>
+  <si>
+    <t>desengrasante</t>
+  </si>
+  <si>
+    <t>bioactive lima</t>
+  </si>
+  <si>
+    <t>Cif</t>
+  </si>
+  <si>
+    <t>Detergentes</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791290794115.png</t>
+  </si>
+  <si>
+    <t>para empanadas</t>
+  </si>
+  <si>
+    <t>"freir"</t>
+  </si>
+  <si>
+    <t>Di Pascualle</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798118140024.png</t>
+  </si>
+  <si>
+    <t>sachet</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791058000595.png</t>
+  </si>
+  <si>
+    <t>Tubos</t>
+  </si>
+  <si>
+    <t>para armar</t>
+  </si>
+  <si>
+    <t>cigarrillos</t>
+  </si>
+  <si>
+    <t>Stamps</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>Tabaco</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798205440198.png</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Saborizada</t>
+  </si>
+  <si>
+    <t>pera</t>
+  </si>
+  <si>
+    <t>Levite</t>
+  </si>
+  <si>
+    <t>Botella</t>
+  </si>
+  <si>
+    <t>Aguas saborizadas</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7799155000579.png</t>
+  </si>
+  <si>
+    <t>dietética</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791813420057.png</t>
+  </si>
+  <si>
+    <t>Arcor</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790580127534.png</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>para manos</t>
+  </si>
+  <si>
+    <t>en gel</t>
+  </si>
+  <si>
+    <t>Algabo</t>
+  </si>
+  <si>
+    <t>Alcoholes</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791274196522.png</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>fina</t>
+  </si>
+  <si>
+    <t>sin tacc</t>
+  </si>
+  <si>
+    <t>Rinsal</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791004000013.png</t>
+  </si>
+  <si>
+    <t>Aderezo a base de</t>
+  </si>
+  <si>
+    <t>mostaza</t>
+  </si>
+  <si>
+    <t>Savora</t>
+  </si>
+  <si>
+    <t>Pouch</t>
+  </si>
+  <si>
+    <t>Aderezos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7794000006478.png</t>
+  </si>
+  <si>
+    <t>Margarina</t>
+  </si>
+  <si>
+    <t>cremosa</t>
+  </si>
+  <si>
+    <t>dorada</t>
+  </si>
+  <si>
+    <t>Dánica</t>
+  </si>
+  <si>
+    <t>Pote</t>
+  </si>
+  <si>
+    <t>Margarinas</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791620187778.png</t>
+  </si>
+  <si>
+    <t>"chocolatada"</t>
+  </si>
+  <si>
+    <t>Exquisita</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790070433015.png</t>
+  </si>
+  <si>
+    <t>Aderezo</t>
+  </si>
+  <si>
+    <t>a base de mostaza</t>
+  </si>
+  <si>
+    <t>Sobre</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7794000006515.png</t>
+  </si>
+  <si>
+    <t>Dul-c</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790220001705.png</t>
+  </si>
+  <si>
+    <t>Salame</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>milán</t>
+  </si>
+  <si>
+    <t>Fela</t>
+  </si>
+  <si>
+    <t>horma</t>
+  </si>
+  <si>
+    <t>Fiambres</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\1111.png</t>
+  </si>
+  <si>
+    <t>crespón</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\2222.png</t>
+  </si>
+  <si>
+    <t>Queso</t>
+  </si>
+  <si>
+    <t>cremoso</t>
+  </si>
+  <si>
+    <t>La Paulina</t>
+  </si>
+  <si>
+    <t>Quesos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\3333.png</t>
+  </si>
+  <si>
+    <t>Licor</t>
+  </si>
+  <si>
+    <t>crema</t>
+  </si>
+  <si>
+    <t>café al coñac</t>
+  </si>
+  <si>
+    <t>Tres Plumas</t>
+  </si>
+  <si>
+    <t>petaca</t>
+  </si>
+  <si>
+    <t>Licores</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\77990112.png</t>
+  </si>
+  <si>
+    <t>Encendedor</t>
+  </si>
+  <si>
+    <t>no recargable</t>
+  </si>
+  <si>
+    <t>colores varios</t>
+  </si>
+  <si>
+    <t>BX7</t>
+  </si>
+  <si>
+    <t>suelto</t>
+  </si>
+  <si>
+    <t>Encendedores</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\3086123206873.png</t>
+  </si>
+  <si>
+    <t>Puré de tomates</t>
+  </si>
+  <si>
+    <t>sin conservantes</t>
+  </si>
+  <si>
+    <t>de la huerta</t>
+  </si>
+  <si>
+    <t>Baggio</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790036973036.png</t>
+  </si>
+  <si>
+    <t>Fideos</t>
+  </si>
+  <si>
+    <t>secos</t>
+  </si>
+  <si>
+    <t>spaghetti Nº 7</t>
+  </si>
+  <si>
+    <t>Luchetti</t>
+  </si>
+  <si>
+    <t>Fideos secos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790070336385.png</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>torrado molido</t>
+  </si>
+  <si>
+    <t>clásico</t>
+  </si>
+  <si>
+    <t>Cafés</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790150006153.png</t>
+  </si>
+  <si>
+    <t>Bicarbonato</t>
+  </si>
+  <si>
+    <t>de sodio</t>
+  </si>
+  <si>
+    <t>en bolsa</t>
+  </si>
+  <si>
+    <t>Alicante</t>
+  </si>
+  <si>
+    <t>Especias</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790150430392.png</t>
+  </si>
+  <si>
+    <t>Espirales insecticidas</t>
+  </si>
+  <si>
+    <t>repelentes</t>
+  </si>
+  <si>
+    <t>contra mosquitos</t>
+  </si>
+  <si>
+    <t>Raid</t>
+  </si>
+  <si>
+    <t>Insecticidas</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790520010445.png</t>
   </si>
   <si>
     <t>Desodorante</t>
   </si>
   <si>
+    <t>para ambientes en aerosol</t>
+  </si>
+  <si>
+    <t>caricias de algodón</t>
+  </si>
+  <si>
+    <t>Glade</t>
+  </si>
+  <si>
+    <t>cm3.</t>
+  </si>
+  <si>
+    <t>aerosol</t>
+  </si>
+  <si>
+    <t>Desodorantes</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790520016461.png</t>
+  </si>
+  <si>
+    <t>Tabletas insecticidas</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790520995360.png</t>
+  </si>
+  <si>
+    <t>indian tonic</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>Cunnington</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790639003574.png</t>
+  </si>
+  <si>
+    <t>Papel higiénico</t>
+  </si>
+  <si>
+    <t>simple hoja</t>
+  </si>
+  <si>
+    <t>"soft"</t>
+  </si>
+  <si>
+    <t>Ecco</t>
+  </si>
+  <si>
+    <t>Papeles Higiénicos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791070000382.png</t>
+  </si>
+  <si>
+    <t>para hombre</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
     <t>Colbert</t>
   </si>
   <si>
-    <t>para hombre</t>
-  </si>
-  <si>
-    <t>ml.</t>
-  </si>
-  <si>
-    <t>Desodorantes</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Salame</t>
-  </si>
-  <si>
-    <t>Fela</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>milán</t>
-  </si>
-  <si>
-    <t>gr.</t>
-  </si>
-  <si>
-    <t>Fiambres</t>
-  </si>
-  <si>
-    <t>Paladini</t>
-  </si>
-  <si>
-    <t>crespón</t>
-  </si>
-  <si>
-    <t>Queso</t>
-  </si>
-  <si>
-    <t>La Paulina</t>
-  </si>
-  <si>
-    <t>cremoso</t>
-  </si>
-  <si>
-    <t>Quesos</t>
-  </si>
-  <si>
-    <t>Bicarbonato</t>
-  </si>
-  <si>
-    <t>Alicante</t>
-  </si>
-  <si>
-    <t>de sodio</t>
-  </si>
-  <si>
-    <t>en bolsa</t>
-  </si>
-  <si>
-    <t>Especias</t>
-  </si>
-  <si>
-    <t>Bolsa</t>
-  </si>
-  <si>
-    <t>Leche</t>
+    <t>C:\VentaSoft\Imágenes de artículos\7791600087128.png</t>
+  </si>
+  <si>
+    <t>Ravioles</t>
+  </si>
+  <si>
+    <t>rellenos de</t>
+  </si>
+  <si>
+    <t>carne y espinaca</t>
+  </si>
+  <si>
+    <t>La Italiana</t>
+  </si>
+  <si>
+    <t>Blister</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791664000156.png</t>
+  </si>
+  <si>
+    <t>Ñoquis</t>
+  </si>
+  <si>
+    <t>frescos</t>
+  </si>
+  <si>
+    <t>de papa</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791664000453.png</t>
+  </si>
+  <si>
+    <t>jamón y muzzarella</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791684000934.png</t>
+  </si>
+  <si>
+    <t>rallado</t>
+  </si>
+  <si>
+    <t>sin gluten/TACC</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7793913000139.png</t>
   </si>
   <si>
     <t>Quelech</t>
   </si>
   <si>
-    <t>en polvo</t>
-  </si>
-  <si>
-    <t>entera</t>
-  </si>
-  <si>
-    <t>Papeles Higiénicos</t>
-  </si>
-  <si>
-    <t>Encendedor</t>
-  </si>
-  <si>
-    <t>BX7</t>
-  </si>
-  <si>
-    <t>no recargable</t>
-  </si>
-  <si>
-    <t>colores varios</t>
-  </si>
-  <si>
-    <t>und.</t>
-  </si>
-  <si>
-    <t>Encendedores</t>
-  </si>
-  <si>
-    <t>Francia</t>
-  </si>
-  <si>
-    <t>Tregar</t>
-  </si>
-  <si>
-    <t>rallado</t>
-  </si>
-  <si>
-    <t>sin gluten/TACC</t>
-  </si>
-  <si>
-    <t>Sobre</t>
-  </si>
-  <si>
-    <t>Glade</t>
-  </si>
-  <si>
-    <t>para ambientes en aerosol</t>
-  </si>
-  <si>
-    <t>caricias de algodón</t>
-  </si>
-  <si>
-    <t>cm3.</t>
-  </si>
-  <si>
-    <t>Puré de tomates</t>
-  </si>
-  <si>
-    <t>Baggio</t>
-  </si>
-  <si>
-    <t>sin conservantes</t>
-  </si>
-  <si>
-    <t>de la huerta</t>
-  </si>
-  <si>
-    <t>Fideos</t>
-  </si>
-  <si>
-    <t>Luchetti</t>
-  </si>
-  <si>
-    <t>secos</t>
-  </si>
-  <si>
-    <t>spaghetti Nº 7</t>
-  </si>
-  <si>
-    <t>Fideos secos</t>
+    <t>C:\VentaSoft\Imágenes de artículos\7795018002902.png</t>
   </si>
   <si>
     <t>Cigarrillos</t>
   </si>
   <si>
+    <t>rubios mentolados</t>
+  </si>
+  <si>
+    <t>en caja</t>
+  </si>
+  <si>
+    <t>Milenio</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798100200491.png</t>
+  </si>
+  <si>
+    <t>rubios convertibles</t>
+  </si>
+  <si>
     <t>Mill</t>
   </si>
   <si>
-    <t>rubios convertibles</t>
-  </si>
-  <si>
-    <t>en caja</t>
-  </si>
-  <si>
-    <t>Caja</t>
-  </si>
-  <si>
-    <t>Licor</t>
-  </si>
-  <si>
-    <t>Tres Plumas</t>
-  </si>
-  <si>
-    <t>crema</t>
-  </si>
-  <si>
-    <t>café al coñac</t>
-  </si>
-  <si>
-    <t>Licores</t>
-  </si>
-  <si>
-    <t>Tabletas insecticidas</t>
-  </si>
-  <si>
-    <t>Raid</t>
-  </si>
-  <si>
-    <t>repelentes</t>
-  </si>
-  <si>
-    <t>contra mosquitos</t>
-  </si>
-  <si>
-    <t>Insecticidas</t>
-  </si>
-  <si>
-    <t>Ravioles</t>
-  </si>
-  <si>
-    <t>La Italiana</t>
-  </si>
-  <si>
-    <t>rellenos de</t>
-  </si>
-  <si>
-    <t>carne y espinaca</t>
-  </si>
-  <si>
-    <t>Pastas frescas</t>
-  </si>
-  <si>
-    <t>Blister</t>
-  </si>
-  <si>
-    <t>Milenio</t>
-  </si>
-  <si>
-    <t>rubios mentolados</t>
-  </si>
-  <si>
-    <t>Ñoquis</t>
-  </si>
-  <si>
-    <t>frescos</t>
-  </si>
-  <si>
-    <t>de papa</t>
-  </si>
-  <si>
-    <t>jamón y muzzarella</t>
-  </si>
-  <si>
-    <t>Espirales insecticidas</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Gaseosa</t>
-  </si>
-  <si>
-    <t>Cunnington</t>
-  </si>
-  <si>
-    <t>indian tonic</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>lt.</t>
-  </si>
-  <si>
-    <t>Gaseosas</t>
-  </si>
-  <si>
-    <t>Botella</t>
-  </si>
-  <si>
-    <t>Papel higiénico</t>
-  </si>
-  <si>
-    <t>Ecco</t>
-  </si>
-  <si>
-    <t>simple hoja</t>
-  </si>
-  <si>
-    <t>"soft"</t>
-  </si>
-  <si>
-    <t>Café</t>
-  </si>
-  <si>
-    <t>torrado molido</t>
-  </si>
-  <si>
-    <t>clásico</t>
-  </si>
-  <si>
-    <t>La Virginia</t>
-  </si>
-  <si>
-    <t>Cafés</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\1111.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\2222.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\3333.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\77990112.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\3086123206873.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790036973036.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790070336385.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790150006153.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790150430392.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790520010445.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790520016461.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790520995360.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790639003574.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791070000382.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791600087128.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791664000156.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791664000453.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791684000934.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7793913000139.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7795018002902.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798100200491.png</t>
-  </si>
-  <si>
     <t>C:\VentaSoft\Imágenes de artículos\7798100200583.png</t>
   </si>
   <si>
+    <t>Eau de toilette</t>
+  </si>
+  <si>
+    <t>Perfumes/Colonias</t>
+  </si>
+  <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791600087012.png</t>
   </si>
   <si>
-    <t>Eau de toilette</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Perfumes/Colonias</t>
-  </si>
-  <si>
-    <t>ImagenExactaDelArticulo</t>
-  </si>
-  <si>
     <t>Talco</t>
   </si>
   <si>
-    <t>original</t>
-  </si>
-  <si>
     <t>Veritas</t>
   </si>
   <si>
@@ -473,22 +880,10 @@
     <t>Hellmann's</t>
   </si>
   <si>
-    <t>Pouch</t>
-  </si>
-  <si>
-    <t>Aderezos</t>
-  </si>
-  <si>
     <t>C:\VentaSoft\Imágenes de artículos\7794000006065.png</t>
   </si>
   <si>
-    <t>Azúcar</t>
-  </si>
-  <si>
-    <t>Ledesma</t>
-  </si>
-  <si>
-    <t>kg.</t>
+    <t>común tipo "a"</t>
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7792540260138.png</t>
@@ -527,411 +922,29 @@
     <t>Cismondi</t>
   </si>
   <si>
+    <t>maple</t>
+  </si>
+  <si>
     <t>C:\VentaSoft\Imágenes de artículos\2001300000798.png</t>
   </si>
   <si>
-    <t>Detergente</t>
-  </si>
-  <si>
-    <t>desengrasante</t>
-  </si>
-  <si>
-    <t>bioactive lima</t>
-  </si>
-  <si>
-    <t>Cif</t>
-  </si>
-  <si>
-    <t>Detergentes</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791290794115.png</t>
-  </si>
-  <si>
     <t>Campanita</t>
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791070000078.png</t>
-  </si>
-  <si>
-    <t>Tapas</t>
-  </si>
-  <si>
-    <t>para empanadas</t>
-  </si>
-  <si>
-    <t>"freir"</t>
-  </si>
-  <si>
-    <t>Di Pascualle</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798118140024.png</t>
-  </si>
-  <si>
-    <t>ultrapasteurizada</t>
-  </si>
-  <si>
-    <t>Manfrey</t>
-  </si>
-  <si>
-    <t>Leches</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791058000595.png</t>
-  </si>
-  <si>
-    <t>Tubos</t>
-  </si>
-  <si>
-    <t>para armar</t>
-  </si>
-  <si>
-    <t>cigarrillos</t>
-  </si>
-  <si>
-    <t>Stamps</t>
-  </si>
-  <si>
-    <t>Tabaco</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798205440198.png</t>
-  </si>
-  <si>
-    <t>Agua</t>
-  </si>
-  <si>
-    <t>Saborizada</t>
-  </si>
-  <si>
-    <t>pera</t>
-  </si>
-  <si>
-    <t>Levite</t>
-  </si>
-  <si>
-    <t>Aguas saborizadas</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7799155000579.png</t>
-  </si>
-  <si>
-    <t>dietética</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791813420057.png</t>
-  </si>
-  <si>
-    <t>común</t>
-  </si>
-  <si>
-    <t>tipo "a"</t>
-  </si>
-  <si>
-    <t>Arcor</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790580127534.png</t>
-  </si>
-  <si>
-    <t>común tipo "a"</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>para manos</t>
-  </si>
-  <si>
-    <t>en gel</t>
-  </si>
-  <si>
-    <t>Algabo</t>
-  </si>
-  <si>
-    <t>Alcoholes</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791274196522.png</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
-    <t>fina</t>
-  </si>
-  <si>
-    <t>sin tacc</t>
-  </si>
-  <si>
-    <t>Rinsal</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791004000013.png</t>
-  </si>
-  <si>
-    <t>Aderezo a base de</t>
-  </si>
-  <si>
-    <t>mostaza</t>
-  </si>
-  <si>
-    <t>Savora</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7794000006478.png</t>
-  </si>
-  <si>
-    <t>Margarina</t>
-  </si>
-  <si>
-    <t>cremosa</t>
-  </si>
-  <si>
-    <t>dorada</t>
-  </si>
-  <si>
-    <t>Dánica</t>
-  </si>
-  <si>
-    <t>Pote</t>
-  </si>
-  <si>
-    <t>Margarinas</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791620187778.png</t>
-  </si>
-  <si>
-    <t>Cacao</t>
-  </si>
-  <si>
-    <t>Exquisita</t>
-  </si>
-  <si>
-    <t>Cacaos</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790070433015.png</t>
-  </si>
-  <si>
-    <t>Aderezo</t>
-  </si>
-  <si>
-    <t>a base de mostaza</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7794000006515.png</t>
-  </si>
-  <si>
-    <t>Dul-c</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790220001705.png</t>
-  </si>
-  <si>
-    <t>Preservativos</t>
-  </si>
-  <si>
-    <t>de látex</t>
-  </si>
-  <si>
-    <t>texturados</t>
-  </si>
-  <si>
-    <t>Prime</t>
-  </si>
-  <si>
-    <t>Tetra brik</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7793913001822.png</t>
-  </si>
-  <si>
-    <t>Pan</t>
-  </si>
-  <si>
-    <t>lacteado</t>
-  </si>
-  <si>
-    <t>chico</t>
-  </si>
-  <si>
-    <t>Veneziana</t>
-  </si>
-  <si>
-    <t>Panes</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791708611454.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791058000731.png</t>
-  </si>
-  <si>
-    <t>DescripciónConPackaging</t>
-  </si>
-  <si>
-    <t>caja</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791519200069.png</t>
-  </si>
-  <si>
-    <t>tetra brik</t>
-  </si>
-  <si>
-    <t>de pascualinas</t>
-  </si>
-  <si>
-    <t>criolla</t>
-  </si>
-  <si>
-    <t>Di Pascuale</t>
-  </si>
-  <si>
-    <t>botella</t>
-  </si>
-  <si>
-    <t>sachet</t>
-  </si>
-  <si>
-    <t>bolsa</t>
-  </si>
-  <si>
-    <t>horma</t>
-  </si>
-  <si>
-    <t>petaca</t>
-  </si>
-  <si>
-    <t>suelto</t>
-  </si>
-  <si>
-    <t>aerosol</t>
-  </si>
-  <si>
-    <t>maple</t>
-  </si>
-  <si>
-    <t>Té</t>
-  </si>
-  <si>
-    <t>negro clásico</t>
-  </si>
-  <si>
-    <t>en saquitos</t>
-  </si>
-  <si>
-    <t>Tés</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790150211953.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798118140079.png</t>
-  </si>
-  <si>
-    <t>Crema dental</t>
-  </si>
-  <si>
-    <t>anticaries</t>
-  </si>
-  <si>
-    <t>herbal</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Cremas dentales</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7509546695518.png</t>
-  </si>
-  <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790220000746.png</t>
-  </si>
-  <si>
-    <t>Nesquik</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\8445291121867.png</t>
-  </si>
-  <si>
-    <t>"chocolatada"</t>
-  </si>
-  <si>
-    <t>Salchichas</t>
-  </si>
-  <si>
-    <t>tipo viena</t>
-  </si>
-  <si>
-    <t>sin piel</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790079010828.png</t>
-  </si>
-  <si>
-    <t>para</t>
-  </si>
-  <si>
-    <t>panchos</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791708001378.png</t>
-  </si>
-  <si>
-    <t>larga vida</t>
-  </si>
-  <si>
-    <t>parcialmente descremada 2%</t>
-  </si>
-  <si>
-    <t>Armonia</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790742336200.png</t>
-  </si>
-  <si>
-    <t>con azúcar</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791813888406.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -942,7 +955,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -950,39 +963,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Artículos" xfId="1" xr:uid="{D35943D8-FE05-46B7-B26C-DF14F8A4977E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,12 +1283,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D481-BCA9-4993-8323-5A303A44E938}">
-  <dimension ref="A1:P60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C89B29-4F4B-4BD5-B062-5CB7BB5AB2C7}">
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1316,7 +1304,7 @@
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1328,46 +1316,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>138</v>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1375,31 +1363,31 @@
         <v>7791708001378</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1411,9 +1399,9 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O2" s="2" t="b">
+        <v>24</v>
+      </c>
+      <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="b">
@@ -1425,31 +1413,31 @@
         <v>7790742336200</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -1461,9 +1449,9 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>290</v>
-      </c>
-      <c r="O3" s="2" t="b">
+        <v>32</v>
+      </c>
+      <c r="O3" t="b">
         <v>1</v>
       </c>
       <c r="P3" t="b">
@@ -1475,31 +1463,31 @@
         <v>7791813888406</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1511,9 +1499,9 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O4" s="2" t="b">
+        <v>40</v>
+      </c>
+      <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="b">
@@ -1522,99 +1510,99 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7791519200069</v>
+        <v>7795522004089</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>250</v>
-      </c>
-      <c r="O5" s="2" t="b">
+      <c r="O5" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7793913001822</v>
+        <v>7792540250450</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O6" s="2" t="b">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -1622,34 +1610,34 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7791708611454</v>
+        <v>7791519200069</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="F7">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1661,48 +1649,48 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="2" t="b">
+        <v>59</v>
+      </c>
+      <c r="O7" t="b">
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7791058000731</v>
+        <v>7793913001822</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1711,9 +1699,9 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O8" s="2" t="b">
+        <v>64</v>
+      </c>
+      <c r="O8" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="b">
@@ -1722,37 +1710,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7798118140079</v>
+        <v>7791708611454</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1761,9 +1749,9 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>268</v>
-      </c>
-      <c r="O9" s="2" t="b">
+        <v>68</v>
+      </c>
+      <c r="O9" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="b">
@@ -1772,37 +1760,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7790150211953</v>
+        <v>7791058000731</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1811,9 +1799,9 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>267</v>
-      </c>
-      <c r="O10" s="2" t="b">
+        <v>70</v>
+      </c>
+      <c r="O10" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
@@ -1822,37 +1810,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7509546695518</v>
+        <v>7798118140079</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1861,9 +1849,9 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>274</v>
-      </c>
-      <c r="O11" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="O11" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="b">
@@ -1872,37 +1860,37 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790220000746</v>
+        <v>7790150211953</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1911,9 +1899,9 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O12" s="2" t="b">
+        <v>82</v>
+      </c>
+      <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
@@ -1922,37 +1910,37 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>8445291121867</v>
+        <v>7509546695518</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="F13">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1961,48 +1949,48 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>278</v>
-      </c>
-      <c r="O13" s="2" t="b">
+        <v>88</v>
+      </c>
+      <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790079010828</v>
+        <v>7790220000746</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2011,9 +1999,9 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>283</v>
-      </c>
-      <c r="O14" s="2" t="b">
+        <v>92</v>
+      </c>
+      <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
@@ -2022,37 +2010,37 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791290794115</v>
+        <v>8445291121867</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2061,49 +2049,49 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15" s="2" t="b">
+        <v>97</v>
+      </c>
+      <c r="O15" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7798118140024</v>
+        <v>7790079010828</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16">
-        <v>30</v>
-      </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
@@ -2111,48 +2099,48 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
-      </c>
-      <c r="O16" s="2" t="b">
+        <v>102</v>
+      </c>
+      <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791058000595</v>
+        <v>7791290794115</v>
       </c>
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s">
-        <v>256</v>
-      </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2161,59 +2149,59 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
-      </c>
-      <c r="O17" s="2" t="b">
+        <v>108</v>
+      </c>
+      <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7798205440198</v>
+        <v>7798118140024</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
-      </c>
-      <c r="O18" s="2" t="b">
+        <v>112</v>
+      </c>
+      <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
@@ -2222,34 +2210,34 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7799155000579</v>
+        <v>7791058000595</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -2261,45 +2249,45 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
-      </c>
-      <c r="O19" s="2" t="b">
+        <v>114</v>
+      </c>
+      <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791813420057</v>
+        <v>7798205440198</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2308,12 +2296,12 @@
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
-      </c>
-      <c r="O20" s="2" t="b">
+        <v>121</v>
+      </c>
+      <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
@@ -2322,37 +2310,37 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790580127534</v>
+        <v>7799155000579</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2361,45 +2349,45 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
-      </c>
-      <c r="O21" s="2" t="b">
+        <v>128</v>
+      </c>
+      <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791274196522</v>
+        <v>7791813420057</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2411,9 +2399,9 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
-      </c>
-      <c r="O22" s="2" t="b">
+        <v>131</v>
+      </c>
+      <c r="O22" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="b">
@@ -2422,37 +2410,37 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791004000013</v>
+        <v>7790580127534</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="F23">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2461,45 +2449,45 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
-      </c>
-      <c r="O23" s="2" t="b">
+        <v>133</v>
+      </c>
+      <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7794000006478</v>
+        <v>7791274196522</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="F24">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2511,9 +2499,9 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
-      </c>
-      <c r="O24" s="2" t="b">
+        <v>139</v>
+      </c>
+      <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
@@ -2522,37 +2510,37 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791620187778</v>
+        <v>7791004000013</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="F25">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2561,9 +2549,9 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
-      </c>
-      <c r="O25" s="2" t="b">
+        <v>144</v>
+      </c>
+      <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
@@ -2572,87 +2560,87 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790070433015</v>
+        <v>7794000006478</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="F26">
+        <v>250</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>150</v>
       </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>257</v>
-      </c>
-      <c r="I26" t="s">
-        <v>228</v>
-      </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26">
-        <v>12</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>229</v>
-      </c>
-      <c r="O26" s="3" t="b">
+      <c r="O26" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7794000006515</v>
+        <v>7791620187778</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="F27">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2661,9 +2649,9 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
-      </c>
-      <c r="O27" s="3" t="b">
+        <v>157</v>
+      </c>
+      <c r="O27" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
@@ -2672,37 +2660,37 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790220001705</v>
+        <v>7790070433015</v>
       </c>
       <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28">
         <v>150</v>
       </c>
-      <c r="C28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" t="s">
-        <v>233</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2711,9 +2699,9 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
-      </c>
-      <c r="O28" s="3" t="b">
+        <v>160</v>
+      </c>
+      <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
@@ -2722,48 +2710,48 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1111</v>
+        <v>7794000006515</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="F29">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29">
         <v>24</v>
       </c>
-      <c r="H29" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
-      </c>
-      <c r="O29" s="3" t="b">
+        <v>164</v>
+      </c>
+      <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
@@ -2772,84 +2760,84 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2222</v>
+        <v>7790220001705</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="F30">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>113</v>
-      </c>
-      <c r="O30" s="3" t="b">
+        <v>166</v>
+      </c>
+      <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3333</v>
+        <v>1111</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="F31">
         <v>1000</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2861,9 +2849,9 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>114</v>
-      </c>
-      <c r="O31" s="3" t="b">
+        <v>173</v>
+      </c>
+      <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
@@ -2872,98 +2860,98 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>77990112</v>
+        <v>2222</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F32">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
-      </c>
-      <c r="O32" s="3" t="b">
+        <v>175</v>
+      </c>
+      <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3086123206873</v>
+        <v>3333</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
       <c r="H33" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="K33">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>116</v>
-      </c>
-      <c r="O33" s="3" t="b">
+        <v>180</v>
+      </c>
+      <c r="O33" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="b">
@@ -2972,34 +2960,34 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790036973036</v>
+        <v>77990112</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="F34">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K34">
         <v>12</v>
@@ -3011,9 +2999,9 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>117</v>
-      </c>
-      <c r="O34" s="3" t="b">
+        <v>187</v>
+      </c>
+      <c r="O34" t="b">
         <v>1</v>
       </c>
       <c r="P34" t="b">
@@ -3022,84 +3010,84 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790070336385</v>
+        <v>3086123206873</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="F35">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="K35">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>118</v>
-      </c>
-      <c r="O35" s="3" t="b">
+        <v>195</v>
+      </c>
+      <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790150006351</v>
+        <v>7790036973036</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="F36">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K36">
         <v>12</v>
@@ -3111,9 +3099,9 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>119</v>
-      </c>
-      <c r="O36" s="3" t="b">
+        <v>200</v>
+      </c>
+      <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="b">
@@ -3122,34 +3110,34 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790150430392</v>
+        <v>7790070336385</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K37">
         <v>12</v>
@@ -3161,9 +3149,9 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
-      </c>
-      <c r="O37" s="3" t="b">
+        <v>206</v>
+      </c>
+      <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="P37" t="b">
@@ -3172,34 +3160,34 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790520010445</v>
+        <v>7790150006351</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
         <v>80</v>
       </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
       <c r="F38">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="K38">
         <v>12</v>
@@ -3211,9 +3199,9 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>121</v>
-      </c>
-      <c r="O38" s="3" t="b">
+        <v>211</v>
+      </c>
+      <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="b">
@@ -3222,37 +3210,37 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790520016461</v>
+        <v>7790150430392</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="F39">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -3261,9 +3249,9 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>122</v>
-      </c>
-      <c r="O39" s="3" t="b">
+        <v>217</v>
+      </c>
+      <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="b">
@@ -3272,37 +3260,37 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790520995360</v>
+        <v>7790520010445</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="F40">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="K40">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3311,9 +3299,9 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>123</v>
-      </c>
-      <c r="O40" s="3" t="b">
+        <v>224</v>
+      </c>
+      <c r="O40" t="b">
         <v>1</v>
       </c>
       <c r="P40" t="b">
@@ -3322,34 +3310,34 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790639003574</v>
+        <v>7790520016461</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="F41">
-        <v>1.5</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -3361,9 +3349,9 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>124</v>
-      </c>
-      <c r="O41" s="3" t="b">
+        <v>232</v>
+      </c>
+      <c r="O41" t="b">
         <v>1</v>
       </c>
       <c r="P41" t="b">
@@ -3372,49 +3360,49 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7791070000382</v>
+        <v>7790520995360</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>125</v>
-      </c>
-      <c r="O42" s="3" t="b">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -3422,37 +3410,37 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7791600087128</v>
+        <v>7790639003574</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="F43">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3461,98 +3449,98 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>126</v>
-      </c>
-      <c r="O43" s="3" t="b">
+        <v>238</v>
+      </c>
+      <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791664000156</v>
+        <v>7791070000382</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="F44">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O44" s="3" t="b">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791664000453</v>
+        <v>7791600087128</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="F45">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="I45" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3561,9 +3549,9 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>128</v>
-      </c>
-      <c r="O45" s="3" t="b">
+        <v>248</v>
+      </c>
+      <c r="O45" t="b">
         <v>1</v>
       </c>
       <c r="P45" t="b">
@@ -3572,37 +3560,37 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7791684000934</v>
+        <v>7791664000156</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="F46">
         <v>500</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="I46" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K46">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3611,9 +3599,9 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>129</v>
-      </c>
-      <c r="O46" s="3" t="b">
+        <v>254</v>
+      </c>
+      <c r="O46" t="b">
         <v>1</v>
       </c>
       <c r="P46" t="b">
@@ -3622,37 +3610,37 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7793913000139</v>
+        <v>7791664000453</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3661,9 +3649,9 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>130</v>
-      </c>
-      <c r="O47" s="3" t="b">
+        <v>258</v>
+      </c>
+      <c r="O47" t="b">
         <v>1</v>
       </c>
       <c r="P47" t="b">
@@ -3672,34 +3660,34 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7795018002902</v>
+        <v>7791684000934</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="F48">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K48">
         <v>12</v>
@@ -3711,59 +3699,59 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>131</v>
-      </c>
-      <c r="O48" s="3" t="b">
+        <v>260</v>
+      </c>
+      <c r="O48" t="b">
         <v>1</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7798100200491</v>
+        <v>7793913000139</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>20</v>
       </c>
-      <c r="G49" t="s">
-        <v>47</v>
-      </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="I49" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>132</v>
-      </c>
-      <c r="O49" s="3" t="b">
+        <v>263</v>
+      </c>
+      <c r="O49" t="b">
         <v>1</v>
       </c>
       <c r="P49" t="b">
@@ -3772,98 +3760,98 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7798100200583</v>
+        <v>7795018002902</v>
       </c>
       <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50">
+        <v>800</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
         <v>67</v>
       </c>
-      <c r="C50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" t="s">
-        <v>71</v>
-      </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>133</v>
-      </c>
-      <c r="O50" s="3" t="b">
+        <v>265</v>
+      </c>
+      <c r="O50" t="b">
         <v>1</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791600087012</v>
+        <v>7798100200491</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="F51">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>134</v>
-      </c>
-      <c r="O51" s="3" t="b">
+        <v>270</v>
+      </c>
+      <c r="O51" t="b">
         <v>1</v>
       </c>
       <c r="P51" t="b">
@@ -3872,48 +3860,48 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791520009743</v>
+        <v>7798100200583</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="F52">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>142</v>
-      </c>
-      <c r="O52" s="3" t="b">
+        <v>273</v>
+      </c>
+      <c r="O52" t="b">
         <v>1</v>
       </c>
       <c r="P52" t="b">
@@ -3922,37 +3910,37 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7794000006065</v>
+        <v>7791600087012</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="F53">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K53">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3961,9 +3949,9 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>149</v>
-      </c>
-      <c r="O53" s="3" t="b">
+        <v>276</v>
+      </c>
+      <c r="O53" t="b">
         <v>1</v>
       </c>
       <c r="P53" t="b">
@@ -3972,37 +3960,37 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7792540260138</v>
+        <v>7791520009743</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="G54" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -4011,9 +3999,9 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>153</v>
-      </c>
-      <c r="O54" s="3" t="b">
+        <v>279</v>
+      </c>
+      <c r="O54" t="b">
         <v>1</v>
       </c>
       <c r="P54" t="b">
@@ -4022,37 +4010,37 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7790639003895</v>
+        <v>7794000006065</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="F55">
-        <v>1.5</v>
+        <v>237</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -4061,9 +4049,9 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>155</v>
-      </c>
-      <c r="O55" s="3" t="b">
+        <v>284</v>
+      </c>
+      <c r="O55" t="b">
         <v>1</v>
       </c>
       <c r="P55" t="b">
@@ -4072,37 +4060,37 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7791600174767</v>
+        <v>7792540260138</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F56">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -4111,9 +4099,9 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>157</v>
-      </c>
-      <c r="O56" s="3" t="b">
+        <v>286</v>
+      </c>
+      <c r="O56" t="b">
         <v>1</v>
       </c>
       <c r="P56" t="b">
@@ -4122,34 +4110,34 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7791600192372</v>
+        <v>7790639003895</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="F57">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -4161,9 +4149,9 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>159</v>
-      </c>
-      <c r="O57" s="3" t="b">
+        <v>288</v>
+      </c>
+      <c r="O57" t="b">
         <v>1</v>
       </c>
       <c r="P57" t="b">
@@ -4172,34 +4160,34 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7791600192488</v>
+        <v>7791600174767</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="F58">
         <v>250</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -4211,9 +4199,9 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>160</v>
-      </c>
-      <c r="O58" s="3" t="b">
+        <v>290</v>
+      </c>
+      <c r="O58" t="b">
         <v>1</v>
       </c>
       <c r="P58" t="b">
@@ -4222,38 +4210,38 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>2001300000798</v>
+        <v>7791600192372</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="F59">
+        <v>150</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>230</v>
+      </c>
+      <c r="I59" t="s">
+        <v>231</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59">
         <v>6</v>
       </c>
-      <c r="G59" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" t="s">
-        <v>262</v>
-      </c>
-      <c r="I59" t="s">
-        <v>161</v>
-      </c>
-      <c r="J59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
@@ -4261,67 +4249,178 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>165</v>
-      </c>
-      <c r="O59" s="3" t="b">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="O59" t="b">
+        <v>1</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>7791600192488</v>
+      </c>
+      <c r="B60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60">
+        <v>250</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I60" t="s">
+        <v>231</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>293</v>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2001300000798</v>
+      </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>298</v>
+      </c>
+      <c r="I61" t="s">
+        <v>294</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>299</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>7791070000078</v>
       </c>
-      <c r="B60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60">
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="G60" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" t="s">
-        <v>257</v>
-      </c>
-      <c r="I60" t="s">
-        <v>42</v>
-      </c>
-      <c r="J60" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60">
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s">
+        <v>243</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62">
         <v>10</v>
       </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
-        <v>173</v>
-      </c>
-      <c r="O60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P60" t="b">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>301</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABF4783-6E2D-48FC-A103-E4251E0EEF09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DDB4A-BFE8-4415-B459-A7612AA11239}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2EBF16-6B6A-4545-851D-71F4720CB529}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="3" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="4" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C89B29-4F4B-4BD5-B062-5CB7BB5AB2C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05481ECF-2DE9-4314-A7E5-CF190AFAB170}">
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2EBF16-6B6A-4545-851D-71F4720CB529}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90736FB-87F2-4058-BB7E-405541384D9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="4" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="5" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="307">
   <si>
     <t>Codigo</t>
   </si>
@@ -661,9 +661,6 @@
     <t>Cafés</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790150006153.png</t>
-  </si>
-  <si>
     <t>Bicarbonato</t>
   </si>
   <si>
@@ -932,6 +929,24 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7791070000078.png</t>
+  </si>
+  <si>
+    <t>Budín</t>
+  </si>
+  <si>
+    <t>marmolado</t>
+  </si>
+  <si>
+    <t>Buon Natale</t>
+  </si>
+  <si>
+    <t>Budines</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7798094222820.png</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7790150006351.png</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1298,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05481ECF-2DE9-4314-A7E5-CF190AFAB170}">
-  <dimension ref="A1:P62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E8AB20-DEFE-4F4A-A399-1331F2125BF9}">
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1309,7 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1555,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1596,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -1610,37 +1625,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7791519200069</v>
+        <v>7798094222820</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1649,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1660,31 +1675,31 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1699,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1710,31 +1725,31 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1749,48 +1764,48 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1799,42 +1814,42 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F11">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1849,48 +1864,48 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1899,42 +1914,42 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1949,48 +1964,48 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14">
         <v>90</v>
       </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1999,48 +2014,48 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2049,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -2060,31 +2075,31 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -2099,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -2110,37 +2125,37 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2149,48 +2164,48 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2199,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2210,37 +2225,37 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2249,107 +2264,107 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2360,19 +2375,19 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F22">
         <v>500</v>
@@ -2384,13 +2399,13 @@
         <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2399,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2410,37 +2425,37 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2449,48 +2464,48 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F24">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2499,48 +2514,48 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2549,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2560,37 +2575,37 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F26">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2599,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2610,37 +2625,37 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F27">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2649,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2660,31 +2675,31 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F28">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
@@ -2699,48 +2714,48 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F29">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2749,48 +2764,48 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2799,68 +2814,68 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F31">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B32" t="s">
         <v>167</v>
@@ -2869,10 +2884,10 @@
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="F32">
         <v>1000</v>
@@ -2899,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2910,19 +2925,19 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
         <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="F33">
         <v>1000</v>
@@ -2934,7 +2949,7 @@
         <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
@@ -2949,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2960,181 +2975,181 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F34">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="I34" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
       </c>
       <c r="K34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="K35">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F36">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
@@ -3149,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -3160,19 +3175,19 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="F38">
         <v>500</v>
@@ -3184,7 +3199,7 @@
         <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
@@ -3199,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -3210,22 +3225,22 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3234,7 +3249,7 @@
         <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -3249,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -3260,34 +3275,34 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J40" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="K40">
         <v>12</v>
@@ -3299,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -3310,37 +3325,37 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F41">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3349,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3360,37 +3375,37 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F42">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="I42" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
       </c>
       <c r="K42">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -3399,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3410,37 +3425,37 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F43">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3449,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3460,49 +3475,49 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -3510,87 +3525,87 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F45">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
       </c>
       <c r="K45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F46">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="I46" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3599,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -3610,19 +3625,19 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47">
         <v>500</v>
@@ -3631,7 +3646,7 @@
         <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I47" t="s">
         <v>75</v>
@@ -3649,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -3660,19 +3675,19 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B48" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F48">
         <v>500</v>
@@ -3681,7 +3696,7 @@
         <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I48" t="s">
         <v>75</v>
@@ -3690,7 +3705,7 @@
         <v>23</v>
       </c>
       <c r="K48">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3699,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -3710,31 +3725,31 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
@@ -3749,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -3760,31 +3775,31 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>62</v>
       </c>
       <c r="F50">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -3799,80 +3814,80 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" t="s">
         <v>266</v>
       </c>
-      <c r="C52" t="s">
-        <v>271</v>
-      </c>
       <c r="D52" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" t="s">
         <v>268</v>
-      </c>
-      <c r="E52" t="s">
-        <v>272</v>
       </c>
       <c r="F52">
         <v>20</v>
@@ -3884,7 +3899,7 @@
         <v>119</v>
       </c>
       <c r="I52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -3899,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -3910,46 +3925,46 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="F53">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="I53" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -3960,31 +3975,31 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" t="s">
         <v>245</v>
       </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="F54">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
@@ -3999,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -4010,37 +4025,37 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F55">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
       <c r="K55">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -4049,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -4060,37 +4075,37 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D56" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" t="s">
         <v>282</v>
       </c>
-      <c r="E56" t="s">
-        <v>51</v>
-      </c>
       <c r="F56">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -4099,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -4110,37 +4125,37 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="F57">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
       </c>
       <c r="K57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -4149,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -4160,31 +4175,31 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F58">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I58" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
@@ -4199,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -4210,31 +4225,31 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F59">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
       </c>
       <c r="H59" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59" t="s">
         <v>230</v>
-      </c>
-      <c r="I59" t="s">
-        <v>231</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
@@ -4249,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -4260,31 +4275,31 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F60">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
       </c>
       <c r="H60" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60" t="s">
         <v>230</v>
-      </c>
-      <c r="I60" t="s">
-        <v>231</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -4299,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -4310,38 +4325,38 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B61" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="D61" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="F61">
+        <v>250</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>229</v>
+      </c>
+      <c r="I61" t="s">
+        <v>230</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61">
         <v>6</v>
       </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" t="s">
-        <v>298</v>
-      </c>
-      <c r="I61" t="s">
-        <v>294</v>
-      </c>
-      <c r="J61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
@@ -4349,62 +4364,112 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
       </c>
       <c r="H62" t="s">
+        <v>297</v>
+      </c>
+      <c r="I62" t="s">
+        <v>293</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>298</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>299</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
         <v>21</v>
       </c>
-      <c r="I62" t="s">
-        <v>243</v>
-      </c>
-      <c r="J62" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62">
+      <c r="I63" t="s">
+        <v>242</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63">
         <v>10</v>
       </c>
-      <c r="L62" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>301</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-      <c r="P62" t="b">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>300</v>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90736FB-87F2-4058-BB7E-405541384D9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D2FE00-F4EF-4F35-A48A-78FA80260C7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="5" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="6" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E8AB20-DEFE-4F4A-A399-1331F2125BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BADCBF-238A-4E91-AEBB-A9EC3FCECAB5}">
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VentaSoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D2FE00-F4EF-4F35-A48A-78FA80260C7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1D9AD4-D215-499A-8A39-6E898DAAE3D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="6" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="7" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="309">
   <si>
     <t>Codigo</t>
   </si>
@@ -947,6 +947,12 @@
   </si>
   <si>
     <t>C:\VentaSoft\Imágenes de artículos\7790150006351.png</t>
+  </si>
+  <si>
+    <t>Papeles higiénicos</t>
+  </si>
+  <si>
+    <t>C:\VentaSoft\Imágenes de artículos\7791070003291.png</t>
   </si>
 </sst>
 </file>
@@ -1298,8 +1304,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BADCBF-238A-4E91-AEBB-A9EC3FCECAB5}">
-  <dimension ref="A1:P63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B8CD7-8512-4217-9A4A-7D76B56650D5}">
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1667,7 +1673,7 @@
         <v>305</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -1675,31 +1681,31 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1711,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1725,31 +1731,31 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1764,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1775,31 +1781,31 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1814,48 +1820,48 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1864,42 +1870,42 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F12">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1914,48 +1920,48 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1964,42 +1970,42 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -2014,48 +2020,48 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
         <v>90</v>
       </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2064,48 +2070,48 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F16">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2114,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -2125,31 +2131,31 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -2164,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -2175,37 +2181,37 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2214,48 +2220,48 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2264,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -2275,37 +2281,37 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2314,107 +2320,107 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2425,19 +2431,19 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F23">
         <v>500</v>
@@ -2449,13 +2455,13 @@
         <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2464,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2475,37 +2481,37 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2514,48 +2520,48 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2564,48 +2570,48 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F26">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2614,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2625,37 +2631,37 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F27">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2664,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2675,37 +2681,37 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F28">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2714,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2725,31 +2731,31 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
@@ -2764,48 +2770,48 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2814,48 +2820,48 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2864,68 +2870,68 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F32">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B33" t="s">
         <v>167</v>
@@ -2934,10 +2940,10 @@
         <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="F33">
         <v>1000</v>
@@ -2964,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
         <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="F34">
         <v>1000</v>
@@ -2999,7 +3005,7 @@
         <v>171</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
@@ -3014,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -3025,181 +3031,181 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F35">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
       </c>
       <c r="K35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I36" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J36" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="K36">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F37">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="K37">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F38">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
@@ -3214,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -3225,19 +3231,19 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="F39">
         <v>500</v>
@@ -3249,7 +3255,7 @@
         <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -3264,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -3275,22 +3281,22 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -3299,7 +3305,7 @@
         <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
@@ -3314,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -3325,34 +3331,34 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J41" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="K41">
         <v>12</v>
@@ -3364,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3375,37 +3381,37 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F42">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -3414,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3425,37 +3431,37 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="I43" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
       </c>
       <c r="K43">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3464,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3475,37 +3481,37 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F44">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3514,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -3525,49 +3531,49 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -3575,87 +3581,87 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F46">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
       </c>
       <c r="K46">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F47">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3664,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -3675,16 +3681,16 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B48" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
         <v>251</v>
@@ -3714,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -3725,16 +3731,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
         <v>251</v>
@@ -3755,7 +3761,7 @@
         <v>23</v>
       </c>
       <c r="K49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3764,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -3775,31 +3781,31 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -3814,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -3825,31 +3831,31 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="F51">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -3864,80 +3870,80 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="I52" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B53" t="s">
         <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D53" t="s">
         <v>267</v>
       </c>
       <c r="E53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F53">
         <v>20</v>
@@ -3964,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -3975,46 +3981,46 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="F54">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="I54" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -4025,31 +4031,31 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
         <v>244</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="F55">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -4064,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -4075,37 +4081,37 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C56" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D56" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F56">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
       </c>
       <c r="K56">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -4114,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -4125,37 +4131,37 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D57" t="s">
         <v>281</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -4164,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -4175,37 +4181,37 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E58" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="F58">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
       </c>
       <c r="K58">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -4214,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -4225,31 +4231,31 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F59">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
@@ -4264,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -4275,7 +4281,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B60" t="s">
         <v>224</v>
@@ -4284,13 +4290,13 @@
         <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
         <v>246</v>
       </c>
       <c r="F60">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -4314,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -4325,7 +4331,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B61" t="s">
         <v>224</v>
@@ -4340,7 +4346,7 @@
         <v>246</v>
       </c>
       <c r="F61">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -4364,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -4375,38 +4381,38 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B62" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="D62" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E62" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="F62">
+        <v>250</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62" t="s">
+        <v>230</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62">
         <v>6</v>
       </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" t="s">
-        <v>297</v>
-      </c>
-      <c r="I62" t="s">
-        <v>293</v>
-      </c>
-      <c r="J62" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
       <c r="L62" t="b">
         <v>0</v>
       </c>
@@ -4414,62 +4420,112 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="E63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
       </c>
       <c r="H63" t="s">
+        <v>297</v>
+      </c>
+      <c r="I63" t="s">
+        <v>293</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>298</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
         <v>21</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I64" t="s">
         <v>242</v>
       </c>
-      <c r="J63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63">
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64">
         <v>10</v>
       </c>
-      <c r="L63" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63" t="b">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>300</v>
       </c>
-      <c r="O63" t="b">
-        <v>1</v>
-      </c>
-      <c r="P63" t="b">
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1D9AD4-D215-499A-8A39-6E898DAAE3D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C61E89-C463-4650-84F5-09D154C3A907}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="7" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="9" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -952,7 +952,7 @@
     <t>Papeles higiénicos</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791070003291.png</t>
+    <t>C:\EditaSoft\Imágenes de artículos\7791070003291.png</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B8CD7-8512-4217-9A4A-7D76B56650D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B13AED2-09EB-43CF-99E0-C00DD09FFE37}">
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>305</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>308</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C61E89-C463-4650-84F5-09D154C3A907}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1805E8-6AAB-4751-B35B-32AB9E71C1F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="9" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="10" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -1304,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B13AED2-09EB-43CF-99E0-C00DD09FFE37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8EBC1D-B568-4D7E-95CC-BEBAE989E762}">
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1805E8-6AAB-4751-B35B-32AB9E71C1F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5D1F6-9CF3-49D4-B6D1-413B0C1B99A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="10" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="12" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="312">
   <si>
     <t>Codigo</t>
   </si>
@@ -953,6 +953,15 @@
   </si>
   <si>
     <t>C:\EditaSoft\Imágenes de artículos\7791070003291.png</t>
+  </si>
+  <si>
+    <t>rubios</t>
+  </si>
+  <si>
+    <t>pink wave mintz</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7798100200538.png</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1313,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8EBC1D-B568-4D7E-95CC-BEBAE989E762}">
-  <dimension ref="A1:P64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDE2AD1-606F-4D4B-AE29-3C1E13FA241E}">
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,46 +1390,46 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>7791708001378</v>
+        <v>7798100200538</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -1431,31 +1440,31 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7790742336200</v>
+        <v>7791708001378</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -1470,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -1481,37 +1490,37 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7791813888406</v>
+        <v>7790742336200</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1520,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -1531,37 +1540,37 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7795522004089</v>
+        <v>7791813888406</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1570,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -1581,37 +1590,37 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7792540250450</v>
+        <v>7795522004089</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1620,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1631,37 +1640,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7798094222820</v>
+        <v>7792540250450</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1670,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1681,46 +1690,46 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7791070003291</v>
+        <v>7798094222820</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1731,31 +1740,31 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1767,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1781,31 +1790,31 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1820,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1831,31 +1840,31 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F11">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1870,48 +1879,48 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1920,42 +1929,42 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F13">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1970,48 +1979,48 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2020,42 +2029,42 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -2070,48 +2079,48 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16">
         <v>90</v>
       </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2120,48 +2129,48 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2170,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -2181,31 +2190,31 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -2220,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2231,37 +2240,37 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2270,48 +2279,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2320,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -2331,37 +2340,37 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2370,107 +2379,107 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F23">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2481,19 +2490,19 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F24">
         <v>500</v>
@@ -2505,13 +2514,13 @@
         <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2520,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2531,37 +2540,37 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2570,48 +2579,48 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F26">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2620,48 +2629,48 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2670,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2681,37 +2690,37 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F28">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2720,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2731,37 +2740,37 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F29">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2770,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2781,31 +2790,31 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
@@ -2820,48 +2829,48 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2870,48 +2879,48 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2920,68 +2929,68 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F33">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B34" t="s">
         <v>167</v>
@@ -2990,10 +2999,10 @@
         <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="F34">
         <v>1000</v>
@@ -3017,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -3031,19 +3040,19 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
         <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <v>1000</v>
@@ -3055,7 +3064,7 @@
         <v>171</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -3070,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3081,181 +3090,181 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F36">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="I36" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J37" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="K37">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F38">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="I38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F39">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -3270,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -3281,19 +3290,19 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="F40">
         <v>500</v>
@@ -3305,7 +3314,7 @@
         <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
@@ -3320,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -3331,22 +3340,22 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -3355,7 +3364,7 @@
         <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -3370,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3381,34 +3390,34 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J42" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="K42">
         <v>12</v>
@@ -3420,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3431,37 +3440,37 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F43">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3470,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3481,37 +3490,37 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="I44" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
       </c>
       <c r="K44">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3520,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -3531,37 +3540,37 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F45">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3570,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3581,49 +3590,49 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E46" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -3631,87 +3640,87 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F47">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
       </c>
       <c r="K47">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F48">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3720,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -3731,16 +3740,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
         <v>251</v>
@@ -3770,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -3781,16 +3790,16 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
         <v>251</v>
@@ -3811,7 +3820,7 @@
         <v>23</v>
       </c>
       <c r="K50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3820,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -3831,31 +3840,31 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -3870,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -3881,31 +3890,31 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="F52">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -3920,80 +3929,80 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="I53" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B54" t="s">
         <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D54" t="s">
         <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -4020,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -4031,46 +4040,46 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="F55">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="I55" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -4081,31 +4090,31 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
         <v>244</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="F56">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -4120,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -4131,37 +4140,37 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F57">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
       </c>
       <c r="K57">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -4170,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -4181,37 +4190,37 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D58" t="s">
         <v>281</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -4220,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -4231,37 +4240,37 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="F59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -4270,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -4281,31 +4290,31 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F60">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="I60" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -4320,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -4331,7 +4340,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B61" t="s">
         <v>224</v>
@@ -4340,13 +4349,13 @@
         <v>244</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E61" t="s">
         <v>246</v>
       </c>
       <c r="F61">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -4370,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -4381,7 +4390,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B62" t="s">
         <v>224</v>
@@ -4396,7 +4405,7 @@
         <v>246</v>
       </c>
       <c r="F62">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G62" t="s">
         <v>37</v>
@@ -4420,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
@@ -4431,38 +4440,38 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B63" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="D63" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="F63">
+        <v>250</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63">
         <v>6</v>
       </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" t="s">
-        <v>297</v>
-      </c>
-      <c r="I63" t="s">
-        <v>293</v>
-      </c>
-      <c r="J63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
@@ -4470,62 +4479,112 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="E64" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
       </c>
       <c r="H64" t="s">
+        <v>297</v>
+      </c>
+      <c r="I64" t="s">
+        <v>293</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>298</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
         <v>21</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I65" t="s">
         <v>242</v>
       </c>
-      <c r="J64" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64">
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65">
         <v>10</v>
       </c>
-      <c r="L64" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>300</v>
       </c>
-      <c r="O64" t="b">
-        <v>1</v>
-      </c>
-      <c r="P64" t="b">
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5D1F6-9CF3-49D4-B6D1-413B0C1B99A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C28842-F2B6-4BB4-BBDE-C73BF8B09BFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="12" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="14" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="314">
   <si>
     <t>Codigo</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791708001378.png</t>
-  </si>
-  <si>
     <t>Leche</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Leches</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790742336200.png</t>
-  </si>
-  <si>
     <t>Gaseosa</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Gaseosas</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791813888406.png</t>
-  </si>
-  <si>
     <t>Maní</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>Navideños</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7795522004089.png</t>
-  </si>
-  <si>
     <t>Azúcar</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>kg.</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7792540250450.png</t>
-  </si>
-  <si>
     <t>Preservativos</t>
   </si>
   <si>
@@ -205,9 +190,6 @@
     <t>caja</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791519200069.png</t>
-  </si>
-  <si>
     <t>ultrapasteurizada</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>Tetra brik</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7793913001822.png</t>
-  </si>
-  <si>
     <t>lacteado</t>
   </si>
   <si>
@@ -232,15 +211,9 @@
     <t>Bolsa</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791708611454.png</t>
-  </si>
-  <si>
     <t>Manfrey</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791058000731.png</t>
-  </si>
-  <si>
     <t>Tapas</t>
   </si>
   <si>
@@ -256,9 +229,6 @@
     <t>Pastas frescas</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798118140079.png</t>
-  </si>
-  <si>
     <t>Té</t>
   </si>
   <si>
@@ -274,9 +244,6 @@
     <t>Tés</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790150211953.png</t>
-  </si>
-  <si>
     <t>Crema dental</t>
   </si>
   <si>
@@ -292,9 +259,6 @@
     <t>Cremas dentales</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7509546695518.png</t>
-  </si>
-  <si>
     <t>común</t>
   </si>
   <si>
@@ -304,9 +268,6 @@
     <t>Bella Vista</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790220000746.png</t>
-  </si>
-  <si>
     <t>Cacao</t>
   </si>
   <si>
@@ -319,9 +280,6 @@
     <t>Cacaos</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\8445291121867.png</t>
-  </si>
-  <si>
     <t>Salchichas</t>
   </si>
   <si>
@@ -334,9 +292,6 @@
     <t>Paladini</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790079010828.png</t>
-  </si>
-  <si>
     <t>Detergente</t>
   </si>
   <si>
@@ -352,9 +307,6 @@
     <t>Detergentes</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791290794115.png</t>
-  </si>
-  <si>
     <t>para empanadas</t>
   </si>
   <si>
@@ -364,15 +316,9 @@
     <t>Di Pascualle</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798118140024.png</t>
-  </si>
-  <si>
     <t>sachet</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791058000595.png</t>
-  </si>
-  <si>
     <t>Tubos</t>
   </si>
   <si>
@@ -391,9 +337,6 @@
     <t>Tabaco</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798205440198.png</t>
-  </si>
-  <si>
     <t>Agua</t>
   </si>
   <si>
@@ -412,24 +355,15 @@
     <t>Aguas saborizadas</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7799155000579.png</t>
-  </si>
-  <si>
     <t>dietética</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791813420057.png</t>
-  </si>
-  <si>
     <t>Arcor</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790580127534.png</t>
-  </si>
-  <si>
     <t>Alcohol</t>
   </si>
   <si>
@@ -445,9 +379,6 @@
     <t>Alcoholes</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791274196522.png</t>
-  </si>
-  <si>
     <t>Sal</t>
   </si>
   <si>
@@ -460,9 +391,6 @@
     <t>Rinsal</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791004000013.png</t>
-  </si>
-  <si>
     <t>Aderezo a base de</t>
   </si>
   <si>
@@ -478,9 +406,6 @@
     <t>Aderezos</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7794000006478.png</t>
-  </si>
-  <si>
     <t>Margarina</t>
   </si>
   <si>
@@ -499,18 +424,12 @@
     <t>Margarinas</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791620187778.png</t>
-  </si>
-  <si>
     <t>"chocolatada"</t>
   </si>
   <si>
     <t>Exquisita</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790070433015.png</t>
-  </si>
-  <si>
     <t>Aderezo</t>
   </si>
   <si>
@@ -520,15 +439,9 @@
     <t>Sobre</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7794000006515.png</t>
-  </si>
-  <si>
     <t>Dul-c</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790220001705.png</t>
-  </si>
-  <si>
     <t>Salame</t>
   </si>
   <si>
@@ -547,15 +460,9 @@
     <t>Fiambres</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\1111.png</t>
-  </si>
-  <si>
     <t>crespón</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\2222.png</t>
-  </si>
-  <si>
     <t>Queso</t>
   </si>
   <si>
@@ -568,9 +475,6 @@
     <t>Quesos</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\3333.png</t>
-  </si>
-  <si>
     <t>Licor</t>
   </si>
   <si>
@@ -589,9 +493,6 @@
     <t>Licores</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\77990112.png</t>
-  </si>
-  <si>
     <t>Encendedor</t>
   </si>
   <si>
@@ -613,9 +514,6 @@
     <t>Francia</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\3086123206873.png</t>
-  </si>
-  <si>
     <t>Puré de tomates</t>
   </si>
   <si>
@@ -628,9 +526,6 @@
     <t>Baggio</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790036973036.png</t>
-  </si>
-  <si>
     <t>Fideos</t>
   </si>
   <si>
@@ -646,9 +541,6 @@
     <t>Fideos secos</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790070336385.png</t>
-  </si>
-  <si>
     <t>Café</t>
   </si>
   <si>
@@ -676,9 +568,6 @@
     <t>Especias</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790150430392.png</t>
-  </si>
-  <si>
     <t>Espirales insecticidas</t>
   </si>
   <si>
@@ -697,9 +586,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790520010445.png</t>
-  </si>
-  <si>
     <t>Desodorante</t>
   </si>
   <si>
@@ -721,15 +607,9 @@
     <t>Desodorantes</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790520016461.png</t>
-  </si>
-  <si>
     <t>Tabletas insecticidas</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790520995360.png</t>
-  </si>
-  <si>
     <t>indian tonic</t>
   </si>
   <si>
@@ -739,9 +619,6 @@
     <t>Cunnington</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790639003574.png</t>
-  </si>
-  <si>
     <t>Papel higiénico</t>
   </si>
   <si>
@@ -757,9 +634,6 @@
     <t>Papeles Higiénicos</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791070000382.png</t>
-  </si>
-  <si>
     <t>para hombre</t>
   </si>
   <si>
@@ -769,9 +643,6 @@
     <t>Colbert</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791600087128.png</t>
-  </si>
-  <si>
     <t>Ravioles</t>
   </si>
   <si>
@@ -787,9 +658,6 @@
     <t>Blister</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791664000156.png</t>
-  </si>
-  <si>
     <t>Ñoquis</t>
   </si>
   <si>
@@ -799,30 +667,18 @@
     <t>de papa</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791664000453.png</t>
-  </si>
-  <si>
     <t>jamón y muzzarella</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791684000934.png</t>
-  </si>
-  <si>
     <t>rallado</t>
   </si>
   <si>
     <t>sin gluten/TACC</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7793913000139.png</t>
-  </si>
-  <si>
     <t>Quelech</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7795018002902.png</t>
-  </si>
-  <si>
     <t>Cigarrillos</t>
   </si>
   <si>
@@ -835,36 +691,24 @@
     <t>Milenio</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798100200491.png</t>
-  </si>
-  <si>
     <t>rubios convertibles</t>
   </si>
   <si>
     <t>Mill</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798100200583.png</t>
-  </si>
-  <si>
     <t>Eau de toilette</t>
   </si>
   <si>
     <t>Perfumes/Colonias</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791600087012.png</t>
-  </si>
-  <si>
     <t>Talco</t>
   </si>
   <si>
     <t>Veritas</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791520009743.png</t>
-  </si>
-  <si>
     <t>Mayonesa</t>
   </si>
   <si>
@@ -877,36 +721,18 @@
     <t>Hellmann's</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7794000006065.png</t>
-  </si>
-  <si>
     <t>común tipo "a"</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7792540260138.png</t>
-  </si>
-  <si>
     <t>suave</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790639003895.png</t>
-  </si>
-  <si>
     <t>noir</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791600174767.png</t>
-  </si>
-  <si>
     <t>verde</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791600192372.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791600192488.png</t>
-  </si>
-  <si>
     <t>Huevos</t>
   </si>
   <si>
@@ -922,15 +748,9 @@
     <t>maple</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\2001300000798.png</t>
-  </si>
-  <si>
     <t>Campanita</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7791070000078.png</t>
-  </si>
-  <si>
     <t>Budín</t>
   </si>
   <si>
@@ -943,12 +763,6 @@
     <t>Budines</t>
   </si>
   <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7798094222820.png</t>
-  </si>
-  <si>
-    <t>C:\VentaSoft\Imágenes de artículos\7790150006351.png</t>
-  </si>
-  <si>
     <t>Papeles higiénicos</t>
   </si>
   <si>
@@ -962,6 +776,198 @@
   </si>
   <si>
     <t>C:\EditaSoft\Imágenes de artículos\7798100200538.png</t>
+  </si>
+  <si>
+    <t>Velez</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791708001378.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790742336200.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791813888406.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7795522004089.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7792540250450.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7798094222820.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791519200069.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7793913001822.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791708611454.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791058000731.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7798118140079.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790150211953.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7509546695518.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790220000746.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\8445291121867.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790079010828.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791290794115.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7798118140024.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791058000595.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7798205440198.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7799155000579.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791813420057.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790580127534.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791274196522.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791004000013.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7794000006478.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791620187778.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790070433015.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7794000006515.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790220001705.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\1111.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\2222.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\3333.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\77990112.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\3086123206873.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790036973036.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790070336385.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790150006351.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790150430392.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790520010445.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790520016461.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790520995360.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790639003574.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791070000382.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791600087128.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791664000156.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791664000453.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791684000934.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7793913000139.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7795018002902.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7798100200491.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7798100200583.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791600087012.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791520009743.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7794000006065.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7792540260138.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790639003895.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791600174767.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791600192372.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791600192488.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\2001300000798.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791070000078.png</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7791122002906.png</t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1319,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDE2AD1-606F-4D4B-AE29-3C1E13FA241E}">
-  <dimension ref="A1:P65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79475CFE-63A6-49F1-AC7E-AC860A935B00}">
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1339,7 @@
     <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1393,16 +1399,16 @@
         <v>7798100200538</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -1411,10 +1417,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -1429,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -1440,37 +1446,37 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7791708001378</v>
+        <v>7791122002906</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1479,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -1490,31 +1496,31 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7790742336200</v>
+        <v>7791708001378</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -1529,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -1540,37 +1546,37 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7791813888406</v>
+        <v>7790742336200</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1579,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -1590,37 +1596,37 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7795522004089</v>
+        <v>7791813888406</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1629,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1640,37 +1646,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7792540250450</v>
+        <v>7795522004089</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1679,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1690,37 +1696,37 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7798094222820</v>
+        <v>7792540250450</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>47</v>
       </c>
       <c r="F8">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1729,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1740,46 +1746,46 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7791070003291</v>
+        <v>7798094222820</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1790,31 +1796,31 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1826,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1840,31 +1846,31 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1879,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1890,31 +1896,31 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F12">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1929,48 +1935,48 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>400</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1979,42 +1985,42 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F14">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -2029,48 +2035,48 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2079,42 +2085,42 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -2129,48 +2135,48 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2179,48 +2185,48 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F18">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2229,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2240,31 +2246,31 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2279,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -2290,37 +2296,37 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2329,48 +2335,48 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2379,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2390,37 +2396,37 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>113</v>
-      </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2429,107 +2435,107 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2540,37 +2546,37 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2579,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2590,37 +2596,37 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2629,48 +2635,48 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F27">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2679,48 +2685,48 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2729,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2740,37 +2746,37 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F29">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2779,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2790,37 +2796,37 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F30">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2829,42 +2835,42 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="F31">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
@@ -2879,48 +2885,48 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2929,48 +2935,48 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2979,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2990,81 +2996,81 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="F34">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F35">
         <v>1000</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I35" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -3076,10 +3082,10 @@
         <v>1</v>
       </c>
       <c r="M35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3090,31 +3096,31 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="F36">
         <v>1000</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
@@ -3129,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3140,181 +3146,181 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F37">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
       </c>
       <c r="K37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="b">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="J38" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="K38">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="F39">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I39" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
@@ -3329,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -3340,31 +3346,31 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="F41">
         <v>500</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
         <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -3379,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3390,31 +3396,31 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -3429,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3440,34 +3446,34 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="K43">
         <v>12</v>
@@ -3479,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3490,37 +3496,37 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="F44">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3529,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -3540,37 +3546,37 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="I45" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
       </c>
       <c r="K45">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3579,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3590,37 +3596,37 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="F46">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3629,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -3640,49 +3646,49 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="O47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -3690,87 +3696,87 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="F48">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
       <c r="K48">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F49">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3779,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -3790,31 +3796,31 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="F50">
         <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -3829,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -3840,37 +3846,37 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
       </c>
       <c r="K51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3879,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -3890,31 +3896,31 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -3929,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -3940,31 +3946,31 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="F53">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I53" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
@@ -3979,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -3990,69 +3996,69 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="F54">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="I54" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -4061,10 +4067,10 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="I55" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -4079,57 +4085,57 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B56" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="F56">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I56" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
       <c r="M56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -4140,31 +4146,31 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="F57">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I57" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
@@ -4179,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -4190,37 +4196,37 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="F58">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
       </c>
       <c r="K58">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -4229,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -4240,37 +4246,37 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -4279,48 +4285,48 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="F60">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -4329,42 +4335,42 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="F61">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s">
         <v>37</v>
-      </c>
-      <c r="H61" t="s">
-        <v>229</v>
-      </c>
-      <c r="I61" t="s">
-        <v>230</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
@@ -4379,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -4390,31 +4396,31 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F62">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="I62" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
@@ -4429,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
@@ -4440,31 +4446,31 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F63">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="I63" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
@@ -4479,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
@@ -4490,38 +4496,38 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="F64">
+        <v>250</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s">
+        <v>191</v>
+      </c>
+      <c r="I64" t="s">
+        <v>192</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64">
         <v>6</v>
       </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" t="s">
-        <v>297</v>
-      </c>
-      <c r="I64" t="s">
-        <v>293</v>
-      </c>
-      <c r="J64" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
       <c r="L64" t="b">
         <v>0</v>
       </c>
@@ -4529,62 +4535,112 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="O64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B65" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" t="s">
         <v>238</v>
       </c>
-      <c r="C65" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" t="s">
-        <v>299</v>
-      </c>
       <c r="F65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
       </c>
       <c r="H65" t="s">
+        <v>239</v>
+      </c>
+      <c r="I65" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>311</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
         <v>21</v>
       </c>
-      <c r="I65" t="s">
-        <v>242</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65">
+      <c r="I66" t="s">
+        <v>201</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66">
         <v>10</v>
       </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
-        <v>300</v>
-      </c>
-      <c r="O65" t="b">
-        <v>1</v>
-      </c>
-      <c r="P65" t="b">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C28842-F2B6-4BB4-BBDE-C73BF8B09BFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D7659-BFE3-4B81-9CED-D209B9773FAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="14" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="16" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="321">
   <si>
     <t>Codigo</t>
   </si>
@@ -968,6 +968,27 @@
   </si>
   <si>
     <t>C:\EditaSoft\Imágenes de artículos\7791122002906.png</t>
+  </si>
+  <si>
+    <t>Cerveza</t>
+  </si>
+  <si>
+    <t>sin alcohol</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>lata</t>
+  </si>
+  <si>
+    <t>Cervezas</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7793147572822.png</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1340,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79475CFE-63A6-49F1-AC7E-AC860A935B00}">
-  <dimension ref="A1:P66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84281BA-61A1-483A-AA59-609E73C93FA0}">
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1496,37 +1517,37 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7791708001378</v>
+        <v>7793147572822</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>355</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1535,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -1546,31 +1567,31 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7790742336200</v>
+        <v>7791708001378</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -1585,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -1596,37 +1617,37 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7791813888406</v>
+        <v>7790742336200</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1635,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1646,37 +1667,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7795522004089</v>
+        <v>7791813888406</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1685,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1696,37 +1717,37 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7792540250450</v>
+        <v>7795522004089</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1735,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1746,37 +1767,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7798094222820</v>
+        <v>7792540250450</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1785,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1796,46 +1817,46 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791070003291</v>
+        <v>7798094222820</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1846,31 +1867,31 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1882,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1896,31 +1917,31 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1935,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1946,31 +1967,31 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F13">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1985,48 +2006,48 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2035,42 +2056,42 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F15">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -2085,48 +2106,48 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2135,42 +2156,42 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -2185,48 +2206,48 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2235,48 +2256,48 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2285,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -2296,31 +2317,31 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -2335,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -2346,37 +2367,37 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2385,48 +2406,48 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2435,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2446,38 +2467,38 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23">
         <v>30</v>
       </c>
-      <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23">
-        <v>12</v>
-      </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
@@ -2485,107 +2506,107 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2596,19 +2617,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>500</v>
@@ -2620,13 +2641,13 @@
         <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2635,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2646,37 +2667,37 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2685,48 +2706,48 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F28">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2735,48 +2756,48 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F29">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2785,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2796,37 +2817,37 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F30">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2835,48 +2856,48 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F31">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2885,42 +2906,42 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
@@ -2935,48 +2956,48 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F33">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
       <c r="K33">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2985,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2996,37 +3017,37 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -3035,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -3046,57 +3067,57 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F35">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
@@ -3105,10 +3126,10 @@
         <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F36">
         <v>1000</v>
@@ -3132,10 +3153,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3146,19 +3167,19 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
         <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="F37">
         <v>1000</v>
@@ -3170,7 +3191,7 @@
         <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
@@ -3185,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -3196,181 +3217,181 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F38">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I38" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="K39">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F40">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="K40">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F41">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
         <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -3385,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3396,19 +3417,19 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="F42">
         <v>500</v>
@@ -3420,7 +3441,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -3435,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3446,22 +3467,22 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="F43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -3470,7 +3491,7 @@
         <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -3485,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3496,34 +3517,34 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J44" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="K44">
         <v>12</v>
@@ -3535,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -3546,37 +3567,37 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F45">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3585,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3596,37 +3617,37 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
       </c>
       <c r="K46">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3635,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -3646,37 +3667,37 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F47">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3685,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -3696,49 +3717,49 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -3746,87 +3767,87 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F49">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
       </c>
       <c r="K49">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F50">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="I50" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3835,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -3846,16 +3867,16 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s">
         <v>208</v>
@@ -3885,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -3896,16 +3917,16 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
         <v>208</v>
@@ -3926,7 +3947,7 @@
         <v>23</v>
       </c>
       <c r="K52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3935,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -3946,31 +3967,31 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
@@ -3985,42 +4006,42 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="F54">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
@@ -4035,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -4046,46 +4067,46 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="I55" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -4096,19 +4117,19 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B56" t="s">
         <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D56" t="s">
         <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -4135,57 +4156,57 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F57">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I57" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
       </c>
       <c r="K57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -4196,31 +4217,31 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
         <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F58">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
@@ -4235,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -4246,37 +4267,37 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F59">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G59" t="s">
         <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I59" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
       </c>
       <c r="K59">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -4285,48 +4306,48 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
         <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -4335,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -4346,37 +4367,37 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="F61">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
       </c>
       <c r="K61">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -4385,42 +4406,42 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F62">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
@@ -4435,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
@@ -4446,7 +4467,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B63" t="s">
         <v>186</v>
@@ -4455,13 +4476,13 @@
         <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63" t="s">
         <v>204</v>
       </c>
       <c r="F63">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G63" t="s">
         <v>35</v>
@@ -4485,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
@@ -4496,7 +4517,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B64" t="s">
         <v>186</v>
@@ -4511,7 +4532,7 @@
         <v>204</v>
       </c>
       <c r="F64">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G64" t="s">
         <v>35</v>
@@ -4535,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O64" t="b">
         <v>1</v>
@@ -4546,38 +4567,38 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F65">
+        <v>250</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65">
         <v>6</v>
       </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" t="s">
-        <v>239</v>
-      </c>
-      <c r="I65" t="s">
-        <v>235</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
       <c r="L65" t="b">
         <v>0</v>
       </c>
@@ -4585,62 +4606,112 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
       </c>
       <c r="H66" t="s">
+        <v>239</v>
+      </c>
+      <c r="I66" t="s">
+        <v>235</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>311</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
         <v>21</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>201</v>
       </c>
-      <c r="J66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66">
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67">
         <v>10</v>
       </c>
-      <c r="L66" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" t="b">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>312</v>
       </c>
-      <c r="O66" t="b">
-        <v>1</v>
-      </c>
-      <c r="P66" t="b">
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D7659-BFE3-4B81-9CED-D209B9773FAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66F4C1A-A187-4D7B-A988-E1C415129485}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="16" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="17" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="325">
   <si>
     <t>Codigo</t>
   </si>
@@ -989,6 +989,18 @@
   </si>
   <si>
     <t>C:\EditaSoft\Imágenes de artículos\7793147572822.png</t>
+  </si>
+  <si>
+    <t>crush</t>
+  </si>
+  <si>
+    <t>Lucky Strike</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\78422018.png</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1352,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84281BA-61A1-483A-AA59-609E73C93FA0}">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CF9A0C-EA49-486B-BA5B-B10B9477F5DF}">
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,37 +1579,37 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7791708001378</v>
+        <v>78422018</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1606,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -1617,31 +1629,31 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7790742336200</v>
+        <v>7791708001378</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -1656,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1667,37 +1679,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7791813888406</v>
+        <v>7790742336200</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1706,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1717,37 +1729,37 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7795522004089</v>
+        <v>7791813888406</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1756,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1767,37 +1779,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7792540250450</v>
+        <v>7795522004089</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1806,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1817,37 +1829,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7798094222820</v>
+        <v>7792540250450</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1856,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1867,46 +1879,46 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7791070003291</v>
+        <v>7798094222820</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1917,31 +1929,31 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1953,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1967,31 +1979,31 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -2006,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -2017,31 +2029,31 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F14">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -2056,48 +2068,48 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2106,42 +2118,42 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -2156,48 +2168,48 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2206,42 +2218,42 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -2256,48 +2268,48 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2306,48 +2318,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F20">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2356,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -2367,31 +2379,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -2406,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2417,37 +2429,37 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F22">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2456,48 +2468,48 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2506,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2517,38 +2529,38 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24">
         <v>30</v>
       </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24">
-        <v>12</v>
-      </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
@@ -2556,107 +2568,107 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2667,19 +2679,19 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F27">
         <v>500</v>
@@ -2691,13 +2703,13 @@
         <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2706,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2717,37 +2729,37 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2756,48 +2768,48 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F29">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2806,48 +2818,48 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F30">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2856,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2867,37 +2879,37 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2906,48 +2918,48 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F32">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2956,42 +2968,42 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
@@ -3006,48 +3018,48 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F34">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
       </c>
       <c r="K34">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -3056,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -3067,37 +3079,37 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3106,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3117,57 +3129,57 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F36">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B37" t="s">
         <v>138</v>
@@ -3176,10 +3188,10 @@
         <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F37">
         <v>1000</v>
@@ -3203,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -3217,19 +3229,19 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
         <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="F38">
         <v>1000</v>
@@ -3241,7 +3253,7 @@
         <v>142</v>
       </c>
       <c r="I38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
@@ -3256,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -3267,181 +3279,181 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J40" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="K40">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F41">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -3456,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3467,19 +3479,19 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="F43">
         <v>500</v>
@@ -3491,7 +3503,7 @@
         <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -3506,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3517,22 +3529,22 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
@@ -3541,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -3556,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -3567,34 +3579,34 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J45" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -3606,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3617,37 +3629,37 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F46">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3656,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -3667,37 +3679,37 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F47">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
       </c>
       <c r="K47">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3706,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -3717,37 +3729,37 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F48">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3756,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -3767,49 +3779,49 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
@@ -3817,87 +3829,87 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
       </c>
       <c r="K50">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F51">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="I51" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3906,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -3917,16 +3929,16 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
         <v>208</v>
@@ -3956,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -3967,16 +3979,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
         <v>208</v>
@@ -3997,7 +4009,7 @@
         <v>23</v>
       </c>
       <c r="K53">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -4006,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -4017,31 +4029,31 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="I54" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
@@ -4056,42 +4068,42 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="F55">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -4106,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -4117,46 +4129,46 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="I56" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
       <c r="M56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -4167,19 +4179,19 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B57" t="s">
         <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
         <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F57">
         <v>20</v>
@@ -4206,57 +4218,57 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F58">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I58" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
       </c>
       <c r="K58">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
       </c>
       <c r="M58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -4267,31 +4279,31 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
         <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F59">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I59" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
@@ -4306,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -4317,37 +4329,37 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F60">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I60" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
       </c>
       <c r="K60">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -4356,48 +4368,48 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s">
         <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -4406,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -4417,37 +4429,37 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="F62">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
       </c>
       <c r="K62">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -4456,42 +4468,42 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F63">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H63" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
@@ -4506,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
@@ -4517,7 +4529,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B64" t="s">
         <v>186</v>
@@ -4526,13 +4538,13 @@
         <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
         <v>204</v>
       </c>
       <c r="F64">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G64" t="s">
         <v>35</v>
@@ -4556,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O64" t="b">
         <v>1</v>
@@ -4567,7 +4579,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
@@ -4582,7 +4594,7 @@
         <v>204</v>
       </c>
       <c r="F65">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -4606,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O65" t="b">
         <v>1</v>
@@ -4617,38 +4629,38 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F66">
+        <v>250</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s">
+        <v>191</v>
+      </c>
+      <c r="I66" t="s">
+        <v>192</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66">
         <v>6</v>
       </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" t="s">
-        <v>239</v>
-      </c>
-      <c r="I66" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
       <c r="L66" t="b">
         <v>0</v>
       </c>
@@ -4656,62 +4668,112 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
       </c>
       <c r="H67" t="s">
+        <v>239</v>
+      </c>
+      <c r="I67" t="s">
+        <v>235</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>311</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
         <v>21</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I68" t="s">
         <v>201</v>
       </c>
-      <c r="J67" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67">
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68">
         <v>10</v>
       </c>
-      <c r="L67" t="b">
-        <v>0</v>
-      </c>
-      <c r="M67" t="b">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>312</v>
       </c>
-      <c r="O67" t="b">
-        <v>1</v>
-      </c>
-      <c r="P67" t="b">
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+      <c r="P68" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66F4C1A-A187-4D7B-A988-E1C415129485}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC11DD-46DD-4EEF-84D0-E61F0EC80C74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="17" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="18" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="326">
   <si>
     <t>Codigo</t>
   </si>
@@ -1001,6 +1001,9 @@
   </si>
   <si>
     <t>C:\EditaSoft\Imágenes de artículos\78422018.png</t>
+  </si>
+  <si>
+    <t>click &amp; roll</t>
   </si>
 </sst>
 </file>
@@ -1352,8 +1355,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CF9A0C-EA49-486B-BA5B-B10B9477F5DF}">
-  <dimension ref="A1:P68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB48E0C-14F5-4C70-8A0D-1DE0BE805859}">
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,46 +1632,43 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7791708001378</v>
+        <v>78421974</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>251</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1679,31 +1679,31 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7790742336200</v>
+        <v>7791708001378</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1729,37 +1729,37 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7791813888406</v>
+        <v>7790742336200</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1779,37 +1779,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7795522004089</v>
+        <v>7791813888406</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1829,37 +1829,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7792540250450</v>
+        <v>7795522004089</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1879,37 +1879,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7798094222820</v>
+        <v>7792540250450</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="F11">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1929,46 +1929,46 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7791070003291</v>
+        <v>7798094222820</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1979,31 +1979,31 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -2029,31 +2029,31 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F15">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -2118,48 +2118,48 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2168,42 +2168,42 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -2218,48 +2218,48 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2268,42 +2268,42 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F19">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2318,48 +2318,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2368,48 +2368,48 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2429,31 +2429,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2479,37 +2479,37 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F23">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2518,48 +2518,48 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2579,38 +2579,38 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25">
         <v>30</v>
       </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25">
-        <v>12</v>
-      </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
@@ -2618,107 +2618,107 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2729,19 +2729,19 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F28">
         <v>500</v>
@@ -2753,13 +2753,13 @@
         <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2779,37 +2779,37 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2818,48 +2818,48 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F30">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2868,48 +2868,48 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F31">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2929,37 +2929,37 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F32">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2968,48 +2968,48 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F33">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -3018,42 +3018,42 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F34">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
@@ -3068,48 +3068,48 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F35">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
       </c>
       <c r="K35">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3129,37 +3129,37 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3179,57 +3179,57 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F37">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B38" t="s">
         <v>138</v>
@@ -3238,10 +3238,10 @@
         <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F38">
         <v>1000</v>
@@ -3265,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -3279,19 +3279,19 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
         <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="F39">
         <v>1000</v>
@@ -3303,7 +3303,7 @@
         <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -3329,181 +3329,181 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F40">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
       <c r="K40">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I41" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="K41">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F42">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3529,19 +3529,19 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="F44">
         <v>500</v>
@@ -3553,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G45" t="s">
         <v>42</v>
@@ -3603,7 +3603,7 @@
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3629,34 +3629,34 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J46" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -3679,37 +3679,37 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F47">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -3729,37 +3729,37 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F48">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H48" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="I48" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
       <c r="K48">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -3779,37 +3779,37 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F49">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -3829,49 +3829,49 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -3879,87 +3879,87 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F51">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
       </c>
       <c r="K51">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F52">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="I52" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
       </c>
       <c r="K52">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -3979,16 +3979,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E53" t="s">
         <v>208</v>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -4029,16 +4029,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
         <v>208</v>
@@ -4059,7 +4059,7 @@
         <v>23</v>
       </c>
       <c r="K54">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -4079,31 +4079,31 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="I55" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -4118,42 +4118,42 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="F56">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I56" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -4179,46 +4179,46 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F57">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -4229,19 +4229,19 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B58" t="s">
         <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D58" t="s">
         <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F58">
         <v>20</v>
@@ -4268,57 +4268,57 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F59">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -4329,31 +4329,31 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
         <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F60">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I60" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -4379,37 +4379,37 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F61">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I61" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
       </c>
       <c r="K61">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -4418,48 +4418,48 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D62" t="s">
         <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
       </c>
       <c r="K62">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
@@ -4479,37 +4479,37 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="F63">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -4518,42 +4518,42 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F64">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H64" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s">
         <v>23</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O64" t="b">
         <v>1</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
@@ -4588,13 +4588,13 @@
         <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
         <v>204</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O65" t="b">
         <v>1</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B66" t="s">
         <v>186</v>
@@ -4644,7 +4644,7 @@
         <v>204</v>
       </c>
       <c r="F66">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G66" t="s">
         <v>35</v>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O66" t="b">
         <v>1</v>
@@ -4679,38 +4679,38 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F67">
+        <v>250</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" t="s">
+        <v>192</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67">
         <v>6</v>
       </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" t="s">
-        <v>239</v>
-      </c>
-      <c r="I67" t="s">
-        <v>235</v>
-      </c>
-      <c r="J67" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
       <c r="L67" t="b">
         <v>0</v>
       </c>
@@ -4718,62 +4718,112 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="E68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
       </c>
       <c r="H68" t="s">
+        <v>239</v>
+      </c>
+      <c r="I68" t="s">
+        <v>235</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>311</v>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
         <v>21</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I69" t="s">
         <v>201</v>
       </c>
-      <c r="J68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68">
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69">
         <v>10</v>
       </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" t="b">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>312</v>
       </c>
-      <c r="O68" t="b">
-        <v>1</v>
-      </c>
-      <c r="P68" t="b">
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC11DD-46DD-4EEF-84D0-E61F0EC80C74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC0228-10C2-4281-9FC3-817C85AE973F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="18" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="19" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="332">
   <si>
     <t>Codigo</t>
   </si>
@@ -1004,6 +1004,24 @@
   </si>
   <si>
     <t>click &amp; roll</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\78421974.png</t>
+  </si>
+  <si>
+    <t>Gelatina</t>
+  </si>
+  <si>
+    <t>sabor frambuesa</t>
+  </si>
+  <si>
+    <t>sobre</t>
+  </si>
+  <si>
+    <t>Gelatinas</t>
+  </si>
+  <si>
+    <t>C:\EditaSoft\Imágenes de artículos\7790070432537.png</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1373,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB48E0C-14F5-4C70-8A0D-1DE0BE805859}">
-  <dimension ref="A1:P69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2849A4-1AE9-4BDB-9B21-1B655CC94DC4}">
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1670,6 +1688,9 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>326</v>
+      </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
@@ -1679,31 +1700,31 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7791708001378</v>
+        <v>7790070432537</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -1718,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1729,31 +1750,31 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7790742336200</v>
+        <v>7791708001378</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1768,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1779,37 +1800,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7791813888406</v>
+        <v>7790742336200</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1818,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1829,37 +1850,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7795522004089</v>
+        <v>7791813888406</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1868,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1879,37 +1900,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7792540250450</v>
+        <v>7795522004089</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1918,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1929,37 +1950,37 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7798094222820</v>
+        <v>7792540250450</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1968,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1979,46 +2000,46 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7791070003291</v>
+        <v>7798094222820</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -2029,31 +2050,31 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -2065,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -2079,31 +2100,31 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -2118,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -2129,31 +2150,31 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F16">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -2168,48 +2189,48 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2218,42 +2239,42 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -2268,48 +2289,48 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2318,42 +2339,42 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F20">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -2368,48 +2389,48 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2418,48 +2439,48 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F22">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2468,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2479,31 +2500,31 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -2518,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2529,37 +2550,37 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2568,48 +2589,48 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2618,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2629,38 +2650,38 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26">
         <v>30</v>
       </c>
-      <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26">
-        <v>12</v>
-      </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
@@ -2668,107 +2689,107 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2779,19 +2800,19 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>500</v>
@@ -2803,13 +2824,13 @@
         <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2818,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2829,37 +2850,37 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2868,48 +2889,48 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2918,48 +2939,48 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F32">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2968,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2979,37 +3000,37 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F33">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -3018,48 +3039,48 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F34">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
       </c>
       <c r="K34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -3068,42 +3089,42 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F35">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -3118,48 +3139,48 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F36">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
       </c>
       <c r="K36">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3168,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3179,37 +3200,37 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3218,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -3229,57 +3250,57 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F38">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B39" t="s">
         <v>138</v>
@@ -3288,10 +3309,10 @@
         <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F39">
         <v>1000</v>
@@ -3315,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="M39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -3329,19 +3350,19 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
         <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="F40">
         <v>1000</v>
@@ -3353,7 +3374,7 @@
         <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
@@ -3368,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -3379,181 +3400,181 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I41" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="b">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J42" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="K42">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F43">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F44">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -3568,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -3579,19 +3600,19 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="F45">
         <v>500</v>
@@ -3603,7 +3624,7 @@
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -3618,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3629,22 +3650,22 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7790150430392</v>
+        <v>7790150006351</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G46" t="s">
         <v>42</v>
@@ -3653,7 +3674,7 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
@@ -3668,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -3679,34 +3700,34 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7790520010445</v>
+        <v>7790150430392</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="K47">
         <v>12</v>
@@ -3718,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -3729,37 +3750,37 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7790520016461</v>
+        <v>7790520010445</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F48">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3768,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -3779,37 +3800,37 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7790520995360</v>
+        <v>7790520016461</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F49">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="I49" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
       </c>
       <c r="K49">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3818,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -3829,37 +3850,37 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7790639003574</v>
+        <v>7790520995360</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F50">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3868,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -3879,49 +3900,49 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7791070000382</v>
+        <v>7790639003574</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
@@ -3929,87 +3950,87 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7791600087128</v>
+        <v>7791070000382</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F52">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
       </c>
       <c r="K52">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7791664000156</v>
+        <v>7791600087128</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F53">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="I53" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -4018,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -4029,16 +4050,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7791664000453</v>
+        <v>7791664000156</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
         <v>208</v>
@@ -4068,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -4079,16 +4100,16 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7791684000934</v>
+        <v>7791664000453</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
         <v>208</v>
@@ -4109,7 +4130,7 @@
         <v>23</v>
       </c>
       <c r="K55">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -4118,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -4129,31 +4150,31 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7793913000139</v>
+        <v>7791684000934</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="I56" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -4168,42 +4189,42 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>7795018002902</v>
+        <v>7793913000139</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="F57">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I57" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
@@ -4218,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -4229,46 +4250,46 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7798100200491</v>
+        <v>7795018002902</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="I58" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
       </c>
       <c r="M58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -4279,19 +4300,19 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7798100200583</v>
+        <v>7798100200491</v>
       </c>
       <c r="B59" t="s">
         <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D59" t="s">
         <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F59">
         <v>20</v>
@@ -4318,57 +4339,57 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>7791600087012</v>
+        <v>7798100200583</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F60">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I60" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -4379,31 +4400,31 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7791520009743</v>
+        <v>7791600087012</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
         <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F61">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I61" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
@@ -4418,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -4429,37 +4450,37 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>7794000006065</v>
+        <v>7791520009743</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F62">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
       </c>
       <c r="K62">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -4468,48 +4489,48 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>7792540260138</v>
+        <v>7794000006065</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
         <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
       </c>
       <c r="K63">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -4518,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
@@ -4529,37 +4550,37 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>7790639003895</v>
+        <v>7792540260138</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="F64">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s">
         <v>23</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
@@ -4568,42 +4589,42 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O64" t="b">
         <v>1</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>7791600174767</v>
+        <v>7790639003895</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F65">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="I65" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="J65" t="s">
         <v>23</v>
@@ -4618,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O65" t="b">
         <v>1</v>
@@ -4629,7 +4650,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>7791600192372</v>
+        <v>7791600174767</v>
       </c>
       <c r="B66" t="s">
         <v>186</v>
@@ -4638,13 +4659,13 @@
         <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
         <v>204</v>
       </c>
       <c r="F66">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G66" t="s">
         <v>35</v>
@@ -4668,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O66" t="b">
         <v>1</v>
@@ -4679,7 +4700,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>7791600192488</v>
+        <v>7791600192372</v>
       </c>
       <c r="B67" t="s">
         <v>186</v>
@@ -4694,7 +4715,7 @@
         <v>204</v>
       </c>
       <c r="F67">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
@@ -4718,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O67" t="b">
         <v>1</v>
@@ -4729,38 +4750,38 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>2001300000798</v>
+        <v>7791600192488</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F68">
+        <v>250</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68" t="s">
+        <v>192</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68">
         <v>6</v>
       </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" t="s">
-        <v>239</v>
-      </c>
-      <c r="I68" t="s">
-        <v>235</v>
-      </c>
-      <c r="J68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
       <c r="L68" t="b">
         <v>0</v>
       </c>
@@ -4768,62 +4789,112 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>7791070000078</v>
+        <v>2001300000798</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
       </c>
       <c r="H69" t="s">
+        <v>239</v>
+      </c>
+      <c r="I69" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>311</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>7791070000078</v>
+      </c>
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" t="s">
+        <v>240</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
         <v>21</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I70" t="s">
         <v>201</v>
       </c>
-      <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69">
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70">
         <v>10</v>
       </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" t="b">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>312</v>
       </c>
-      <c r="O69" t="b">
-        <v>1</v>
-      </c>
-      <c r="P69" t="b">
+      <c r="O70" t="b">
+        <v>1</v>
+      </c>
+      <c r="P70" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Maestro.xlsx
+++ b/Maestro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EditaSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC0228-10C2-4281-9FC3-817C85AE973F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5FF87-02BA-45EC-A46B-DF4DD1510FFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" xr2:uid="{49D38AAD-95AF-42F1-BCD2-D3E6F45A78E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artículos" sheetId="19" r:id="rId1"/>
+    <sheet name="Artículos" sheetId="20" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="333">
   <si>
     <t>Codigo</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t>C:\EditaSoft\Imágenes de artículos\7790070432537.png</t>
+  </si>
+  <si>
+    <t>sabor naranja</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1376,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2849A4-1AE9-4BDB-9B21-1B655CC94DC4}">
-  <dimension ref="A1:P70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DFE2E4-8D8B-4060-9523-69C465705547}">
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1750,31 +1753,31 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7791708001378</v>
+        <v>7790070432575</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1788,11 +1791,8 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
-        <v>251</v>
-      </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1800,31 +1800,31 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7790742336200</v>
+        <v>7791708001378</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1850,37 +1850,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7791813888406</v>
+        <v>7790742336200</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1900,37 +1900,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7795522004089</v>
+        <v>7791813888406</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1950,37 +1950,37 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7792540250450</v>
+        <v>7795522004089</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -2000,37 +2000,37 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7798094222820</v>
+        <v>7792540250450</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="F13">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -2050,46 +2050,46 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7791070003291</v>
+        <v>7798094222820</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -2100,31 +2100,31 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7791519200069</v>
+        <v>7791070003291</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -2136,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -2150,31 +2150,31 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7793913001822</v>
+        <v>7791519200069</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -2200,31 +2200,31 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7791708611454</v>
+        <v>7793913001822</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -2239,48 +2239,48 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7791058000731</v>
+        <v>7791708611454</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2289,42 +2289,42 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7798118140079</v>
+        <v>7791058000731</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2339,48 +2339,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7790150211953</v>
+        <v>7798118140079</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2389,42 +2389,42 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7509546695518</v>
+        <v>7790150211953</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F21">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
         <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -2439,48 +2439,48 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7790220000746</v>
+        <v>7509546695518</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2489,48 +2489,48 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>8445291121867</v>
+        <v>7790220000746</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F23">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2550,31 +2550,31 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7790079010828</v>
+        <v>8445291121867</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2600,37 +2600,37 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7791290794115</v>
+        <v>7790079010828</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2639,48 +2639,48 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7798118140024</v>
+        <v>7791290794115</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2700,38 +2700,38 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7791058000595</v>
+        <v>7798118140024</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27">
         <v>30</v>
       </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27">
-        <v>12</v>
-      </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
@@ -2739,107 +2739,107 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7798205440198</v>
+        <v>7791058000595</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7799155000579</v>
+        <v>7798205440198</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2850,19 +2850,19 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7791813420057</v>
+        <v>7799155000579</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <v>500</v>
@@ -2874,13 +2874,13 @@
         <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2900,37 +2900,37 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7790580127534</v>
+        <v>7791813420057</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2939,48 +2939,48 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7791274196522</v>
+        <v>7790580127534</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2989,48 +2989,48 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7791004000013</v>
+        <v>7791274196522</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -3050,37 +3050,37 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7794000006478</v>
+        <v>7791004000013</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F34">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -3089,48 +3089,48 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7791620187778</v>
+        <v>7794000006478</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F35">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
       </c>
       <c r="K35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3139,42 +3139,42 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7790070433015</v>
+        <v>7791620187778</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F36">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
@@ -3189,48 +3189,48 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7794000006515</v>
+        <v>7790070433015</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
       </c>
       <c r="K37">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -3250,37 +3250,37 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7790220001705</v>
+        <v>7794000006515</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -3300,57 +3300,57 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1111</v>
+        <v>7790220001705</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F39">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B40" t="s">
         <v>138</v>
@@ -3359,10 +3359,10 @@
         <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F40">
         <v>1000</v>
@@ -3386,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -3400,19 +3400,19 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
         <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="F41">
         <v>1000</v>
@@ -3424,7 +3424,7 @@
         <v>142</v>
       </c>
       <c r="I41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3450,181 +3450,181 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>77990112</v>
+        <v>3333</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F42">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>3086123206873</v>
+        <v>77990112</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="K43">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7790036973036</v>
+        <v>3086123206873</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F44">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7790070336385</v>
+        <v>7790036973036</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F45">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G45" t="s">
         <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3650,19 +3650,19 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7790150006351</v>
+        <v>7790070336385</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v